--- a/BackTest/2019-10-24 BackTest ETC.xlsx
+++ b/BackTest/2019-10-24 BackTest ETC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>74</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>8.474576271186439</v>
+      </c>
       <c r="L12" t="n">
         <v>4953.9</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>83</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>3.225806451612903</v>
+      </c>
       <c r="L13" t="n">
         <v>4953.5</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>95</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>31.34328358208955</v>
+      </c>
       <c r="L14" t="n">
         <v>4954.9</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>95</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>30.3030303030303</v>
+      </c>
       <c r="L15" t="n">
         <v>4957</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>95</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>38.70967741935484</v>
+      </c>
       <c r="L16" t="n">
         <v>4959</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>105</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>19.14893617021277</v>
+      </c>
       <c r="L17" t="n">
         <v>4962.4</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>120</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>4961.8</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>120</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>5.660377358490567</v>
+      </c>
       <c r="L19" t="n">
         <v>4961.8</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>126</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>17.24137931034483</v>
+      </c>
       <c r="L20" t="n">
         <v>4962.7</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>132</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>17.24137931034483</v>
+      </c>
       <c r="L21" t="n">
         <v>4964.3</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>141</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>48.27586206896552</v>
+      </c>
       <c r="L22" t="n">
         <v>4966.2</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>153</v>
       </c>
       <c r="K23" t="n">
-        <v>8.695652173913043</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="L23" t="n">
         <v>4967.8</v>
@@ -1466,7 +1488,7 @@
         <v>156</v>
       </c>
       <c r="K24" t="n">
-        <v>11.11111111111111</v>
+        <v>1.639344262295082</v>
       </c>
       <c r="L24" t="n">
         <v>4967.9</v>
@@ -1515,7 +1537,7 @@
         <v>161</v>
       </c>
       <c r="K25" t="n">
-        <v>20.30075187969925</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L25" t="n">
         <v>4968.5</v>
@@ -1564,7 +1586,7 @@
         <v>161</v>
       </c>
       <c r="K26" t="n">
-        <v>19.6969696969697</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L26" t="n">
         <v>4969.1</v>
@@ -1613,7 +1635,7 @@
         <v>162</v>
       </c>
       <c r="K27" t="n">
-        <v>22.48062015503876</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L27" t="n">
         <v>4968.6</v>
@@ -1662,7 +1684,7 @@
         <v>170</v>
       </c>
       <c r="K28" t="n">
-        <v>-3.571428571428571</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
         <v>4968.8</v>
@@ -1711,7 +1733,7 @@
         <v>182</v>
       </c>
       <c r="K29" t="n">
-        <v>-8.474576271186439</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L29" t="n">
         <v>4967.8</v>
@@ -1760,7 +1782,7 @@
         <v>193</v>
       </c>
       <c r="K30" t="n">
-        <v>-14.28571428571428</v>
+        <v>-54.09836065573771</v>
       </c>
       <c r="L30" t="n">
         <v>4965.1</v>
@@ -1809,7 +1831,7 @@
         <v>199</v>
       </c>
       <c r="K31" t="n">
-        <v>-17.55725190839695</v>
+        <v>-82.75862068965517</v>
       </c>
       <c r="L31" t="n">
         <v>4961.2</v>
@@ -1860,7 +1882,7 @@
         <v>205</v>
       </c>
       <c r="K32" t="n">
-        <v>-17.55725190839695</v>
+        <v>-57.69230769230769</v>
       </c>
       <c r="L32" t="n">
         <v>4957</v>
@@ -1911,7 +1933,7 @@
         <v>214</v>
       </c>
       <c r="K33" t="n">
-        <v>-17.55725190839695</v>
+        <v>-62.06896551724138</v>
       </c>
       <c r="L33" t="n">
         <v>4953.1</v>
@@ -1962,7 +1984,7 @@
         <v>219</v>
       </c>
       <c r="K34" t="n">
-        <v>-32.25806451612903</v>
+        <v>-79.31034482758621</v>
       </c>
       <c r="L34" t="n">
         <v>4949</v>
@@ -2013,7 +2035,7 @@
         <v>236</v>
       </c>
       <c r="K35" t="n">
-        <v>-16.31205673758866</v>
+        <v>-38.66666666666666</v>
       </c>
       <c r="L35" t="n">
         <v>4946.1</v>
@@ -2064,7 +2086,7 @@
         <v>236</v>
       </c>
       <c r="K36" t="n">
-        <v>-16.31205673758866</v>
+        <v>-37.83783783783784</v>
       </c>
       <c r="L36" t="n">
         <v>4943.2</v>
@@ -2115,7 +2137,7 @@
         <v>237</v>
       </c>
       <c r="K37" t="n">
-        <v>-24.24242424242424</v>
+        <v>-28.35820895522388</v>
       </c>
       <c r="L37" t="n">
         <v>4940.5</v>
@@ -2166,7 +2188,7 @@
         <v>245</v>
       </c>
       <c r="K38" t="n">
-        <v>-20</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L38" t="n">
         <v>4937.8</v>
@@ -2217,7 +2239,7 @@
         <v>251</v>
       </c>
       <c r="K39" t="n">
-        <v>-23.66412213740458</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L39" t="n">
         <v>4935.7</v>
@@ -2268,7 +2290,7 @@
         <v>255</v>
       </c>
       <c r="K40" t="n">
-        <v>-31.78294573643411</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L40" t="n">
         <v>4934.3</v>
@@ -2319,7 +2341,7 @@
         <v>255</v>
       </c>
       <c r="K41" t="n">
-        <v>-38.21138211382114</v>
+        <v>-28</v>
       </c>
       <c r="L41" t="n">
         <v>4933.5</v>
@@ -2370,7 +2392,7 @@
         <v>263</v>
       </c>
       <c r="K42" t="n">
-        <v>-39.34426229508197</v>
+        <v>6.122448979591836</v>
       </c>
       <c r="L42" t="n">
         <v>4932.9</v>
@@ -2421,7 +2443,7 @@
         <v>266</v>
       </c>
       <c r="K43" t="n">
-        <v>-34.51327433628318</v>
+        <v>10.63829787234043</v>
       </c>
       <c r="L43" t="n">
         <v>4932.9</v>
@@ -2472,7 +2494,7 @@
         <v>266</v>
       </c>
       <c r="K44" t="n">
-        <v>-32.72727272727273</v>
+        <v>-40</v>
       </c>
       <c r="L44" t="n">
         <v>4933.4</v>
@@ -2523,7 +2545,7 @@
         <v>286</v>
       </c>
       <c r="K45" t="n">
-        <v>-48.8</v>
+        <v>-64</v>
       </c>
       <c r="L45" t="n">
         <v>4930.2</v>
@@ -2574,7 +2596,7 @@
         <v>301</v>
       </c>
       <c r="K46" t="n">
-        <v>-32.85714285714285</v>
+        <v>-28.125</v>
       </c>
       <c r="L46" t="n">
         <v>4928.5</v>
@@ -2625,7 +2647,7 @@
         <v>308</v>
       </c>
       <c r="K47" t="n">
-        <v>-35.61643835616438</v>
+        <v>-26.98412698412698</v>
       </c>
       <c r="L47" t="n">
         <v>4926</v>
@@ -2676,7 +2698,7 @@
         <v>310</v>
       </c>
       <c r="K48" t="n">
-        <v>-30</v>
+        <v>-15.25423728813559</v>
       </c>
       <c r="L48" t="n">
         <v>4924.5</v>
@@ -2727,7 +2749,7 @@
         <v>380</v>
       </c>
       <c r="K49" t="n">
-        <v>-50.50505050505051</v>
+        <v>-60</v>
       </c>
       <c r="L49" t="n">
         <v>4916.6</v>
@@ -2778,7 +2800,7 @@
         <v>400</v>
       </c>
       <c r="K50" t="n">
-        <v>-33.33333333333333</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L50" t="n">
         <v>4911.1</v>
@@ -2829,7 +2851,7 @@
         <v>480</v>
       </c>
       <c r="K51" t="n">
-        <v>-50.88967971530249</v>
+        <v>-65.89861751152074</v>
       </c>
       <c r="L51" t="n">
         <v>4897.6</v>
@@ -2880,7 +2902,7 @@
         <v>560</v>
       </c>
       <c r="K52" t="n">
-        <v>-19.43661971830986</v>
+        <v>-20.40816326530612</v>
       </c>
       <c r="L52" t="n">
         <v>4891.3</v>
@@ -2931,7 +2953,7 @@
         <v>580</v>
       </c>
       <c r="K53" t="n">
-        <v>-21.85792349726776</v>
+        <v>-25.47770700636943</v>
       </c>
       <c r="L53" t="n">
         <v>4883.3</v>
@@ -2982,7 +3004,7 @@
         <v>590</v>
       </c>
       <c r="K54" t="n">
-        <v>-17.52021563342318</v>
+        <v>-16.44736842105263</v>
       </c>
       <c r="L54" t="n">
         <v>4876.3</v>
@@ -3033,7 +3055,7 @@
         <v>591</v>
       </c>
       <c r="K55" t="n">
-        <v>-22.8169014084507</v>
+        <v>-22.06896551724138</v>
       </c>
       <c r="L55" t="n">
         <v>4871.4</v>
@@ -3084,7 +3106,7 @@
         <v>605</v>
       </c>
       <c r="K56" t="n">
-        <v>-18.15718157181572</v>
+        <v>-14.47811447811448</v>
       </c>
       <c r="L56" t="n">
         <v>4866.4</v>
@@ -3135,7 +3157,7 @@
         <v>618</v>
       </c>
       <c r="K57" t="n">
-        <v>-14.43569553805774</v>
+        <v>-10.38961038961039</v>
       </c>
       <c r="L57" t="n">
         <v>4863.4</v>
@@ -3186,7 +3208,7 @@
         <v>618</v>
       </c>
       <c r="K58" t="n">
-        <v>-12.60053619302949</v>
+        <v>15.96638655462185</v>
       </c>
       <c r="L58" t="n">
         <v>4860.2</v>
@@ -3237,7 +3259,7 @@
         <v>627</v>
       </c>
       <c r="K59" t="n">
-        <v>-13.29787234042553</v>
+        <v>3.964757709251101</v>
       </c>
       <c r="L59" t="n">
         <v>4863.1</v>
@@ -3288,7 +3310,7 @@
         <v>627</v>
       </c>
       <c r="K60" t="n">
-        <v>-12.36559139784946</v>
+        <v>60.54421768707483</v>
       </c>
       <c r="L60" t="n">
         <v>4864</v>
@@ -3339,7 +3361,7 @@
         <v>640</v>
       </c>
       <c r="K61" t="n">
-        <v>-8.571428571428571</v>
+        <v>27.5</v>
       </c>
       <c r="L61" t="n">
         <v>4874.2</v>
@@ -3390,7 +3412,7 @@
         <v>650</v>
       </c>
       <c r="K62" t="n">
-        <v>-13.17829457364341</v>
+        <v>45.71428571428572</v>
       </c>
       <c r="L62" t="n">
         <v>4875.4</v>
@@ -3441,7 +3463,7 @@
         <v>664</v>
       </c>
       <c r="K63" t="n">
-        <v>-8.542713567839195</v>
+        <v>48.64864864864865</v>
       </c>
       <c r="L63" t="n">
         <v>4880</v>
@@ -3492,7 +3514,7 @@
         <v>665</v>
       </c>
       <c r="K64" t="n">
-        <v>-8.771929824561402</v>
+        <v>45.94594594594595</v>
       </c>
       <c r="L64" t="n">
         <v>4883.5</v>
@@ -3543,7 +3565,7 @@
         <v>669</v>
       </c>
       <c r="K65" t="n">
-        <v>-4.960835509138381</v>
+        <v>25</v>
       </c>
       <c r="L65" t="n">
         <v>4886.5</v>
@@ -3594,7 +3616,7 @@
         <v>671</v>
       </c>
       <c r="K66" t="n">
-        <v>-9.72972972972973</v>
+        <v>1.886792452830189</v>
       </c>
       <c r="L66" t="n">
         <v>4887.9</v>
@@ -3645,7 +3667,7 @@
         <v>702</v>
       </c>
       <c r="K67" t="n">
-        <v>0.5076142131979695</v>
+        <v>38.09523809523809</v>
       </c>
       <c r="L67" t="n">
         <v>4891.1</v>
@@ -3696,7 +3718,7 @@
         <v>703</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.2544529262086514</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="L68" t="n">
         <v>4894.2</v>
@@ -3747,7 +3769,7 @@
         <v>703</v>
       </c>
       <c r="K69" t="n">
-        <v>21.36222910216718</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="L69" t="n">
         <v>4898.2</v>
@@ -3798,7 +3820,7 @@
         <v>709</v>
       </c>
       <c r="K70" t="n">
-        <v>17.79935275080906</v>
+        <v>47.82608695652174</v>
       </c>
       <c r="L70" t="n">
         <v>4902.8</v>
@@ -3849,7 +3871,7 @@
         <v>723</v>
       </c>
       <c r="K71" t="n">
-        <v>61.31687242798354</v>
+        <v>78.08219178082192</v>
       </c>
       <c r="L71" t="n">
         <v>4907.5</v>
@@ -3900,7 +3922,7 @@
         <v>726</v>
       </c>
       <c r="K72" t="n">
-        <v>43.37349397590361</v>
+        <v>74.19354838709677</v>
       </c>
       <c r="L72" t="n">
         <v>4913.5</v>
@@ -3951,7 +3973,7 @@
         <v>726</v>
       </c>
       <c r="K73" t="n">
-        <v>63.01369863013699</v>
+        <v>77.04918032786885</v>
       </c>
       <c r="L73" t="n">
         <v>4918.1</v>
@@ -4002,7 +4024,7 @@
         <v>726</v>
       </c>
       <c r="K74" t="n">
-        <v>60.29411764705882</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="L74" t="n">
         <v>4922.8</v>
@@ -4053,7 +4075,7 @@
         <v>748</v>
       </c>
       <c r="K75" t="n">
-        <v>65.60509554140127</v>
+        <v>97.40259740259741</v>
       </c>
       <c r="L75" t="n">
         <v>4930.1</v>
@@ -4104,7 +4126,7 @@
         <v>765</v>
       </c>
       <c r="K76" t="n">
-        <v>45</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L76" t="n">
         <v>4935.9</v>
@@ -4155,7 +4177,7 @@
         <v>773</v>
       </c>
       <c r="K77" t="n">
-        <v>43.2258064516129</v>
+        <v>51.42857142857142</v>
       </c>
       <c r="L77" t="n">
         <v>4939.4</v>
@@ -4206,7 +4228,7 @@
         <v>778</v>
       </c>
       <c r="K78" t="n">
-        <v>38.75</v>
+        <v>41.33333333333334</v>
       </c>
       <c r="L78" t="n">
         <v>4942.5</v>
@@ -4257,7 +4279,7 @@
         <v>783</v>
       </c>
       <c r="K79" t="n">
-        <v>42.30769230769231</v>
+        <v>27.02702702702703</v>
       </c>
       <c r="L79" t="n">
         <v>4945.1</v>
@@ -4308,7 +4330,7 @@
         <v>792</v>
       </c>
       <c r="K80" t="n">
-        <v>45.45454545454545</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L80" t="n">
         <v>4948</v>
@@ -4359,7 +4381,7 @@
         <v>806</v>
       </c>
       <c r="K81" t="n">
-        <v>28.91566265060241</v>
+        <v>-2.5</v>
       </c>
       <c r="L81" t="n">
         <v>4948.1</v>
@@ -4410,7 +4432,7 @@
         <v>817</v>
       </c>
       <c r="K82" t="n">
-        <v>41.31736526946108</v>
+        <v>9.890109890109891</v>
       </c>
       <c r="L82" t="n">
         <v>4949</v>
@@ -4461,7 +4483,7 @@
         <v>824</v>
       </c>
       <c r="K83" t="n">
-        <v>38.75</v>
+        <v>16.3265306122449</v>
       </c>
       <c r="L83" t="n">
         <v>4950.6</v>
@@ -4512,7 +4534,7 @@
         <v>831</v>
       </c>
       <c r="K84" t="n">
-        <v>33.73493975903614</v>
+        <v>-15.66265060240964</v>
       </c>
       <c r="L84" t="n">
         <v>4951.5</v>
@@ -4563,7 +4585,7 @@
         <v>839</v>
       </c>
       <c r="K85" t="n">
-        <v>40</v>
+        <v>16.21621621621622</v>
       </c>
       <c r="L85" t="n">
         <v>4951</v>
@@ -4614,7 +4636,7 @@
         <v>842</v>
       </c>
       <c r="K86" t="n">
-        <v>39.1812865497076</v>
+        <v>1.449275362318841</v>
       </c>
       <c r="L86" t="n">
         <v>4951.9</v>
@@ -4665,7 +4687,7 @@
         <v>850</v>
       </c>
       <c r="K87" t="n">
-        <v>29.72972972972973</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="L87" t="n">
         <v>4952.8</v>
@@ -4716,7 +4738,7 @@
         <v>852</v>
       </c>
       <c r="K88" t="n">
-        <v>31.54362416107383</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L88" t="n">
         <v>4954.4</v>
@@ -4767,7 +4789,7 @@
         <v>868</v>
       </c>
       <c r="K89" t="n">
-        <v>18.78787878787879</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L89" t="n">
         <v>4954.9</v>
@@ -4818,7 +4840,7 @@
         <v>879</v>
       </c>
       <c r="K90" t="n">
-        <v>21.17647058823529</v>
+        <v>28.76712328767123</v>
       </c>
       <c r="L90" t="n">
         <v>4955.6</v>
@@ -4869,7 +4891,7 @@
         <v>883</v>
       </c>
       <c r="K91" t="n">
-        <v>16.25</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L91" t="n">
         <v>4958.1</v>
@@ -4920,7 +4942,7 @@
         <v>891</v>
       </c>
       <c r="K92" t="n">
-        <v>9.090909090909092</v>
+        <v>-1.492537313432836</v>
       </c>
       <c r="L92" t="n">
         <v>4958.7</v>
@@ -4971,7 +4993,7 @@
         <v>900</v>
       </c>
       <c r="K93" t="n">
-        <v>3.448275862068965</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L93" t="n">
         <v>4957.7</v>
@@ -5022,7 +5044,7 @@
         <v>901</v>
       </c>
       <c r="K94" t="n">
-        <v>4</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L94" t="n">
         <v>4957.5</v>
@@ -5073,7 +5095,7 @@
         <v>910</v>
       </c>
       <c r="K95" t="n">
-        <v>-14.81481481481481</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L95" t="n">
         <v>4955.6</v>
@@ -5124,7 +5146,7 @@
         <v>925</v>
       </c>
       <c r="K96" t="n">
-        <v>5</v>
+        <v>-12</v>
       </c>
       <c r="L96" t="n">
         <v>4955.5</v>
@@ -5175,7 +5197,7 @@
         <v>925</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>-15.06849315068493</v>
       </c>
       <c r="L97" t="n">
         <v>4954.6</v>
@@ -5226,7 +5248,7 @@
         <v>928</v>
       </c>
       <c r="K98" t="n">
-        <v>5.333333333333334</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>4953.8</v>
@@ -5277,7 +5299,7 @@
         <v>935</v>
       </c>
       <c r="K99" t="n">
-        <v>13.1578947368421</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L99" t="n">
         <v>4955.3</v>
@@ -5328,7 +5350,7 @@
         <v>945</v>
       </c>
       <c r="K100" t="n">
-        <v>0.6535947712418301</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L100" t="n">
         <v>4954.7</v>
@@ -5379,7 +5401,7 @@
         <v>959</v>
       </c>
       <c r="K101" t="n">
-        <v>18.95424836601307</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L101" t="n">
         <v>4955.1</v>
@@ -5430,7 +5452,7 @@
         <v>959</v>
       </c>
       <c r="K102" t="n">
-        <v>12.67605633802817</v>
+        <v>35.59322033898305</v>
       </c>
       <c r="L102" t="n">
         <v>4956.3</v>
@@ -5481,7 +5503,7 @@
         <v>971</v>
       </c>
       <c r="K103" t="n">
-        <v>15.64625850340136</v>
+        <v>45.71428571428572</v>
       </c>
       <c r="L103" t="n">
         <v>4959.6</v>
@@ -5532,7 +5554,7 @@
         <v>978</v>
       </c>
       <c r="K104" t="n">
-        <v>25.17006802721088</v>
+        <v>70.58823529411765</v>
       </c>
       <c r="L104" t="n">
         <v>4963.5</v>
@@ -5583,7 +5605,7 @@
         <v>983</v>
       </c>
       <c r="K105" t="n">
-        <v>16.66666666666666</v>
+        <v>48.27586206896552</v>
       </c>
       <c r="L105" t="n">
         <v>4967.8</v>
@@ -5634,7 +5656,7 @@
         <v>990</v>
       </c>
       <c r="K106" t="n">
-        <v>22.97297297297298</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L106" t="n">
         <v>4971.3</v>
@@ -5685,7 +5707,7 @@
         <v>998</v>
       </c>
       <c r="K107" t="n">
-        <v>22.97297297297298</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L107" t="n">
         <v>4975.6</v>
@@ -5736,7 +5758,7 @@
         <v>1009</v>
       </c>
       <c r="K108" t="n">
-        <v>13.37579617834395</v>
+        <v>29.72972972972973</v>
       </c>
       <c r="L108" t="n">
         <v>4978.5</v>
@@ -5787,7 +5809,7 @@
         <v>1032</v>
       </c>
       <c r="K109" t="n">
-        <v>36.58536585365854</v>
+        <v>63.2183908045977</v>
       </c>
       <c r="L109" t="n">
         <v>4983</v>
@@ -5838,7 +5860,7 @@
         <v>1032</v>
       </c>
       <c r="K110" t="n">
-        <v>32.02614379084967</v>
+        <v>56.16438356164384</v>
       </c>
       <c r="L110" t="n">
         <v>4988.5</v>
@@ -5889,7 +5911,7 @@
         <v>1032</v>
       </c>
       <c r="K111" t="n">
-        <v>30.2013422818792</v>
+        <v>56.16438356164384</v>
       </c>
       <c r="L111" t="n">
         <v>4992.6</v>
@@ -5940,7 +5962,7 @@
         <v>1052</v>
       </c>
       <c r="K112" t="n">
-        <v>45.3416149068323</v>
+        <v>60.49382716049383</v>
       </c>
       <c r="L112" t="n">
         <v>4998.7</v>
@@ -5991,7 +6013,7 @@
         <v>1072</v>
       </c>
       <c r="K113" t="n">
-        <v>36.04651162790697</v>
+        <v>23.40425531914894</v>
       </c>
       <c r="L113" t="n">
         <v>5001.6</v>
@@ -6042,7 +6064,7 @@
         <v>1090</v>
       </c>
       <c r="K114" t="n">
-        <v>22.75132275132275</v>
+        <v>8.411214953271028</v>
       </c>
       <c r="L114" t="n">
         <v>5002</v>
@@ -6093,7 +6115,7 @@
         <v>1103</v>
       </c>
       <c r="K115" t="n">
-        <v>33.67875647668394</v>
+        <v>13.27433628318584</v>
       </c>
       <c r="L115" t="n">
         <v>5004.2</v>
@@ -6144,7 +6166,7 @@
         <v>1108</v>
       </c>
       <c r="K116" t="n">
-        <v>30.05464480874317</v>
+        <v>10.90909090909091</v>
       </c>
       <c r="L116" t="n">
         <v>5006.2</v>
@@ -6195,7 +6217,7 @@
         <v>1108</v>
       </c>
       <c r="K117" t="n">
-        <v>30.05464480874317</v>
+        <v>23.23232323232323</v>
       </c>
       <c r="L117" t="n">
         <v>5007.4</v>
@@ -6246,7 +6268,7 @@
         <v>1108</v>
       </c>
       <c r="K118" t="n">
-        <v>28.88888888888889</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>5009.7</v>
@@ -6297,7 +6319,7 @@
         <v>1118</v>
       </c>
       <c r="K119" t="n">
-        <v>19.12568306010929</v>
+        <v>-11.62790697674419</v>
       </c>
       <c r="L119" t="n">
         <v>5008.7</v>
@@ -6348,7 +6370,7 @@
         <v>1128</v>
       </c>
       <c r="K120" t="n">
-        <v>30.05464480874317</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>5008.7</v>
@@ -6399,7 +6421,7 @@
         <v>1133</v>
       </c>
       <c r="K121" t="n">
-        <v>26.4367816091954</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L121" t="n">
         <v>5009.2</v>
@@ -6450,7 +6472,7 @@
         <v>1148</v>
       </c>
       <c r="K122" t="n">
-        <v>32.27513227513227</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L122" t="n">
         <v>5009.2</v>
@@ -6501,7 +6523,7 @@
         <v>1148</v>
       </c>
       <c r="K123" t="n">
-        <v>27.68361581920904</v>
+        <v>65.51724137931035</v>
       </c>
       <c r="L123" t="n">
         <v>5011.2</v>
@@ -6552,7 +6574,7 @@
         <v>1153</v>
       </c>
       <c r="K124" t="n">
-        <v>26.85714285714286</v>
+        <v>60</v>
       </c>
       <c r="L124" t="n">
         <v>5015.5</v>
@@ -6603,7 +6625,7 @@
         <v>1178</v>
       </c>
       <c r="K125" t="n">
-        <v>13.84615384615385</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>5016</v>
@@ -6654,7 +6676,7 @@
         <v>1183</v>
       </c>
       <c r="K126" t="n">
-        <v>7.772020725388601</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L126" t="n">
         <v>5015.5</v>
@@ -6705,7 +6727,7 @@
         <v>1188</v>
       </c>
       <c r="K127" t="n">
-        <v>6.315789473684211</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>5015.5</v>
@@ -6756,7 +6778,7 @@
         <v>1193</v>
       </c>
       <c r="K128" t="n">
-        <v>15.21739130434783</v>
+        <v>20</v>
       </c>
       <c r="L128" t="n">
         <v>5016</v>
@@ -6807,7 +6829,7 @@
         <v>1198</v>
       </c>
       <c r="K129" t="n">
-        <v>6.024096385542169</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L129" t="n">
         <v>5018</v>
@@ -6858,7 +6880,7 @@
         <v>1203</v>
       </c>
       <c r="K130" t="n">
-        <v>8.771929824561402</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L130" t="n">
         <v>5019.5</v>
@@ -6909,7 +6931,7 @@
         <v>1208</v>
       </c>
       <c r="K131" t="n">
-        <v>11.36363636363636</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>5021</v>
@@ -6960,7 +6982,7 @@
         <v>1218</v>
       </c>
       <c r="K132" t="n">
-        <v>-6.024096385542169</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L132" t="n">
         <v>5020</v>
@@ -7011,7 +7033,7 @@
         <v>1218</v>
       </c>
       <c r="K133" t="n">
-        <v>6.849315068493151</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L133" t="n">
         <v>5019</v>
@@ -7062,7 +7084,7 @@
         <v>1242</v>
       </c>
       <c r="K134" t="n">
-        <v>2.631578947368421</v>
+        <v>-21.875</v>
       </c>
       <c r="L134" t="n">
         <v>5015.1</v>
@@ -7113,7 +7135,7 @@
         <v>1249</v>
       </c>
       <c r="K135" t="n">
-        <v>-10.95890410958904</v>
+        <v>-24.24242424242424</v>
       </c>
       <c r="L135" t="n">
         <v>5013</v>
@@ -7164,7 +7186,7 @@
         <v>1258</v>
       </c>
       <c r="K136" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L136" t="n">
         <v>5010.5</v>
@@ -7215,7 +7237,7 @@
         <v>1259</v>
       </c>
       <c r="K137" t="n">
-        <v>-20.52980132450331</v>
+        <v>-54.54545454545454</v>
       </c>
       <c r="L137" t="n">
         <v>5007.4</v>
@@ -7266,7 +7288,7 @@
         <v>1261</v>
       </c>
       <c r="K138" t="n">
-        <v>-18.95424836601307</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L138" t="n">
         <v>5004</v>
@@ -7317,7 +7339,7 @@
         <v>1266</v>
       </c>
       <c r="K139" t="n">
-        <v>-16.21621621621622</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L139" t="n">
         <v>4999.6</v>
@@ -7368,7 +7390,7 @@
         <v>1266</v>
       </c>
       <c r="K140" t="n">
-        <v>-24.63768115942029</v>
+        <v>-93.10344827586206</v>
       </c>
       <c r="L140" t="n">
         <v>4994.7</v>
@@ -7419,7 +7441,7 @@
         <v>1275</v>
       </c>
       <c r="K141" t="n">
-        <v>-21.12676056338028</v>
+        <v>-61.40350877192983</v>
       </c>
       <c r="L141" t="n">
         <v>4990.2</v>
@@ -7470,7 +7492,7 @@
         <v>1278</v>
       </c>
       <c r="K142" t="n">
-        <v>-32.30769230769231</v>
+        <v>-53.33333333333334</v>
       </c>
       <c r="L142" t="n">
         <v>4987</v>
@@ -7521,7 +7543,7 @@
         <v>1282</v>
       </c>
       <c r="K143" t="n">
-        <v>-28.35820895522388</v>
+        <v>-10</v>
       </c>
       <c r="L143" t="n">
         <v>4984.2</v>
@@ -7572,7 +7594,7 @@
         <v>1286</v>
       </c>
       <c r="K144" t="n">
-        <v>-29.32330827067669</v>
+        <v>18.91891891891892</v>
       </c>
       <c r="L144" t="n">
         <v>4984.2</v>
@@ -7623,7 +7645,7 @@
         <v>1289</v>
       </c>
       <c r="K145" t="n">
-        <v>-9.90990990990991</v>
+        <v>61.29032258064516</v>
       </c>
       <c r="L145" t="n">
         <v>4985.2</v>
@@ -7674,7 +7696,7 @@
         <v>1300</v>
       </c>
       <c r="K146" t="n">
-        <v>4.273504273504273</v>
+        <v>75.60975609756098</v>
       </c>
       <c r="L146" t="n">
         <v>4988.2</v>
@@ -7725,7 +7747,7 @@
         <v>1305</v>
       </c>
       <c r="K147" t="n">
-        <v>-4.273504273504273</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L147" t="n">
         <v>4990.8</v>
@@ -7776,7 +7798,7 @@
         <v>1310</v>
       </c>
       <c r="K148" t="n">
-        <v>-12.82051282051282</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L148" t="n">
         <v>4992.7</v>
@@ -7827,7 +7849,7 @@
         <v>1310</v>
       </c>
       <c r="K149" t="n">
-        <v>-17.85714285714286</v>
+        <v>54.54545454545454</v>
       </c>
       <c r="L149" t="n">
         <v>4995.1</v>
@@ -7878,7 +7900,7 @@
         <v>1312</v>
       </c>
       <c r="K150" t="n">
-        <v>-24.77064220183486</v>
+        <v>35.13513513513514</v>
       </c>
       <c r="L150" t="n">
         <v>4997.3</v>
@@ -7929,7 +7951,7 @@
         <v>1314</v>
       </c>
       <c r="K151" t="n">
-        <v>-32.0754716981132</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L151" t="n">
         <v>4998.4</v>
@@ -7980,7 +8002,7 @@
         <v>1323</v>
       </c>
       <c r="K152" t="n">
-        <v>-14.28571428571428</v>
+        <v>31.70731707317073</v>
       </c>
       <c r="L152" t="n">
         <v>5000.1</v>
@@ -8031,7 +8053,7 @@
         <v>1328</v>
       </c>
       <c r="K153" t="n">
-        <v>-18.18181818181818</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L153" t="n">
         <v>5000.9</v>
@@ -8082,7 +8104,7 @@
         <v>1333</v>
       </c>
       <c r="K154" t="n">
-        <v>9.890109890109891</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="L154" t="n">
         <v>5001.8</v>
@@ -8133,7 +8155,7 @@
         <v>1343</v>
       </c>
       <c r="K155" t="n">
-        <v>6.382978723404255</v>
+        <v>-34.88372093023256</v>
       </c>
       <c r="L155" t="n">
         <v>5001.4</v>
@@ -8184,7 +8206,7 @@
         <v>1343</v>
       </c>
       <c r="K156" t="n">
-        <v>17.64705882352941</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L156" t="n">
         <v>4999.9</v>
@@ -8235,7 +8257,7 @@
         <v>1348</v>
       </c>
       <c r="K157" t="n">
-        <v>23.59550561797753</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>4999.4</v>
@@ -8286,7 +8308,7 @@
         <v>1353</v>
       </c>
       <c r="K158" t="n">
-        <v>26.08695652173913</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L158" t="n">
         <v>4999.9</v>
@@ -8337,7 +8359,7 @@
         <v>1358</v>
       </c>
       <c r="K159" t="n">
-        <v>26.08695652173913</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L159" t="n">
         <v>4999.9</v>
@@ -8388,7 +8410,7 @@
         <v>1358</v>
       </c>
       <c r="K160" t="n">
-        <v>26.08695652173913</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L160" t="n">
         <v>5000.1</v>
@@ -8439,7 +8461,7 @@
         <v>1360</v>
       </c>
       <c r="K161" t="n">
-        <v>15.29411764705882</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L161" t="n">
         <v>5000.3</v>
@@ -8490,7 +8512,7 @@
         <v>1368</v>
       </c>
       <c r="K162" t="n">
-        <v>2.222222222222222</v>
+        <v>-25</v>
       </c>
       <c r="L162" t="n">
         <v>4998.8</v>
@@ -8541,7 +8563,7 @@
         <v>1372</v>
       </c>
       <c r="K163" t="n">
-        <v>-6.666666666666667</v>
+        <v>-48.71794871794872</v>
       </c>
       <c r="L163" t="n">
         <v>4997.4</v>
@@ -8592,7 +8614,7 @@
         <v>1374</v>
       </c>
       <c r="K164" t="n">
-        <v>-9.090909090909092</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L164" t="n">
         <v>4995.7</v>
@@ -8643,7 +8665,7 @@
         <v>1375</v>
       </c>
       <c r="K165" t="n">
-        <v>-13.95348837209302</v>
+        <v>-25</v>
       </c>
       <c r="L165" t="n">
         <v>4994.9</v>
@@ -8694,7 +8716,7 @@
         <v>1385</v>
       </c>
       <c r="K166" t="n">
-        <v>-38.82352941176471</v>
+        <v>-62.16216216216216</v>
       </c>
       <c r="L166" t="n">
         <v>4993.1</v>
@@ -8745,7 +8767,7 @@
         <v>1398</v>
       </c>
       <c r="K167" t="n">
-        <v>-16.12903225806452</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L167" t="n">
         <v>4992.1</v>
@@ -8796,7 +8818,7 @@
         <v>1399</v>
       </c>
       <c r="K168" t="n">
-        <v>-12.35955056179775</v>
+        <v>-26.82926829268293</v>
       </c>
       <c r="L168" t="n">
         <v>4990.5</v>
@@ -8847,7 +8869,7 @@
         <v>1411</v>
       </c>
       <c r="K169" t="n">
-        <v>-22.77227722772277</v>
+        <v>-43.39622641509434</v>
       </c>
       <c r="L169" t="n">
         <v>4988.2</v>
@@ -8898,7 +8920,7 @@
         <v>1429</v>
       </c>
       <c r="K170" t="n">
-        <v>-2.564102564102564</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L170" t="n">
         <v>4987.7</v>
@@ -8949,7 +8971,7 @@
         <v>1441</v>
       </c>
       <c r="K171" t="n">
-        <v>-10.23622047244094</v>
+        <v>-9.58904109589041</v>
       </c>
       <c r="L171" t="n">
         <v>4986.2</v>
@@ -9000,7 +9022,7 @@
         <v>1454</v>
       </c>
       <c r="K172" t="n">
-        <v>-6.870229007633588</v>
+        <v>12.19512195121951</v>
       </c>
       <c r="L172" t="n">
         <v>4986.8</v>
@@ -9051,7 +9073,7 @@
         <v>1468</v>
       </c>
       <c r="K173" t="n">
-        <v>7.142857142857142</v>
+        <v>23.40425531914894</v>
       </c>
       <c r="L173" t="n">
         <v>4989.2</v>
@@ -9102,7 +9124,7 @@
         <v>1473</v>
       </c>
       <c r="K174" t="n">
-        <v>0</v>
+        <v>18.36734693877551</v>
       </c>
       <c r="L174" t="n">
         <v>4990.9</v>
@@ -9153,7 +9175,7 @@
         <v>1478</v>
       </c>
       <c r="K175" t="n">
-        <v>11.11111111111111</v>
+        <v>35.48387096774194</v>
       </c>
       <c r="L175" t="n">
         <v>4993.2</v>
@@ -9204,7 +9226,7 @@
         <v>1488</v>
       </c>
       <c r="K176" t="n">
-        <v>17.24137931034483</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L176" t="n">
         <v>4997.5</v>
@@ -9255,7 +9277,7 @@
         <v>1503</v>
       </c>
       <c r="K177" t="n">
-        <v>22.58064516129032</v>
+        <v>44.23076923076923</v>
       </c>
       <c r="L177" t="n">
         <v>5002</v>
@@ -9306,7 +9328,7 @@
         <v>1513</v>
       </c>
       <c r="K178" t="n">
-        <v>12.5</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L178" t="n">
         <v>5005.6</v>
@@ -9357,7 +9379,7 @@
         <v>1518</v>
       </c>
       <c r="K179" t="n">
-        <v>18.75</v>
+        <v>39.32584269662922</v>
       </c>
       <c r="L179" t="n">
         <v>5010.9</v>
@@ -9408,7 +9430,7 @@
         <v>1528</v>
       </c>
       <c r="K180" t="n">
-        <v>11.76470588235294</v>
+        <v>42.5287356321839</v>
       </c>
       <c r="L180" t="n">
         <v>5013.4</v>
@@ -9459,7 +9481,7 @@
         <v>1533</v>
       </c>
       <c r="K181" t="n">
-        <v>9.826589595375722</v>
+        <v>24.05063291139241</v>
       </c>
       <c r="L181" t="n">
         <v>5016.6</v>
@@ -9510,7 +9532,7 @@
         <v>1538</v>
       </c>
       <c r="K182" t="n">
-        <v>11.76470588235294</v>
+        <v>0</v>
       </c>
       <c r="L182" t="n">
         <v>5018</v>
@@ -9561,7 +9583,7 @@
         <v>1543</v>
       </c>
       <c r="K183" t="n">
-        <v>16.95906432748538</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L183" t="n">
         <v>5018.5</v>
@@ -9612,7 +9634,7 @@
         <v>1573</v>
       </c>
       <c r="K184" t="n">
-        <v>28.64321608040201</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L184" t="n">
         <v>5022.5</v>
@@ -9663,7 +9685,7 @@
         <v>1578</v>
       </c>
       <c r="K185" t="n">
-        <v>26.10837438423646</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L185" t="n">
         <v>5025.5</v>
@@ -9714,7 +9736,7 @@
         <v>1578</v>
       </c>
       <c r="K186" t="n">
-        <v>32.64248704663213</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L186" t="n">
         <v>5027.5</v>
@@ -9765,7 +9787,7 @@
         <v>1588</v>
       </c>
       <c r="K187" t="n">
-        <v>31.57894736842105</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L187" t="n">
         <v>5029</v>
@@ -9816,7 +9838,7 @@
         <v>1603</v>
       </c>
       <c r="K188" t="n">
-        <v>37.25490196078432</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L188" t="n">
         <v>5033</v>
@@ -9867,7 +9889,7 @@
         <v>1613</v>
       </c>
       <c r="K189" t="n">
-        <v>38.61386138613862</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L189" t="n">
         <v>5035.5</v>
@@ -9918,7 +9940,7 @@
         <v>1618</v>
       </c>
       <c r="K190" t="n">
-        <v>29.1005291005291</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L190" t="n">
         <v>5038.5</v>
@@ -9969,7 +9991,7 @@
         <v>1618</v>
       </c>
       <c r="K191" t="n">
-        <v>37.85310734463277</v>
+        <v>50</v>
       </c>
       <c r="L191" t="n">
         <v>5042</v>
@@ -10020,7 +10042,7 @@
         <v>1623</v>
       </c>
       <c r="K192" t="n">
-        <v>28.99408284023669</v>
+        <v>37.5</v>
       </c>
       <c r="L192" t="n">
         <v>5045.5</v>
@@ -10071,7 +10093,7 @@
         <v>1633</v>
       </c>
       <c r="K193" t="n">
-        <v>15.15151515151515</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L193" t="n">
         <v>5047.5</v>
@@ -10122,7 +10144,7 @@
         <v>1638</v>
       </c>
       <c r="K194" t="n">
-        <v>15.15151515151515</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L194" t="n">
         <v>5046</v>
@@ -10173,7 +10195,7 @@
         <v>1643</v>
       </c>
       <c r="K195" t="n">
-        <v>15.15151515151515</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L195" t="n">
         <v>5045.5</v>
@@ -10224,7 +10246,7 @@
         <v>1653</v>
       </c>
       <c r="K196" t="n">
-        <v>3.03030303030303</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L196" t="n">
         <v>5044</v>
@@ -10275,7 +10297,7 @@
         <v>1653</v>
       </c>
       <c r="K197" t="n">
-        <v>-6.666666666666667</v>
+        <v>-80</v>
       </c>
       <c r="L197" t="n">
         <v>5041.5</v>
@@ -10326,7 +10348,7 @@
         <v>1658</v>
       </c>
       <c r="K198" t="n">
-        <v>-3.448275862068965</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L198" t="n">
         <v>5037</v>
@@ -10377,7 +10399,7 @@
         <v>1663</v>
       </c>
       <c r="K199" t="n">
-        <v>-10.3448275862069</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L199" t="n">
         <v>5033</v>
@@ -10428,7 +10450,7 @@
         <v>1678</v>
       </c>
       <c r="K200" t="n">
-        <v>-13.33333333333333</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L200" t="n">
         <v>5028</v>
@@ -10479,7 +10501,7 @@
         <v>1698</v>
       </c>
       <c r="K201" t="n">
-        <v>3.03030303030303</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L201" t="n">
         <v>5025</v>
@@ -10530,7 +10552,7 @@
         <v>1708</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L202" t="n">
         <v>5021.5</v>
@@ -10581,7 +10603,7 @@
         <v>1708</v>
       </c>
       <c r="K203" t="n">
-        <v>-3.03030303030303</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L203" t="n">
         <v>5019</v>
@@ -10632,7 +10654,7 @@
         <v>1708</v>
       </c>
       <c r="K204" t="n">
-        <v>-25.92592592592592</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L204" t="n">
         <v>5017</v>
@@ -10683,7 +10705,7 @@
         <v>1713</v>
       </c>
       <c r="K205" t="n">
-        <v>-25.92592592592592</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>5014</v>
@@ -10734,7 +10756,7 @@
         <v>1713</v>
       </c>
       <c r="K206" t="n">
-        <v>-25.92592592592592</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L206" t="n">
         <v>5012</v>
@@ -10785,7 +10807,7 @@
         <v>1713</v>
       </c>
       <c r="K207" t="n">
-        <v>-36</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L207" t="n">
         <v>5010</v>
@@ -10836,7 +10858,7 @@
         <v>1718</v>
       </c>
       <c r="K208" t="n">
-        <v>-47.82608695652174</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L208" t="n">
         <v>5009</v>
@@ -10887,7 +10909,7 @@
         <v>1728</v>
       </c>
       <c r="K209" t="n">
-        <v>-47.82608695652174</v>
+        <v>0</v>
       </c>
       <c r="L209" t="n">
         <v>5007.5</v>
@@ -10938,7 +10960,7 @@
         <v>1728</v>
       </c>
       <c r="K210" t="n">
-        <v>-45.45454545454545</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L210" t="n">
         <v>5007.5</v>
@@ -10989,7 +11011,7 @@
         <v>1736</v>
       </c>
       <c r="K211" t="n">
-        <v>-49.15254237288136</v>
+        <v>-64.28571428571429</v>
       </c>
       <c r="L211" t="n">
         <v>5004.7</v>
@@ -11040,7 +11062,7 @@
         <v>1740</v>
       </c>
       <c r="K212" t="n">
-        <v>-41.88034188034188</v>
+        <v>-43.75</v>
       </c>
       <c r="L212" t="n">
         <v>5003.3</v>
@@ -11091,7 +11113,7 @@
         <v>1746</v>
       </c>
       <c r="K213" t="n">
-        <v>-39.82300884955752</v>
+        <v>-52.63157894736842</v>
       </c>
       <c r="L213" t="n">
         <v>5001.3</v>
@@ -11142,7 +11164,7 @@
         <v>1746</v>
       </c>
       <c r="K214" t="n">
-        <v>-37.03703703703704</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L214" t="n">
         <v>4999.3</v>
@@ -11193,7 +11215,7 @@
         <v>1761</v>
       </c>
       <c r="K215" t="n">
-        <v>-25.42372881355932</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
         <v>4999.3</v>
@@ -11244,7 +11266,7 @@
         <v>1776</v>
       </c>
       <c r="K216" t="n">
-        <v>-28.45528455284553</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L216" t="n">
         <v>4997.8</v>
@@ -11295,7 +11317,7 @@
         <v>1776</v>
       </c>
       <c r="K217" t="n">
-        <v>-28.45528455284553</v>
+        <v>-34.48275862068966</v>
       </c>
       <c r="L217" t="n">
         <v>4996.3</v>
@@ -11346,7 +11368,7 @@
         <v>1779</v>
       </c>
       <c r="K218" t="n">
-        <v>-27.27272727272727</v>
+        <v>-25.49019607843137</v>
       </c>
       <c r="L218" t="n">
         <v>4994</v>
@@ -11397,7 +11419,7 @@
         <v>1782</v>
       </c>
       <c r="K219" t="n">
-        <v>-21.00840336134454</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L219" t="n">
         <v>4993</v>
@@ -11448,7 +11470,7 @@
         <v>1784</v>
       </c>
       <c r="K220" t="n">
-        <v>-7.547169811320755</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>4992.2</v>
@@ -11499,7 +11521,7 @@
         <v>1790</v>
       </c>
       <c r="K221" t="n">
-        <v>-36.95652173913043</v>
+        <v>-20</v>
       </c>
       <c r="L221" t="n">
         <v>4991.6</v>
@@ -11550,7 +11572,7 @@
         <v>1798</v>
       </c>
       <c r="K222" t="n">
-        <v>-17.77777777777778</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L222" t="n">
         <v>4991.4</v>
@@ -11601,7 +11623,7 @@
         <v>1804</v>
       </c>
       <c r="K223" t="n">
-        <v>-10.41666666666667</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L223" t="n">
         <v>4992.4</v>
@@ -11652,7 +11674,7 @@
         <v>1804</v>
       </c>
       <c r="K224" t="n">
-        <v>-10.41666666666667</v>
+        <v>-11.62790697674419</v>
       </c>
       <c r="L224" t="n">
         <v>4993.4</v>
@@ -11703,7 +11725,7 @@
         <v>1823</v>
       </c>
       <c r="K225" t="n">
-        <v>-21.81818181818182</v>
+        <v>-19.14893617021277</v>
       </c>
       <c r="L225" t="n">
         <v>4991</v>
@@ -11754,7 +11776,7 @@
         <v>1827</v>
       </c>
       <c r="K226" t="n">
-        <v>-17.5438596491228</v>
+        <v>-9.803921568627452</v>
       </c>
       <c r="L226" t="n">
         <v>4990.5</v>
@@ -11805,7 +11827,7 @@
         <v>1830</v>
       </c>
       <c r="K227" t="n">
-        <v>-19.65811965811966</v>
+        <v>-9.803921568627452</v>
       </c>
       <c r="L227" t="n">
         <v>4989.7</v>
@@ -11856,7 +11878,7 @@
         <v>1839</v>
       </c>
       <c r="K228" t="n">
-        <v>-30.57851239669421</v>
+        <v>-29.82456140350877</v>
       </c>
       <c r="L228" t="n">
         <v>4988.3</v>
@@ -11907,7 +11929,7 @@
         <v>1843</v>
       </c>
       <c r="K229" t="n">
-        <v>-26.95652173913043</v>
+        <v>-38.98305084745763</v>
       </c>
       <c r="L229" t="n">
         <v>4986.2</v>
@@ -11958,7 +11980,7 @@
         <v>1850</v>
       </c>
       <c r="K230" t="n">
-        <v>-31.14754098360656</v>
+        <v>-40</v>
       </c>
       <c r="L230" t="n">
         <v>4983.2</v>
@@ -12009,7 +12031,7 @@
         <v>1862</v>
       </c>
       <c r="K231" t="n">
-        <v>-33.33333333333333</v>
+        <v>-68.75</v>
       </c>
       <c r="L231" t="n">
         <v>4979.6</v>
@@ -12060,7 +12082,7 @@
         <v>1872</v>
       </c>
       <c r="K232" t="n">
-        <v>-27.27272727272727</v>
+        <v>-58.82352941176471</v>
       </c>
       <c r="L232" t="n">
         <v>4976.2</v>
@@ -12111,7 +12133,7 @@
         <v>1874</v>
       </c>
       <c r="K233" t="n">
-        <v>-21.875</v>
+        <v>-54.28571428571428</v>
       </c>
       <c r="L233" t="n">
         <v>4972.4</v>
@@ -12162,7 +12184,7 @@
         <v>1887</v>
       </c>
       <c r="K234" t="n">
-        <v>-10.63829787234043</v>
+        <v>-9.375</v>
       </c>
       <c r="L234" t="n">
         <v>4969.9</v>
@@ -12213,7 +12235,7 @@
         <v>1887</v>
       </c>
       <c r="K235" t="n">
-        <v>-23.80952380952381</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L235" t="n">
         <v>4969.3</v>
@@ -12264,7 +12286,7 @@
         <v>1893</v>
       </c>
       <c r="K236" t="n">
-        <v>-17.94871794871795</v>
+        <v>-20.63492063492063</v>
       </c>
       <c r="L236" t="n">
         <v>4967.7</v>
@@ -12315,7 +12337,7 @@
         <v>1893</v>
       </c>
       <c r="K237" t="n">
-        <v>-17.94871794871795</v>
+        <v>-7.407407407407407</v>
       </c>
       <c r="L237" t="n">
         <v>4966.4</v>
@@ -12366,7 +12388,7 @@
         <v>1893</v>
       </c>
       <c r="K238" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L238" t="n">
         <v>4966</v>
@@ -12417,7 +12439,7 @@
         <v>1896</v>
       </c>
       <c r="K239" t="n">
-        <v>-21.05263157894737</v>
+        <v>8.695652173913043</v>
       </c>
       <c r="L239" t="n">
         <v>4965.7</v>
@@ -12468,7 +12490,7 @@
         <v>1896</v>
       </c>
       <c r="K240" t="n">
-        <v>-23.21428571428572</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L240" t="n">
         <v>4966.1</v>
@@ -12519,7 +12541,7 @@
         <v>1900</v>
       </c>
       <c r="K241" t="n">
-        <v>-14.54545454545454</v>
+        <v>35.71428571428572</v>
       </c>
       <c r="L241" t="n">
         <v>4968.1</v>
@@ -12570,7 +12592,7 @@
         <v>1900</v>
       </c>
       <c r="K242" t="n">
-        <v>-23.52941176470588</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L242" t="n">
         <v>4969.1</v>
@@ -12621,7 +12643,7 @@
         <v>1901</v>
       </c>
       <c r="K243" t="n">
-        <v>-29.89690721649485</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L243" t="n">
         <v>4970</v>
@@ -12672,7 +12694,7 @@
         <v>1902</v>
       </c>
       <c r="K244" t="n">
-        <v>-30.61224489795918</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L244" t="n">
         <v>4969.5</v>
@@ -12723,7 +12745,7 @@
         <v>1920</v>
       </c>
       <c r="K245" t="n">
-        <v>7.216494845360824</v>
+        <v>70.37037037037037</v>
       </c>
       <c r="L245" t="n">
         <v>4970.8</v>
@@ -12774,7 +12796,7 @@
         <v>1929</v>
       </c>
       <c r="K246" t="n">
-        <v>-5.88235294117647</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L246" t="n">
         <v>4971.8</v>
@@ -12825,7 +12847,7 @@
         <v>1931</v>
       </c>
       <c r="K247" t="n">
-        <v>-0.9900990099009901</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="L247" t="n">
         <v>4973</v>
@@ -12876,7 +12898,7 @@
         <v>1950</v>
       </c>
       <c r="K248" t="n">
-        <v>24.32432432432433</v>
+        <v>62.96296296296296</v>
       </c>
       <c r="L248" t="n">
         <v>4976.1</v>
@@ -12927,7 +12949,7 @@
         <v>1950</v>
       </c>
       <c r="K249" t="n">
-        <v>28.97196261682243</v>
+        <v>62.96296296296296</v>
       </c>
       <c r="L249" t="n">
         <v>4979.5</v>
@@ -12978,7 +13000,7 @@
         <v>1954</v>
       </c>
       <c r="K250" t="n">
-        <v>32.69230769230769</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L250" t="n">
         <v>4982.5</v>
@@ -13029,7 +13051,7 @@
         <v>1957</v>
       </c>
       <c r="K251" t="n">
-        <v>51.57894736842105</v>
+        <v>50.87719298245614</v>
       </c>
       <c r="L251" t="n">
         <v>4985.4</v>
@@ -13080,7 +13102,7 @@
         <v>1976</v>
       </c>
       <c r="K252" t="n">
-        <v>19.23076923076923</v>
+        <v>12</v>
       </c>
       <c r="L252" t="n">
         <v>4986.4</v>
@@ -13131,7 +13153,7 @@
         <v>1978</v>
       </c>
       <c r="K253" t="n">
-        <v>15.38461538461539</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="L253" t="n">
         <v>4987.1</v>
@@ -13182,7 +13204,7 @@
         <v>1987</v>
       </c>
       <c r="K254" t="n">
-        <v>12</v>
+        <v>-1.492537313432836</v>
       </c>
       <c r="L254" t="n">
         <v>4988.8</v>
@@ -13233,7 +13255,7 @@
         <v>1989</v>
       </c>
       <c r="K255" t="n">
-        <v>9.803921568627452</v>
+        <v>10</v>
       </c>
       <c r="L255" t="n">
         <v>4988.5</v>
@@ -13284,7 +13306,7 @@
         <v>1994</v>
       </c>
       <c r="K256" t="n">
-        <v>10.89108910891089</v>
+        <v>-1.587301587301587</v>
       </c>
       <c r="L256" t="n">
         <v>4988.6</v>
@@ -13335,7 +13357,7 @@
         <v>2001</v>
       </c>
       <c r="K257" t="n">
-        <v>16.66666666666666</v>
+        <v>-25.49019607843137</v>
       </c>
       <c r="L257" t="n">
         <v>4989.2</v>
@@ -13386,7 +13408,7 @@
         <v>2008</v>
       </c>
       <c r="K258" t="n">
-        <v>9.565217391304348</v>
+        <v>-34.48275862068966</v>
       </c>
       <c r="L258" t="n">
         <v>4987.2</v>
@@ -13437,7 +13459,7 @@
         <v>2014</v>
       </c>
       <c r="K259" t="n">
-        <v>16.94915254237288</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L259" t="n">
         <v>4985.8</v>
@@ -13488,7 +13510,7 @@
         <v>2017</v>
       </c>
       <c r="K260" t="n">
-        <v>19.00826446280992</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L260" t="n">
         <v>4985.1</v>
@@ -13539,7 +13561,7 @@
         <v>2033</v>
       </c>
       <c r="K261" t="n">
-        <v>26.31578947368421</v>
+        <v>43.85964912280701</v>
       </c>
       <c r="L261" t="n">
         <v>4985.7</v>
@@ -13590,7 +13612,7 @@
         <v>2043</v>
       </c>
       <c r="K262" t="n">
-        <v>17.48251748251748</v>
+        <v>26.15384615384616</v>
       </c>
       <c r="L262" t="n">
         <v>4987.2</v>
@@ -13641,7 +13663,7 @@
         <v>2053</v>
       </c>
       <c r="K263" t="n">
-        <v>22.36842105263158</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L263" t="n">
         <v>4989.9</v>
@@ -13692,7 +13714,7 @@
         <v>2066</v>
       </c>
       <c r="K264" t="n">
-        <v>13.41463414634146</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L264" t="n">
         <v>4990.4</v>
@@ -13743,7 +13765,7 @@
         <v>2066</v>
       </c>
       <c r="K265" t="n">
-        <v>2.73972602739726</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L265" t="n">
         <v>4991.1</v>
@@ -13794,7 +13816,7 @@
         <v>2067</v>
       </c>
       <c r="K266" t="n">
-        <v>8.695652173913043</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="L266" t="n">
         <v>4992.2</v>
@@ -13845,7 +13867,7 @@
         <v>2068</v>
       </c>
       <c r="K267" t="n">
-        <v>8.02919708029197</v>
+        <v>20</v>
       </c>
       <c r="L267" t="n">
         <v>4992.7</v>
@@ -13896,7 +13918,7 @@
         <v>2069</v>
       </c>
       <c r="K268" t="n">
-        <v>-7.563025210084033</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L268" t="n">
         <v>4993.8</v>
@@ -13947,7 +13969,7 @@
         <v>2070</v>
       </c>
       <c r="K269" t="n">
-        <v>-6.666666666666667</v>
+        <v>5.660377358490567</v>
       </c>
       <c r="L269" t="n">
         <v>4994.4</v>
@@ -13998,7 +14020,7 @@
         <v>2072</v>
       </c>
       <c r="K270" t="n">
-        <v>-1.694915254237288</v>
+        <v>-28.2051282051282</v>
       </c>
       <c r="L270" t="n">
         <v>4994.9</v>
@@ -14049,7 +14071,7 @@
         <v>2079</v>
       </c>
       <c r="K271" t="n">
-        <v>-9.836065573770492</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L271" t="n">
         <v>4993.1</v>
@@ -14100,7 +14122,7 @@
         <v>2085</v>
       </c>
       <c r="K272" t="n">
-        <v>0.9174311926605505</v>
+        <v>-75</v>
       </c>
       <c r="L272" t="n">
         <v>4991.7</v>
@@ -14151,7 +14173,7 @@
         <v>2094</v>
       </c>
       <c r="K273" t="n">
-        <v>-5.172413793103448</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L273" t="n">
         <v>4988.4</v>
@@ -14202,7 +14224,7 @@
         <v>2104</v>
       </c>
       <c r="K274" t="n">
-        <v>-4.273504273504273</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L274" t="n">
         <v>4987.4</v>
@@ -14253,7 +14275,7 @@
         <v>2105</v>
       </c>
       <c r="K275" t="n">
-        <v>-3.448275862068965</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L275" t="n">
         <v>4986.3</v>
@@ -14304,7 +14326,7 @@
         <v>2116</v>
       </c>
       <c r="K276" t="n">
-        <v>-8.196721311475409</v>
+        <v>-45.83333333333333</v>
       </c>
       <c r="L276" t="n">
         <v>4984.2</v>
@@ -14355,7 +14377,7 @@
         <v>2134</v>
       </c>
       <c r="K277" t="n">
-        <v>-26.31578947368421</v>
+        <v>-60</v>
       </c>
       <c r="L277" t="n">
         <v>4980.2</v>
@@ -14406,7 +14428,7 @@
         <v>2139</v>
       </c>
       <c r="K278" t="n">
-        <v>-25.19083969465649</v>
+        <v>-65.21739130434783</v>
       </c>
       <c r="L278" t="n">
         <v>4975.8</v>
@@ -14457,7 +14479,7 @@
         <v>2150</v>
       </c>
       <c r="K279" t="n">
-        <v>-36.76470588235294</v>
+        <v>-74.35897435897436</v>
       </c>
       <c r="L279" t="n">
         <v>4970.2</v>
@@ -14508,7 +14530,7 @@
         <v>2156</v>
       </c>
       <c r="K280" t="n">
-        <v>-42.44604316546763</v>
+        <v>-74.02597402597402</v>
       </c>
       <c r="L280" t="n">
         <v>4963.8</v>
@@ -14559,7 +14581,7 @@
         <v>2162</v>
       </c>
       <c r="K281" t="n">
-        <v>-53.48837209302325</v>
+        <v>-58.44155844155844</v>
       </c>
       <c r="L281" t="n">
         <v>4958.7</v>
@@ -14610,7 +14632,7 @@
         <v>2165</v>
       </c>
       <c r="K282" t="n">
-        <v>-45.90163934426229</v>
+        <v>-46.47887323943662</v>
       </c>
       <c r="L282" t="n">
         <v>4954.5</v>
@@ -14661,7 +14683,7 @@
         <v>2169</v>
       </c>
       <c r="K283" t="n">
-        <v>-60.3448275862069</v>
+        <v>-72.30769230769231</v>
       </c>
       <c r="L283" t="n">
         <v>4950.8</v>
@@ -14712,7 +14734,7 @@
         <v>2179</v>
       </c>
       <c r="K284" t="n">
-        <v>-59.29203539823009</v>
+        <v>-75.67567567567568</v>
       </c>
       <c r="L284" t="n">
         <v>4945.1</v>
@@ -14763,7 +14785,7 @@
         <v>2189</v>
       </c>
       <c r="K285" t="n">
-        <v>-46.34146341463415</v>
+        <v>-47.94520547945205</v>
       </c>
       <c r="L285" t="n">
         <v>4940.5</v>
@@ -14814,7 +14836,7 @@
         <v>2194</v>
       </c>
       <c r="K286" t="n">
-        <v>-40.15748031496063</v>
+        <v>-20</v>
       </c>
       <c r="L286" t="n">
         <v>4937.5</v>
@@ -14865,7 +14887,7 @@
         <v>2208</v>
       </c>
       <c r="K287" t="n">
-        <v>-27.14285714285714</v>
+        <v>10.14492753623188</v>
       </c>
       <c r="L287" t="n">
         <v>4937.7</v>
@@ -14916,7 +14938,7 @@
         <v>2210</v>
       </c>
       <c r="K288" t="n">
-        <v>-27.65957446808511</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L288" t="n">
         <v>4938.2</v>
@@ -14967,7 +14989,7 @@
         <v>2222</v>
       </c>
       <c r="K289" t="n">
-        <v>-18.42105263157895</v>
+        <v>51.51515151515152</v>
       </c>
       <c r="L289" t="n">
         <v>4941</v>
@@ -15018,7 +15040,7 @@
         <v>2232</v>
       </c>
       <c r="K290" t="n">
-        <v>-12.5</v>
+        <v>54.28571428571428</v>
       </c>
       <c r="L290" t="n">
         <v>4945.4</v>
@@ -15069,7 +15091,7 @@
         <v>2244</v>
       </c>
       <c r="K291" t="n">
-        <v>-15.15151515151515</v>
+        <v>29.11392405063291</v>
       </c>
       <c r="L291" t="n">
         <v>4948</v>
@@ -15120,7 +15142,7 @@
         <v>2254</v>
       </c>
       <c r="K292" t="n">
-        <v>-5.325443786982249</v>
+        <v>43.52941176470588</v>
       </c>
       <c r="L292" t="n">
         <v>4951.3</v>
@@ -15171,7 +15193,7 @@
         <v>2267</v>
       </c>
       <c r="K293" t="n">
-        <v>7.514450867052023</v>
+        <v>68.18181818181817</v>
       </c>
       <c r="L293" t="n">
         <v>4956.3</v>
@@ -15222,7 +15244,7 @@
         <v>2276</v>
       </c>
       <c r="K294" t="n">
-        <v>-3.488372093023256</v>
+        <v>47.12643678160919</v>
       </c>
       <c r="L294" t="n">
         <v>4961.4</v>
@@ -15273,7 +15295,7 @@
         <v>2285</v>
       </c>
       <c r="K295" t="n">
-        <v>2.222222222222222</v>
+        <v>49.45054945054945</v>
       </c>
       <c r="L295" t="n">
         <v>4966.4</v>
@@ -15324,7 +15346,7 @@
         <v>2285</v>
       </c>
       <c r="K296" t="n">
-        <v>8.875739644970414</v>
+        <v>40.25974025974026</v>
       </c>
       <c r="L296" t="n">
         <v>4970.9</v>
@@ -15375,7 +15397,7 @@
         <v>2287</v>
       </c>
       <c r="K297" t="n">
-        <v>22.87581699346405</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L297" t="n">
         <v>4974.2</v>
@@ -15426,7 +15448,7 @@
         <v>2287</v>
       </c>
       <c r="K298" t="n">
-        <v>27.02702702702703</v>
+        <v>35.38461538461539</v>
       </c>
       <c r="L298" t="n">
         <v>4977.7</v>
@@ -15477,7 +15499,7 @@
         <v>2287</v>
       </c>
       <c r="K299" t="n">
-        <v>37.22627737226277</v>
+        <v>23.63636363636364</v>
       </c>
       <c r="L299" t="n">
         <v>4980</v>
@@ -15528,7 +15550,7 @@
         <v>2287</v>
       </c>
       <c r="K300" t="n">
-        <v>43.51145038167939</v>
+        <v>58.13953488372093</v>
       </c>
       <c r="L300" t="n">
         <v>4981.3</v>
@@ -15579,7 +15601,7 @@
         <v>2294</v>
       </c>
       <c r="K301" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L301" t="n">
         <v>4983.1</v>
@@ -15630,7 +15652,7 @@
         <v>2303</v>
       </c>
       <c r="K302" t="n">
-        <v>36.23188405797102</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L302" t="n">
         <v>4984.8</v>

--- a/BackTest/2019-10-24 BackTest ETC.xlsx
+++ b/BackTest/2019-10-24 BackTest ETC.xlsx
@@ -2166,20 +2166,14 @@
         <v>4941.083333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>4866</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2207,20 +2201,14 @@
         <v>4940</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>4796</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2255,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2294,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2326,20 +2306,14 @@
         <v>4935.766666666666</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>4851</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2367,20 +2341,14 @@
         <v>4934.516666666666</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>4870</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2408,20 +2376,14 @@
         <v>4933.766666666666</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>4888</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2449,20 +2411,14 @@
         <v>4932.95</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>4889</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2496,12 +2452,12 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>4876</v>
+        <v>4888</v>
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M59" t="n">
@@ -2572,14 +2528,12 @@
         <v>4930.45</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>4875</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
@@ -2613,14 +2567,12 @@
         <v>4929.45</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>4883</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
@@ -2654,14 +2606,12 @@
         <v>4928.433333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>4886</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
@@ -2695,14 +2645,12 @@
         <v>4927.5</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>4895</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
@@ -2736,14 +2684,12 @@
         <v>4926.616666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>4895</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
@@ -2777,14 +2723,12 @@
         <v>4925.683333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>4890</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -2818,14 +2762,12 @@
         <v>4925.333333333333</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>4900</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
@@ -2859,14 +2801,12 @@
         <v>4924.55</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>4919</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
@@ -2900,14 +2840,12 @@
         <v>4923.866666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>4919</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
@@ -2941,14 +2879,12 @@
         <v>4923.333333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>4920</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
@@ -2982,14 +2918,12 @@
         <v>4923.05</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>4925</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
@@ -3023,14 +2957,12 @@
         <v>4922.716666666666</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>4942</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
@@ -4510,16 +4442,18 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4551,10 +4485,12 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5072,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -7312,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
@@ -7347,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
@@ -10424,14 +10360,20 @@
         <v>4980.3</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>4947</v>
+      </c>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10466,7 +10408,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10494,14 +10440,20 @@
         <v>4978.433333333333</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>4930</v>
+      </c>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-24 BackTest ETC.xlsx
+++ b/BackTest/2019-10-24 BackTest ETC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M281"/>
+  <dimension ref="A1:M282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4941</v>
+        <v>4933</v>
       </c>
       <c r="C2" t="n">
-        <v>4942</v>
+        <v>4933</v>
       </c>
       <c r="D2" t="n">
-        <v>4942</v>
+        <v>4933</v>
       </c>
       <c r="E2" t="n">
-        <v>4941</v>
+        <v>4933</v>
       </c>
       <c r="F2" t="n">
-        <v>101.4</v>
+        <v>42.8897</v>
       </c>
       <c r="G2" t="n">
-        <v>4944.45</v>
+        <v>4943.516666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4950</v>
+        <v>4941</v>
       </c>
       <c r="C3" t="n">
-        <v>4957</v>
+        <v>4942</v>
       </c>
       <c r="D3" t="n">
-        <v>4957</v>
+        <v>4942</v>
       </c>
       <c r="E3" t="n">
-        <v>4950</v>
+        <v>4941</v>
       </c>
       <c r="F3" t="n">
-        <v>152.8431</v>
+        <v>101.4</v>
       </c>
       <c r="G3" t="n">
-        <v>4944.516666666666</v>
+        <v>4944.45</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4951</v>
+        <v>4950</v>
       </c>
       <c r="C4" t="n">
-        <v>4951</v>
+        <v>4957</v>
       </c>
       <c r="D4" t="n">
-        <v>4951</v>
+        <v>4957</v>
       </c>
       <c r="E4" t="n">
-        <v>4951</v>
+        <v>4950</v>
       </c>
       <c r="F4" t="n">
-        <v>95.6345</v>
+        <v>152.8431</v>
       </c>
       <c r="G4" t="n">
-        <v>4944.716666666666</v>
+        <v>4944.516666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4950</v>
+        <v>4951</v>
       </c>
       <c r="C5" t="n">
-        <v>4944</v>
+        <v>4951</v>
       </c>
       <c r="D5" t="n">
-        <v>4950</v>
+        <v>4951</v>
       </c>
       <c r="E5" t="n">
-        <v>4944</v>
+        <v>4951</v>
       </c>
       <c r="F5" t="n">
-        <v>112.8408</v>
+        <v>95.6345</v>
       </c>
       <c r="G5" t="n">
-        <v>4944.2</v>
+        <v>4944.716666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4945</v>
+        <v>4950</v>
       </c>
       <c r="C6" t="n">
-        <v>4945</v>
+        <v>4944</v>
       </c>
       <c r="D6" t="n">
-        <v>4945</v>
+        <v>4950</v>
       </c>
       <c r="E6" t="n">
-        <v>4945</v>
+        <v>4944</v>
       </c>
       <c r="F6" t="n">
-        <v>88.3481</v>
+        <v>112.8408</v>
       </c>
       <c r="G6" t="n">
-        <v>4943.366666666667</v>
+        <v>4944.2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4949</v>
+        <v>4945</v>
       </c>
       <c r="C7" t="n">
-        <v>4941</v>
+        <v>4945</v>
       </c>
       <c r="D7" t="n">
-        <v>4949</v>
+        <v>4945</v>
       </c>
       <c r="E7" t="n">
-        <v>4941</v>
+        <v>4945</v>
       </c>
       <c r="F7" t="n">
-        <v>403.922</v>
+        <v>88.3481</v>
       </c>
       <c r="G7" t="n">
-        <v>4942.65</v>
+        <v>4943.366666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4952</v>
+        <v>4949</v>
       </c>
       <c r="C8" t="n">
-        <v>4966</v>
+        <v>4941</v>
       </c>
       <c r="D8" t="n">
-        <v>4966</v>
+        <v>4949</v>
       </c>
       <c r="E8" t="n">
-        <v>4952</v>
+        <v>4941</v>
       </c>
       <c r="F8" t="n">
-        <v>85.14960000000001</v>
+        <v>403.922</v>
       </c>
       <c r="G8" t="n">
-        <v>4942.75</v>
+        <v>4942.65</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4969</v>
+        <v>4952</v>
       </c>
       <c r="C9" t="n">
-        <v>4960</v>
+        <v>4966</v>
       </c>
       <c r="D9" t="n">
-        <v>4969</v>
+        <v>4966</v>
       </c>
       <c r="E9" t="n">
-        <v>4960</v>
+        <v>4952</v>
       </c>
       <c r="F9" t="n">
-        <v>11.6781</v>
+        <v>85.14960000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>4942.833333333333</v>
+        <v>4942.75</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4957</v>
+        <v>4969</v>
       </c>
       <c r="C10" t="n">
-        <v>4957</v>
+        <v>4960</v>
       </c>
       <c r="D10" t="n">
-        <v>4957</v>
+        <v>4969</v>
       </c>
       <c r="E10" t="n">
-        <v>4957</v>
+        <v>4960</v>
       </c>
       <c r="F10" t="n">
-        <v>5.02</v>
+        <v>11.6781</v>
       </c>
       <c r="G10" t="n">
-        <v>4942.866666666667</v>
+        <v>4942.833333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>4957</v>
       </c>
       <c r="C11" t="n">
-        <v>4956</v>
+        <v>4957</v>
       </c>
       <c r="D11" t="n">
         <v>4957</v>
       </c>
       <c r="E11" t="n">
-        <v>4956</v>
+        <v>4957</v>
       </c>
       <c r="F11" t="n">
-        <v>19.5077</v>
+        <v>5.02</v>
       </c>
       <c r="G11" t="n">
-        <v>4942.95</v>
+        <v>4942.866666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4962</v>
+        <v>4957</v>
       </c>
       <c r="C12" t="n">
-        <v>4962</v>
+        <v>4956</v>
       </c>
       <c r="D12" t="n">
-        <v>4962</v>
+        <v>4957</v>
       </c>
       <c r="E12" t="n">
-        <v>4962</v>
+        <v>4956</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>19.5077</v>
       </c>
       <c r="G12" t="n">
-        <v>4942.966666666666</v>
+        <v>4942.95</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4953</v>
+        <v>4962</v>
       </c>
       <c r="C13" t="n">
-        <v>4953</v>
+        <v>4962</v>
       </c>
       <c r="D13" t="n">
-        <v>4953</v>
+        <v>4962</v>
       </c>
       <c r="E13" t="n">
-        <v>4953</v>
+        <v>4962</v>
       </c>
       <c r="F13" t="n">
-        <v>1.7559</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>4942.85</v>
+        <v>4942.966666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4965</v>
+        <v>4953</v>
       </c>
       <c r="C14" t="n">
-        <v>4965</v>
+        <v>4953</v>
       </c>
       <c r="D14" t="n">
-        <v>4965</v>
+        <v>4953</v>
       </c>
       <c r="E14" t="n">
-        <v>4965</v>
+        <v>4953</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5001007049345418</v>
+        <v>1.7559</v>
       </c>
       <c r="G14" t="n">
-        <v>4942.9</v>
+        <v>4942.85</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>4965</v>
       </c>
       <c r="F15" t="n">
-        <v>2.0901</v>
+        <v>0.5001007049345418</v>
       </c>
       <c r="G15" t="n">
-        <v>4942.933333333333</v>
+        <v>4942.9</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>4965</v>
       </c>
       <c r="F16" t="n">
-        <v>1.178</v>
+        <v>2.0901</v>
       </c>
       <c r="G16" t="n">
-        <v>4942.883333333333</v>
+        <v>4942.933333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4975</v>
+        <v>4965</v>
       </c>
       <c r="C17" t="n">
-        <v>4975</v>
+        <v>4965</v>
       </c>
       <c r="D17" t="n">
-        <v>4975</v>
+        <v>4965</v>
       </c>
       <c r="E17" t="n">
-        <v>4975</v>
+        <v>4965</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1.178</v>
       </c>
       <c r="G17" t="n">
-        <v>4942.966666666666</v>
+        <v>4942.883333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4960</v>
+        <v>4975</v>
       </c>
       <c r="C18" t="n">
-        <v>4960</v>
+        <v>4975</v>
       </c>
       <c r="D18" t="n">
-        <v>4960</v>
+        <v>4975</v>
       </c>
       <c r="E18" t="n">
-        <v>4960</v>
+        <v>4975</v>
       </c>
       <c r="F18" t="n">
-        <v>3.3217</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>4943</v>
+        <v>4942.966666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>4960</v>
       </c>
       <c r="E19" t="n">
-        <v>4957</v>
+        <v>4960</v>
       </c>
       <c r="F19" t="n">
-        <v>917.2371000000001</v>
+        <v>3.3217</v>
       </c>
       <c r="G19" t="n">
-        <v>4943.15</v>
+        <v>4943</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1066,19 @@
         <v>4960</v>
       </c>
       <c r="C20" t="n">
-        <v>4966</v>
+        <v>4960</v>
       </c>
       <c r="D20" t="n">
-        <v>4966</v>
+        <v>4960</v>
       </c>
       <c r="E20" t="n">
-        <v>4960</v>
+        <v>4957</v>
       </c>
       <c r="F20" t="n">
-        <v>282.9284</v>
+        <v>917.2371000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>4943.416666666667</v>
+        <v>4943.15</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>4960</v>
+      </c>
+      <c r="C21" t="n">
         <v>4966</v>
       </c>
-      <c r="C21" t="n">
-        <v>4972</v>
-      </c>
       <c r="D21" t="n">
-        <v>4972</v>
+        <v>4966</v>
       </c>
       <c r="E21" t="n">
-        <v>4966</v>
+        <v>4960</v>
       </c>
       <c r="F21" t="n">
-        <v>69.49630000000001</v>
+        <v>282.9284</v>
       </c>
       <c r="G21" t="n">
-        <v>4943.95</v>
+        <v>4943.416666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4981</v>
+        <v>4966</v>
       </c>
       <c r="C22" t="n">
-        <v>4981</v>
+        <v>4972</v>
       </c>
       <c r="D22" t="n">
-        <v>4981</v>
+        <v>4972</v>
       </c>
       <c r="E22" t="n">
-        <v>4981</v>
+        <v>4966</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5001003814495081</v>
+        <v>69.49630000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>4944.75</v>
+        <v>4943.95</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4970</v>
+        <v>4981</v>
       </c>
       <c r="C23" t="n">
-        <v>4969</v>
+        <v>4981</v>
       </c>
       <c r="D23" t="n">
-        <v>4970</v>
+        <v>4981</v>
       </c>
       <c r="E23" t="n">
-        <v>4969</v>
+        <v>4981</v>
       </c>
       <c r="F23" t="n">
-        <v>260.3076</v>
+        <v>0.5001003814495081</v>
       </c>
       <c r="G23" t="n">
-        <v>4945.35</v>
+        <v>4944.75</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4958</v>
+        <v>4970</v>
       </c>
       <c r="C24" t="n">
-        <v>4966</v>
+        <v>4969</v>
       </c>
       <c r="D24" t="n">
-        <v>4966</v>
+        <v>4970</v>
       </c>
       <c r="E24" t="n">
-        <v>4958</v>
+        <v>4969</v>
       </c>
       <c r="F24" t="n">
-        <v>33</v>
+        <v>260.3076</v>
       </c>
       <c r="G24" t="n">
-        <v>4945.966666666666</v>
+        <v>4945.35</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4971</v>
+        <v>4958</v>
       </c>
       <c r="C25" t="n">
-        <v>4971</v>
+        <v>4966</v>
       </c>
       <c r="D25" t="n">
-        <v>4971</v>
+        <v>4966</v>
       </c>
       <c r="E25" t="n">
-        <v>4971</v>
+        <v>4958</v>
       </c>
       <c r="F25" t="n">
-        <v>1.9346</v>
+        <v>33</v>
       </c>
       <c r="G25" t="n">
-        <v>4946.316666666667</v>
+        <v>4945.966666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4959</v>
+        <v>4971</v>
       </c>
       <c r="C26" t="n">
         <v>4971</v>
@@ -1282,13 +1282,13 @@
         <v>4971</v>
       </c>
       <c r="E26" t="n">
-        <v>4958</v>
+        <v>4971</v>
       </c>
       <c r="F26" t="n">
-        <v>414.5729</v>
+        <v>1.9346</v>
       </c>
       <c r="G26" t="n">
-        <v>4946.6</v>
+        <v>4946.316666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4970</v>
+        <v>4959</v>
       </c>
       <c r="C27" t="n">
-        <v>4970</v>
+        <v>4971</v>
       </c>
       <c r="D27" t="n">
-        <v>4970</v>
+        <v>4971</v>
       </c>
       <c r="E27" t="n">
-        <v>4970</v>
+        <v>4958</v>
       </c>
       <c r="F27" t="n">
-        <v>1.0787</v>
+        <v>414.5729</v>
       </c>
       <c r="G27" t="n">
-        <v>4946.933333333333</v>
+        <v>4946.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4963</v>
+        <v>4970</v>
       </c>
       <c r="C28" t="n">
-        <v>4962</v>
+        <v>4970</v>
       </c>
       <c r="D28" t="n">
-        <v>4963</v>
+        <v>4970</v>
       </c>
       <c r="E28" t="n">
-        <v>4962</v>
+        <v>4970</v>
       </c>
       <c r="F28" t="n">
-        <v>110.7898</v>
+        <v>1.0787</v>
       </c>
       <c r="G28" t="n">
-        <v>4947.133333333333</v>
+        <v>4946.933333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4954</v>
+        <v>4963</v>
       </c>
       <c r="C29" t="n">
-        <v>4950</v>
+        <v>4962</v>
       </c>
       <c r="D29" t="n">
-        <v>4954</v>
+        <v>4963</v>
       </c>
       <c r="E29" t="n">
-        <v>4950</v>
+        <v>4962</v>
       </c>
       <c r="F29" t="n">
-        <v>80.717</v>
+        <v>110.7898</v>
       </c>
       <c r="G29" t="n">
-        <v>4947.25</v>
+        <v>4947.133333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4939</v>
+        <v>4954</v>
       </c>
       <c r="C30" t="n">
-        <v>4939</v>
+        <v>4950</v>
       </c>
       <c r="D30" t="n">
-        <v>4939</v>
+        <v>4954</v>
       </c>
       <c r="E30" t="n">
-        <v>4939</v>
+        <v>4950</v>
       </c>
       <c r="F30" t="n">
-        <v>18.7307</v>
+        <v>80.717</v>
       </c>
       <c r="G30" t="n">
-        <v>4947.516666666666</v>
+        <v>4947.25</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4933</v>
+        <v>4939</v>
       </c>
       <c r="C31" t="n">
-        <v>4933</v>
+        <v>4939</v>
       </c>
       <c r="D31" t="n">
-        <v>4933</v>
+        <v>4939</v>
       </c>
       <c r="E31" t="n">
-        <v>4933</v>
+        <v>4939</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8189</v>
+        <v>18.7307</v>
       </c>
       <c r="G31" t="n">
-        <v>4947.566666666667</v>
+        <v>4947.516666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4939</v>
+        <v>4933</v>
       </c>
       <c r="C32" t="n">
-        <v>4939</v>
+        <v>4933</v>
       </c>
       <c r="D32" t="n">
-        <v>4939</v>
+        <v>4933</v>
       </c>
       <c r="E32" t="n">
-        <v>4939</v>
+        <v>4933</v>
       </c>
       <c r="F32" t="n">
-        <v>82.6448</v>
+        <v>0.8189</v>
       </c>
       <c r="G32" t="n">
-        <v>4948.066666666667</v>
+        <v>4947.566666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4933</v>
+        <v>4939</v>
       </c>
       <c r="C33" t="n">
-        <v>4930</v>
+        <v>4939</v>
       </c>
       <c r="D33" t="n">
-        <v>4933</v>
+        <v>4939</v>
       </c>
       <c r="E33" t="n">
-        <v>4918</v>
+        <v>4939</v>
       </c>
       <c r="F33" t="n">
-        <v>410.8185</v>
+        <v>82.6448</v>
       </c>
       <c r="G33" t="n">
-        <v>4948.883333333333</v>
+        <v>4948.066666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4925</v>
+        <v>4933</v>
       </c>
       <c r="C34" t="n">
-        <v>4925</v>
+        <v>4930</v>
       </c>
       <c r="D34" t="n">
-        <v>4925</v>
+        <v>4933</v>
       </c>
       <c r="E34" t="n">
-        <v>4925</v>
+        <v>4918</v>
       </c>
       <c r="F34" t="n">
-        <v>380.7573</v>
+        <v>410.8185</v>
       </c>
       <c r="G34" t="n">
-        <v>4949.183333333333</v>
+        <v>4948.883333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,31 +1588,35 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4938</v>
+        <v>4925</v>
       </c>
       <c r="C35" t="n">
-        <v>4942</v>
+        <v>4925</v>
       </c>
       <c r="D35" t="n">
-        <v>4942</v>
+        <v>4925</v>
       </c>
       <c r="E35" t="n">
-        <v>4938</v>
+        <v>4925</v>
       </c>
       <c r="F35" t="n">
-        <v>22.068</v>
+        <v>380.7573</v>
       </c>
       <c r="G35" t="n">
-        <v>4949.633333333333</v>
+        <v>4949.183333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>4930</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4930</v>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
@@ -1623,7 +1627,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4942</v>
+        <v>4938</v>
       </c>
       <c r="C36" t="n">
         <v>4942</v>
@@ -1632,23 +1636,31 @@
         <v>4942</v>
       </c>
       <c r="E36" t="n">
-        <v>4942</v>
+        <v>4938</v>
       </c>
       <c r="F36" t="n">
-        <v>12.7547</v>
+        <v>22.068</v>
       </c>
       <c r="G36" t="n">
-        <v>4950</v>
+        <v>4949.633333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>4925</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4930</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,32 +1670,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4943</v>
+        <v>4942</v>
       </c>
       <c r="C37" t="n">
-        <v>4943</v>
+        <v>4942</v>
       </c>
       <c r="D37" t="n">
-        <v>4943</v>
+        <v>4942</v>
       </c>
       <c r="E37" t="n">
-        <v>4943</v>
+        <v>4942</v>
       </c>
       <c r="F37" t="n">
-        <v>6.7796</v>
+        <v>12.7547</v>
       </c>
       <c r="G37" t="n">
-        <v>4950.466666666666</v>
+        <v>4950</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>4942</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4930</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1713,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4932</v>
+        <v>4943</v>
       </c>
       <c r="C38" t="n">
-        <v>4935</v>
+        <v>4943</v>
       </c>
       <c r="D38" t="n">
-        <v>4935</v>
+        <v>4943</v>
       </c>
       <c r="E38" t="n">
-        <v>4930</v>
+        <v>4943</v>
       </c>
       <c r="F38" t="n">
-        <v>109.4127</v>
+        <v>6.7796</v>
       </c>
       <c r="G38" t="n">
-        <v>4950.55</v>
+        <v>4950.466666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1748,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4929</v>
+        <v>4932</v>
       </c>
       <c r="C39" t="n">
-        <v>4929</v>
+        <v>4935</v>
       </c>
       <c r="D39" t="n">
-        <v>4929</v>
+        <v>4935</v>
       </c>
       <c r="E39" t="n">
-        <v>4929</v>
+        <v>4930</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>109.4127</v>
       </c>
       <c r="G39" t="n">
-        <v>4950.616666666667</v>
+        <v>4950.55</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,19 +1783,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4915</v>
+        <v>4929</v>
       </c>
       <c r="C40" t="n">
-        <v>4925</v>
+        <v>4929</v>
       </c>
       <c r="D40" t="n">
-        <v>4925</v>
+        <v>4929</v>
       </c>
       <c r="E40" t="n">
-        <v>4915</v>
+        <v>4929</v>
       </c>
       <c r="F40" t="n">
-        <v>105.284</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>4950.616666666667</v>
@@ -1798,7 +1818,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4920</v>
+        <v>4915</v>
       </c>
       <c r="C41" t="n">
         <v>4925</v>
@@ -1807,13 +1827,13 @@
         <v>4925</v>
       </c>
       <c r="E41" t="n">
-        <v>4920</v>
+        <v>4915</v>
       </c>
       <c r="F41" t="n">
-        <v>400.9991</v>
+        <v>105.284</v>
       </c>
       <c r="G41" t="n">
-        <v>4950.4</v>
+        <v>4950.616666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1853,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4933</v>
+        <v>4920</v>
       </c>
       <c r="C42" t="n">
-        <v>4933</v>
+        <v>4925</v>
       </c>
       <c r="D42" t="n">
-        <v>4933</v>
+        <v>4925</v>
       </c>
       <c r="E42" t="n">
-        <v>4933</v>
+        <v>4920</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2199472937360633</v>
+        <v>400.9991</v>
       </c>
       <c r="G42" t="n">
-        <v>4950.116666666667</v>
+        <v>4950.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1888,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4930</v>
+        <v>4933</v>
       </c>
       <c r="C43" t="n">
-        <v>4930</v>
+        <v>4933</v>
       </c>
       <c r="D43" t="n">
-        <v>4930</v>
+        <v>4933</v>
       </c>
       <c r="E43" t="n">
-        <v>4930</v>
+        <v>4933</v>
       </c>
       <c r="F43" t="n">
-        <v>0.507</v>
+        <v>0.2199472937360633</v>
       </c>
       <c r="G43" t="n">
-        <v>4949.916666666667</v>
+        <v>4950.116666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1915,10 +1935,10 @@
         <v>4930</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8</v>
+        <v>0.507</v>
       </c>
       <c r="G44" t="n">
-        <v>4949.283333333334</v>
+        <v>4949.916666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1958,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4928</v>
+        <v>4930</v>
       </c>
       <c r="C45" t="n">
-        <v>4910</v>
+        <v>4930</v>
       </c>
       <c r="D45" t="n">
-        <v>4928</v>
+        <v>4930</v>
       </c>
       <c r="E45" t="n">
-        <v>4910</v>
+        <v>4930</v>
       </c>
       <c r="F45" t="n">
-        <v>328.6081662337662</v>
+        <v>0.8</v>
       </c>
       <c r="G45" t="n">
-        <v>4948.25</v>
+        <v>4949.283333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1993,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4909</v>
+        <v>4928</v>
       </c>
       <c r="C46" t="n">
-        <v>4925</v>
+        <v>4910</v>
       </c>
       <c r="D46" t="n">
-        <v>4925</v>
+        <v>4928</v>
       </c>
       <c r="E46" t="n">
-        <v>4902</v>
+        <v>4910</v>
       </c>
       <c r="F46" t="n">
-        <v>221.8391</v>
+        <v>328.6081662337662</v>
       </c>
       <c r="G46" t="n">
-        <v>4947.666666666667</v>
+        <v>4948.25</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2028,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4920</v>
+        <v>4909</v>
       </c>
       <c r="C47" t="n">
-        <v>4918</v>
+        <v>4925</v>
       </c>
       <c r="D47" t="n">
-        <v>4920</v>
+        <v>4925</v>
       </c>
       <c r="E47" t="n">
-        <v>4907</v>
+        <v>4902</v>
       </c>
       <c r="F47" t="n">
-        <v>245.4406</v>
+        <v>221.8391</v>
       </c>
       <c r="G47" t="n">
-        <v>4947.166666666667</v>
+        <v>4947.666666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2063,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4909</v>
+        <v>4920</v>
       </c>
       <c r="C48" t="n">
-        <v>4920</v>
+        <v>4918</v>
       </c>
       <c r="D48" t="n">
         <v>4920</v>
       </c>
       <c r="E48" t="n">
-        <v>4909</v>
+        <v>4907</v>
       </c>
       <c r="F48" t="n">
-        <v>91.76300000000001</v>
+        <v>245.4406</v>
       </c>
       <c r="G48" t="n">
-        <v>4946.683333333333</v>
+        <v>4947.166666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2098,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4900</v>
+        <v>4909</v>
       </c>
       <c r="C49" t="n">
-        <v>4850</v>
+        <v>4920</v>
       </c>
       <c r="D49" t="n">
-        <v>4900</v>
+        <v>4920</v>
       </c>
       <c r="E49" t="n">
-        <v>4850</v>
+        <v>4909</v>
       </c>
       <c r="F49" t="n">
-        <v>1204.9252</v>
+        <v>91.76300000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>4945.183333333333</v>
+        <v>4946.683333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2133,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4862</v>
+        <v>4900</v>
       </c>
       <c r="C50" t="n">
-        <v>4870</v>
+        <v>4850</v>
       </c>
       <c r="D50" t="n">
-        <v>4890</v>
+        <v>4900</v>
       </c>
       <c r="E50" t="n">
-        <v>4855</v>
+        <v>4850</v>
       </c>
       <c r="F50" t="n">
-        <v>1074.8259</v>
+        <v>1204.9252</v>
       </c>
       <c r="G50" t="n">
-        <v>4943.716666666666</v>
+        <v>4945.183333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,31 +2168,35 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4866</v>
+        <v>4862</v>
       </c>
       <c r="C51" t="n">
-        <v>4790</v>
+        <v>4870</v>
       </c>
       <c r="D51" t="n">
-        <v>4866</v>
+        <v>4890</v>
       </c>
       <c r="E51" t="n">
-        <v>4778</v>
+        <v>4855</v>
       </c>
       <c r="F51" t="n">
-        <v>3566.43</v>
+        <v>1074.8259</v>
       </c>
       <c r="G51" t="n">
-        <v>4941.083333333333</v>
+        <v>4943.716666666666</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>4850</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4850</v>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
@@ -2183,32 +2207,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4796</v>
+        <v>4866</v>
       </c>
       <c r="C52" t="n">
+        <v>4790</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4866</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4778</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3566.43</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4941.083333333333</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
         <v>4870</v>
       </c>
-      <c r="D52" t="n">
-        <v>4870</v>
-      </c>
-      <c r="E52" t="n">
-        <v>4796</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1828.7117</v>
-      </c>
-      <c r="G52" t="n">
-        <v>4940</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>4850</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2250,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
+        <v>4796</v>
+      </c>
+      <c r="C53" t="n">
         <v>4870</v>
-      </c>
-      <c r="C53" t="n">
-        <v>4850</v>
       </c>
       <c r="D53" t="n">
         <v>4870</v>
       </c>
       <c r="E53" t="n">
-        <v>4831</v>
+        <v>4796</v>
       </c>
       <c r="F53" t="n">
-        <v>1415.2649</v>
+        <v>1828.7117</v>
       </c>
       <c r="G53" t="n">
-        <v>4938.616666666667</v>
+        <v>4940</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,8 +2274,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>4850</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2291,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4849</v>
+        <v>4870</v>
       </c>
       <c r="C54" t="n">
-        <v>4860</v>
+        <v>4850</v>
       </c>
       <c r="D54" t="n">
-        <v>4863</v>
+        <v>4870</v>
       </c>
       <c r="E54" t="n">
-        <v>4840</v>
+        <v>4831</v>
       </c>
       <c r="F54" t="n">
-        <v>660.181</v>
+        <v>1415.2649</v>
       </c>
       <c r="G54" t="n">
-        <v>4937.2</v>
+        <v>4938.616666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2315,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>4850</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,22 +2332,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4851</v>
+        <v>4849</v>
       </c>
       <c r="C55" t="n">
-        <v>4861</v>
+        <v>4860</v>
       </c>
       <c r="D55" t="n">
-        <v>4868</v>
+        <v>4863</v>
       </c>
       <c r="E55" t="n">
-        <v>4842</v>
+        <v>4840</v>
       </c>
       <c r="F55" t="n">
-        <v>1331.3703</v>
+        <v>660.181</v>
       </c>
       <c r="G55" t="n">
-        <v>4935.766666666666</v>
+        <v>4937.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,8 +2356,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>4850</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2373,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4870</v>
+        <v>4851</v>
       </c>
       <c r="C56" t="n">
-        <v>4875</v>
+        <v>4861</v>
       </c>
       <c r="D56" t="n">
-        <v>4880</v>
+        <v>4868</v>
       </c>
       <c r="E56" t="n">
-        <v>4860</v>
+        <v>4842</v>
       </c>
       <c r="F56" t="n">
-        <v>755.8086</v>
+        <v>1331.3703</v>
       </c>
       <c r="G56" t="n">
-        <v>4934.516666666666</v>
+        <v>4935.766666666666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,8 +2397,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>4850</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2414,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4888</v>
+        <v>4870</v>
       </c>
       <c r="C57" t="n">
-        <v>4888</v>
+        <v>4875</v>
       </c>
       <c r="D57" t="n">
-        <v>4888</v>
+        <v>4880</v>
       </c>
       <c r="E57" t="n">
-        <v>4888</v>
+        <v>4860</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>755.8086</v>
       </c>
       <c r="G57" t="n">
-        <v>4933.766666666666</v>
+        <v>4934.516666666666</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,8 +2438,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>4850</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2455,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4889</v>
+        <v>4888</v>
       </c>
       <c r="C58" t="n">
         <v>4888</v>
       </c>
       <c r="D58" t="n">
-        <v>4893</v>
+        <v>4888</v>
       </c>
       <c r="E58" t="n">
-        <v>4880</v>
+        <v>4888</v>
       </c>
       <c r="F58" t="n">
-        <v>284.0098</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>4932.95</v>
+        <v>4933.766666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2479,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>4850</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,36 +2496,36 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4876</v>
+        <v>4889</v>
       </c>
       <c r="C59" t="n">
-        <v>4879</v>
+        <v>4888</v>
       </c>
       <c r="D59" t="n">
-        <v>4879</v>
+        <v>4893</v>
       </c>
       <c r="E59" t="n">
-        <v>4869</v>
+        <v>4880</v>
       </c>
       <c r="F59" t="n">
-        <v>7.8694</v>
+        <v>284.0098</v>
       </c>
       <c r="G59" t="n">
-        <v>4932.033333333334</v>
+        <v>4932.95</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>4888</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>4850</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M59" t="n">
@@ -2469,7 +2537,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4879</v>
+        <v>4876</v>
       </c>
       <c r="C60" t="n">
         <v>4879</v>
@@ -2478,24 +2546,24 @@
         <v>4879</v>
       </c>
       <c r="E60" t="n">
-        <v>4864</v>
+        <v>4869</v>
       </c>
       <c r="F60" t="n">
-        <v>614.1807</v>
+        <v>7.8694</v>
       </c>
       <c r="G60" t="n">
-        <v>4931.133333333333</v>
+        <v>4932.033333333334</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>4879</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>4850</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2510,22 +2578,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4875</v>
+        <v>4879</v>
       </c>
       <c r="C61" t="n">
-        <v>4892</v>
+        <v>4879</v>
       </c>
       <c r="D61" t="n">
-        <v>4892</v>
+        <v>4879</v>
       </c>
       <c r="E61" t="n">
-        <v>4875</v>
+        <v>4864</v>
       </c>
       <c r="F61" t="n">
-        <v>585.3929000000001</v>
+        <v>614.1807</v>
       </c>
       <c r="G61" t="n">
-        <v>4930.45</v>
+        <v>4931.133333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2534,7 +2602,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>4850</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2549,22 +2619,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4883</v>
+        <v>4875</v>
       </c>
       <c r="C62" t="n">
-        <v>4882</v>
+        <v>4892</v>
       </c>
       <c r="D62" t="n">
-        <v>4890</v>
+        <v>4892</v>
       </c>
       <c r="E62" t="n">
-        <v>4880</v>
+        <v>4875</v>
       </c>
       <c r="F62" t="n">
-        <v>538.905</v>
+        <v>585.3929000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>4929.45</v>
+        <v>4930.45</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2573,7 +2643,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>4850</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2588,22 +2660,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4886</v>
+        <v>4883</v>
       </c>
       <c r="C63" t="n">
-        <v>4896</v>
+        <v>4882</v>
       </c>
       <c r="D63" t="n">
-        <v>4896</v>
+        <v>4890</v>
       </c>
       <c r="E63" t="n">
-        <v>4886</v>
+        <v>4880</v>
       </c>
       <c r="F63" t="n">
-        <v>204.1116</v>
+        <v>538.905</v>
       </c>
       <c r="G63" t="n">
-        <v>4928.433333333333</v>
+        <v>4929.45</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2612,7 +2684,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>4850</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2627,22 +2701,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4895</v>
+        <v>4886</v>
       </c>
       <c r="C64" t="n">
-        <v>4895</v>
+        <v>4896</v>
       </c>
       <c r="D64" t="n">
-        <v>4895</v>
+        <v>4896</v>
       </c>
       <c r="E64" t="n">
-        <v>4895</v>
+        <v>4886</v>
       </c>
       <c r="F64" t="n">
-        <v>93.6614</v>
+        <v>204.1116</v>
       </c>
       <c r="G64" t="n">
-        <v>4927.5</v>
+        <v>4928.433333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2651,7 +2725,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>4850</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2669,19 +2745,19 @@
         <v>4895</v>
       </c>
       <c r="C65" t="n">
-        <v>4891</v>
+        <v>4895</v>
       </c>
       <c r="D65" t="n">
         <v>4895</v>
       </c>
       <c r="E65" t="n">
-        <v>4891</v>
+        <v>4895</v>
       </c>
       <c r="F65" t="n">
-        <v>129.2823</v>
+        <v>93.6614</v>
       </c>
       <c r="G65" t="n">
-        <v>4926.616666666667</v>
+        <v>4927.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2690,7 +2766,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>4850</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2705,22 +2783,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4890</v>
+        <v>4895</v>
       </c>
       <c r="C66" t="n">
-        <v>4889</v>
+        <v>4891</v>
       </c>
       <c r="D66" t="n">
-        <v>4890</v>
+        <v>4895</v>
       </c>
       <c r="E66" t="n">
-        <v>4889</v>
+        <v>4891</v>
       </c>
       <c r="F66" t="n">
-        <v>222.4078</v>
+        <v>129.2823</v>
       </c>
       <c r="G66" t="n">
-        <v>4925.683333333333</v>
+        <v>4926.616666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2729,7 +2807,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>4850</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2744,22 +2824,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4900</v>
+        <v>4890</v>
       </c>
       <c r="C67" t="n">
-        <v>4920</v>
+        <v>4889</v>
       </c>
       <c r="D67" t="n">
-        <v>4921</v>
+        <v>4890</v>
       </c>
       <c r="E67" t="n">
-        <v>4900</v>
+        <v>4889</v>
       </c>
       <c r="F67" t="n">
-        <v>530.365</v>
+        <v>222.4078</v>
       </c>
       <c r="G67" t="n">
-        <v>4925.333333333333</v>
+        <v>4925.683333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2768,7 +2848,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>4850</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2783,22 +2865,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4919</v>
+        <v>4900</v>
       </c>
       <c r="C68" t="n">
-        <v>4919</v>
+        <v>4920</v>
       </c>
       <c r="D68" t="n">
-        <v>4919</v>
+        <v>4921</v>
       </c>
       <c r="E68" t="n">
-        <v>4919</v>
+        <v>4900</v>
       </c>
       <c r="F68" t="n">
-        <v>1.5541</v>
+        <v>530.365</v>
       </c>
       <c r="G68" t="n">
-        <v>4924.55</v>
+        <v>4925.333333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2807,7 +2889,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>4850</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2834,10 +2918,10 @@
         <v>4919</v>
       </c>
       <c r="F69" t="n">
-        <v>5.5172</v>
+        <v>1.5541</v>
       </c>
       <c r="G69" t="n">
-        <v>4923.866666666667</v>
+        <v>4924.55</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2846,7 +2930,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>4850</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2861,22 +2947,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4920</v>
+        <v>4919</v>
       </c>
       <c r="C70" t="n">
-        <v>4925</v>
+        <v>4919</v>
       </c>
       <c r="D70" t="n">
-        <v>4925</v>
+        <v>4919</v>
       </c>
       <c r="E70" t="n">
-        <v>4920</v>
+        <v>4919</v>
       </c>
       <c r="F70" t="n">
-        <v>14.2377</v>
+        <v>5.5172</v>
       </c>
       <c r="G70" t="n">
-        <v>4923.333333333333</v>
+        <v>4923.866666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2885,7 +2971,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>4850</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2900,22 +2988,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>4920</v>
+      </c>
+      <c r="C71" t="n">
         <v>4925</v>
       </c>
-      <c r="C71" t="n">
-        <v>4939</v>
-      </c>
       <c r="D71" t="n">
-        <v>4939</v>
+        <v>4925</v>
       </c>
       <c r="E71" t="n">
-        <v>4925</v>
+        <v>4920</v>
       </c>
       <c r="F71" t="n">
-        <v>255.3081</v>
+        <v>14.2377</v>
       </c>
       <c r="G71" t="n">
-        <v>4923.05</v>
+        <v>4923.333333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2924,7 +3012,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>4850</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2939,22 +3029,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4942</v>
+        <v>4925</v>
       </c>
       <c r="C72" t="n">
-        <v>4942</v>
+        <v>4939</v>
       </c>
       <c r="D72" t="n">
-        <v>4942</v>
+        <v>4939</v>
       </c>
       <c r="E72" t="n">
-        <v>4942</v>
+        <v>4925</v>
       </c>
       <c r="F72" t="n">
-        <v>91.15730000000001</v>
+        <v>255.3081</v>
       </c>
       <c r="G72" t="n">
-        <v>4922.716666666666</v>
+        <v>4923.05</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2963,7 +3053,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>4850</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2978,7 +3070,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4935</v>
+        <v>4942</v>
       </c>
       <c r="C73" t="n">
         <v>4942</v>
@@ -2987,13 +3079,13 @@
         <v>4942</v>
       </c>
       <c r="E73" t="n">
-        <v>4935</v>
+        <v>4942</v>
       </c>
       <c r="F73" t="n">
-        <v>260.53</v>
+        <v>91.15730000000001</v>
       </c>
       <c r="G73" t="n">
-        <v>4922.533333333334</v>
+        <v>4922.716666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3002,7 +3094,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>4850</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3017,7 +3111,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4937</v>
+        <v>4935</v>
       </c>
       <c r="C74" t="n">
         <v>4942</v>
@@ -3026,13 +3120,13 @@
         <v>4942</v>
       </c>
       <c r="E74" t="n">
-        <v>4934</v>
+        <v>4935</v>
       </c>
       <c r="F74" t="n">
-        <v>121.0646</v>
+        <v>260.53</v>
       </c>
       <c r="G74" t="n">
-        <v>4922.15</v>
+        <v>4922.533333333334</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3041,7 +3135,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>4850</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3056,22 +3152,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>4937</v>
+      </c>
+      <c r="C75" t="n">
         <v>4942</v>
       </c>
-      <c r="C75" t="n">
-        <v>4964</v>
-      </c>
       <c r="D75" t="n">
-        <v>4975</v>
+        <v>4942</v>
       </c>
       <c r="E75" t="n">
-        <v>4942</v>
+        <v>4934</v>
       </c>
       <c r="F75" t="n">
-        <v>1813.7886</v>
+        <v>121.0646</v>
       </c>
       <c r="G75" t="n">
-        <v>4922.133333333333</v>
+        <v>4922.15</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3080,7 +3176,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>4850</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3095,22 +3193,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4954</v>
+        <v>4942</v>
       </c>
       <c r="C76" t="n">
-        <v>4947</v>
+        <v>4964</v>
       </c>
       <c r="D76" t="n">
-        <v>4954</v>
+        <v>4975</v>
       </c>
       <c r="E76" t="n">
-        <v>4947</v>
+        <v>4942</v>
       </c>
       <c r="F76" t="n">
-        <v>234.4722</v>
+        <v>1813.7886</v>
       </c>
       <c r="G76" t="n">
-        <v>4921.833333333333</v>
+        <v>4922.133333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3119,7 +3217,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>4850</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3134,22 +3234,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>4954</v>
+      </c>
+      <c r="C77" t="n">
         <v>4947</v>
       </c>
-      <c r="C77" t="n">
-        <v>4955</v>
-      </c>
       <c r="D77" t="n">
-        <v>4955</v>
+        <v>4954</v>
       </c>
       <c r="E77" t="n">
         <v>4947</v>
       </c>
       <c r="F77" t="n">
-        <v>300.7263</v>
+        <v>234.4722</v>
       </c>
       <c r="G77" t="n">
-        <v>4921.5</v>
+        <v>4921.833333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3158,7 +3258,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>4850</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3173,38 +3275,40 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4950</v>
+        <v>4947</v>
       </c>
       <c r="C78" t="n">
-        <v>4950</v>
+        <v>4955</v>
       </c>
       <c r="D78" t="n">
-        <v>4950</v>
+        <v>4955</v>
       </c>
       <c r="E78" t="n">
-        <v>4938</v>
+        <v>4947</v>
       </c>
       <c r="F78" t="n">
-        <v>385.7231</v>
+        <v>300.7263</v>
       </c>
       <c r="G78" t="n">
-        <v>4921.333333333333</v>
+        <v>4921.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>4850</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>1</v>
+        <v>1.016649484536083</v>
       </c>
     </row>
     <row r="79">
@@ -3212,36 +3316,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4943</v>
+        <v>4950</v>
       </c>
       <c r="C79" t="n">
-        <v>4945</v>
+        <v>4950</v>
       </c>
       <c r="D79" t="n">
-        <v>4954</v>
+        <v>4950</v>
       </c>
       <c r="E79" t="n">
-        <v>4943</v>
+        <v>4938</v>
       </c>
       <c r="F79" t="n">
-        <v>226.5514</v>
+        <v>385.7231</v>
       </c>
       <c r="G79" t="n">
-        <v>4921.083333333333</v>
+        <v>4921.333333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3251,22 +3351,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4953</v>
+        <v>4943</v>
       </c>
       <c r="C80" t="n">
-        <v>4954</v>
+        <v>4945</v>
       </c>
       <c r="D80" t="n">
         <v>4954</v>
       </c>
       <c r="E80" t="n">
-        <v>4953</v>
+        <v>4943</v>
       </c>
       <c r="F80" t="n">
-        <v>184.2918</v>
+        <v>226.5514</v>
       </c>
       <c r="G80" t="n">
-        <v>4920.883333333333</v>
+        <v>4921.083333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3276,11 +3376,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3293,19 +3389,19 @@
         <v>4953</v>
       </c>
       <c r="C81" t="n">
-        <v>4940</v>
+        <v>4954</v>
       </c>
       <c r="D81" t="n">
+        <v>4954</v>
+      </c>
+      <c r="E81" t="n">
         <v>4953</v>
       </c>
-      <c r="E81" t="n">
-        <v>4940</v>
-      </c>
       <c r="F81" t="n">
-        <v>424.967</v>
+        <v>184.2918</v>
       </c>
       <c r="G81" t="n">
-        <v>4920.35</v>
+        <v>4920.883333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3315,11 +3411,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3329,22 +3421,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4950</v>
+        <v>4953</v>
       </c>
       <c r="C82" t="n">
-        <v>4951</v>
+        <v>4940</v>
       </c>
       <c r="D82" t="n">
-        <v>4951</v>
+        <v>4953</v>
       </c>
       <c r="E82" t="n">
-        <v>4950</v>
+        <v>4940</v>
       </c>
       <c r="F82" t="n">
-        <v>72.64700000000001</v>
+        <v>424.967</v>
       </c>
       <c r="G82" t="n">
-        <v>4919.85</v>
+        <v>4920.35</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,11 +3446,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3368,22 +3456,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4957</v>
+        <v>4950</v>
       </c>
       <c r="C83" t="n">
-        <v>4958</v>
+        <v>4951</v>
       </c>
       <c r="D83" t="n">
-        <v>4958</v>
+        <v>4951</v>
       </c>
       <c r="E83" t="n">
-        <v>4957</v>
+        <v>4950</v>
       </c>
       <c r="F83" t="n">
-        <v>98.8</v>
+        <v>72.64700000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>4919.666666666667</v>
+        <v>4919.85</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3393,11 +3481,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3407,22 +3491,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4952</v>
+        <v>4957</v>
       </c>
       <c r="C84" t="n">
-        <v>4951</v>
+        <v>4958</v>
       </c>
       <c r="D84" t="n">
-        <v>4952</v>
+        <v>4958</v>
       </c>
       <c r="E84" t="n">
-        <v>4951</v>
+        <v>4957</v>
       </c>
       <c r="F84" t="n">
-        <v>95.855</v>
+        <v>98.8</v>
       </c>
       <c r="G84" t="n">
-        <v>4919.416666666667</v>
+        <v>4919.666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3432,11 +3516,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3446,22 +3526,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4953</v>
+        <v>4952</v>
       </c>
       <c r="C85" t="n">
-        <v>4959</v>
+        <v>4951</v>
       </c>
       <c r="D85" t="n">
-        <v>4959</v>
+        <v>4952</v>
       </c>
       <c r="E85" t="n">
-        <v>4953</v>
+        <v>4951</v>
       </c>
       <c r="F85" t="n">
-        <v>99.7</v>
+        <v>95.855</v>
       </c>
       <c r="G85" t="n">
-        <v>4919.216666666666</v>
+        <v>4919.416666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3471,11 +3551,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3485,22 +3561,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4956</v>
+        <v>4953</v>
       </c>
       <c r="C86" t="n">
-        <v>4956</v>
+        <v>4959</v>
       </c>
       <c r="D86" t="n">
-        <v>4956</v>
+        <v>4959</v>
       </c>
       <c r="E86" t="n">
-        <v>4956</v>
+        <v>4953</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8557</v>
+        <v>99.7</v>
       </c>
       <c r="G86" t="n">
-        <v>4918.966666666666</v>
+        <v>4919.216666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3510,11 +3586,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3524,22 +3596,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4964</v>
+        <v>4956</v>
       </c>
       <c r="C87" t="n">
-        <v>4964</v>
+        <v>4956</v>
       </c>
       <c r="D87" t="n">
-        <v>4964</v>
+        <v>4956</v>
       </c>
       <c r="E87" t="n">
-        <v>4964</v>
+        <v>4956</v>
       </c>
       <c r="F87" t="n">
-        <v>4.02</v>
+        <v>0.8557</v>
       </c>
       <c r="G87" t="n">
-        <v>4918.866666666667</v>
+        <v>4918.966666666666</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3549,11 +3621,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3563,22 +3631,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4962</v>
+        <v>4964</v>
       </c>
       <c r="C88" t="n">
-        <v>4966</v>
+        <v>4964</v>
       </c>
       <c r="D88" t="n">
-        <v>4966</v>
+        <v>4964</v>
       </c>
       <c r="E88" t="n">
-        <v>4962</v>
+        <v>4964</v>
       </c>
       <c r="F88" t="n">
-        <v>264.4822221103504</v>
+        <v>4.02</v>
       </c>
       <c r="G88" t="n">
-        <v>4918.933333333333</v>
+        <v>4918.866666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3588,11 +3656,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3605,16 +3669,16 @@
         <v>4962</v>
       </c>
       <c r="C89" t="n">
-        <v>4950</v>
+        <v>4966</v>
       </c>
       <c r="D89" t="n">
+        <v>4966</v>
+      </c>
+      <c r="E89" t="n">
         <v>4962</v>
       </c>
-      <c r="E89" t="n">
-        <v>4950</v>
-      </c>
       <c r="F89" t="n">
-        <v>111.9008</v>
+        <v>264.4822221103504</v>
       </c>
       <c r="G89" t="n">
         <v>4918.933333333333</v>
@@ -3627,11 +3691,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3641,22 +3701,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4961</v>
+        <v>4962</v>
       </c>
       <c r="C90" t="n">
-        <v>4961</v>
+        <v>4950</v>
       </c>
       <c r="D90" t="n">
-        <v>4961</v>
+        <v>4962</v>
       </c>
       <c r="E90" t="n">
-        <v>4961</v>
+        <v>4950</v>
       </c>
       <c r="F90" t="n">
-        <v>1.6379</v>
+        <v>111.9008</v>
       </c>
       <c r="G90" t="n">
-        <v>4919.3</v>
+        <v>4918.933333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3666,11 +3726,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3680,22 +3736,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4965</v>
+        <v>4961</v>
       </c>
       <c r="C91" t="n">
-        <v>4965</v>
+        <v>4961</v>
       </c>
       <c r="D91" t="n">
-        <v>4965</v>
+        <v>4961</v>
       </c>
       <c r="E91" t="n">
-        <v>4965</v>
+        <v>4961</v>
       </c>
       <c r="F91" t="n">
-        <v>1.6008</v>
+        <v>1.6379</v>
       </c>
       <c r="G91" t="n">
-        <v>4919.833333333333</v>
+        <v>4919.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3705,11 +3761,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3719,36 +3771,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4961</v>
+        <v>4965</v>
       </c>
       <c r="C92" t="n">
-        <v>4957</v>
+        <v>4965</v>
       </c>
       <c r="D92" t="n">
-        <v>4961</v>
+        <v>4965</v>
       </c>
       <c r="E92" t="n">
-        <v>4957</v>
+        <v>4965</v>
       </c>
       <c r="F92" t="n">
-        <v>110.5866</v>
+        <v>1.6008</v>
       </c>
       <c r="G92" t="n">
-        <v>4920.133333333333</v>
+        <v>4919.833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3758,22 +3806,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4950</v>
+        <v>4961</v>
       </c>
       <c r="C93" t="n">
-        <v>4948</v>
+        <v>4957</v>
       </c>
       <c r="D93" t="n">
-        <v>4950</v>
+        <v>4961</v>
       </c>
       <c r="E93" t="n">
-        <v>4947</v>
+        <v>4957</v>
       </c>
       <c r="F93" t="n">
-        <v>605.1840999999999</v>
+        <v>110.5866</v>
       </c>
       <c r="G93" t="n">
-        <v>4920.433333333333</v>
+        <v>4920.133333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3783,11 +3831,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3797,36 +3841,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4949</v>
+        <v>4950</v>
       </c>
       <c r="C94" t="n">
-        <v>4949</v>
+        <v>4948</v>
       </c>
       <c r="D94" t="n">
-        <v>4949</v>
+        <v>4950</v>
       </c>
       <c r="E94" t="n">
-        <v>4949</v>
+        <v>4947</v>
       </c>
       <c r="F94" t="n">
-        <v>4.2434</v>
+        <v>605.1840999999999</v>
       </c>
       <c r="G94" t="n">
-        <v>4920.833333333333</v>
+        <v>4920.433333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3836,36 +3876,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4942</v>
+        <v>4949</v>
       </c>
       <c r="C95" t="n">
-        <v>4940</v>
+        <v>4949</v>
       </c>
       <c r="D95" t="n">
-        <v>4942</v>
+        <v>4949</v>
       </c>
       <c r="E95" t="n">
-        <v>4940</v>
+        <v>4949</v>
       </c>
       <c r="F95" t="n">
-        <v>149.625</v>
+        <v>4.2434</v>
       </c>
       <c r="G95" t="n">
-        <v>4920.8</v>
+        <v>4920.833333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3875,22 +3911,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4955</v>
+        <v>4942</v>
       </c>
       <c r="C96" t="n">
-        <v>4955</v>
+        <v>4940</v>
       </c>
       <c r="D96" t="n">
-        <v>4955</v>
+        <v>4942</v>
       </c>
       <c r="E96" t="n">
-        <v>4955</v>
+        <v>4940</v>
       </c>
       <c r="F96" t="n">
-        <v>2.5667</v>
+        <v>149.625</v>
       </c>
       <c r="G96" t="n">
-        <v>4921.016666666666</v>
+        <v>4920.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3900,11 +3936,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3926,10 +3958,10 @@
         <v>4955</v>
       </c>
       <c r="F97" t="n">
-        <v>80.524</v>
+        <v>2.5667</v>
       </c>
       <c r="G97" t="n">
-        <v>4921.216666666666</v>
+        <v>4921.016666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3939,11 +3971,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3953,22 +3981,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4957</v>
+        <v>4955</v>
       </c>
       <c r="C98" t="n">
-        <v>4958</v>
+        <v>4955</v>
       </c>
       <c r="D98" t="n">
-        <v>4958</v>
+        <v>4955</v>
       </c>
       <c r="E98" t="n">
-        <v>4957</v>
+        <v>4955</v>
       </c>
       <c r="F98" t="n">
-        <v>9.5419</v>
+        <v>80.524</v>
       </c>
       <c r="G98" t="n">
-        <v>4921.6</v>
+        <v>4921.216666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3978,11 +4006,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3992,22 +4016,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4965</v>
+        <v>4957</v>
       </c>
       <c r="C99" t="n">
-        <v>4965</v>
+        <v>4958</v>
       </c>
       <c r="D99" t="n">
-        <v>4965</v>
+        <v>4958</v>
       </c>
       <c r="E99" t="n">
-        <v>4965</v>
+        <v>4957</v>
       </c>
       <c r="F99" t="n">
-        <v>99.40000000000001</v>
+        <v>9.5419</v>
       </c>
       <c r="G99" t="n">
-        <v>4922.2</v>
+        <v>4921.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4017,11 +4041,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4031,22 +4051,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4956</v>
+        <v>4965</v>
       </c>
       <c r="C100" t="n">
-        <v>4955</v>
+        <v>4965</v>
       </c>
       <c r="D100" t="n">
-        <v>4956</v>
+        <v>4965</v>
       </c>
       <c r="E100" t="n">
-        <v>4955</v>
+        <v>4965</v>
       </c>
       <c r="F100" t="n">
-        <v>99.75</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G100" t="n">
-        <v>4922.7</v>
+        <v>4922.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4056,11 +4076,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4070,22 +4086,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4969</v>
+        <v>4956</v>
       </c>
       <c r="C101" t="n">
-        <v>4969</v>
+        <v>4955</v>
       </c>
       <c r="D101" t="n">
-        <v>4969</v>
+        <v>4956</v>
       </c>
       <c r="E101" t="n">
-        <v>4969</v>
+        <v>4955</v>
       </c>
       <c r="F101" t="n">
-        <v>2.2405</v>
+        <v>99.75</v>
       </c>
       <c r="G101" t="n">
-        <v>4923.433333333333</v>
+        <v>4922.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4095,11 +4111,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4121,10 +4133,10 @@
         <v>4969</v>
       </c>
       <c r="F102" t="n">
-        <v>100</v>
+        <v>2.2405</v>
       </c>
       <c r="G102" t="n">
-        <v>4924.033333333334</v>
+        <v>4923.433333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4134,11 +4146,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4148,22 +4156,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4980</v>
+        <v>4969</v>
       </c>
       <c r="C103" t="n">
-        <v>4981</v>
+        <v>4969</v>
       </c>
       <c r="D103" t="n">
-        <v>4981</v>
+        <v>4969</v>
       </c>
       <c r="E103" t="n">
-        <v>4980</v>
+        <v>4969</v>
       </c>
       <c r="F103" t="n">
-        <v>21.3432</v>
+        <v>100</v>
       </c>
       <c r="G103" t="n">
-        <v>4924.883333333333</v>
+        <v>4924.033333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4173,11 +4181,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4187,22 +4191,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4988</v>
+        <v>4980</v>
       </c>
       <c r="C104" t="n">
-        <v>4988</v>
+        <v>4981</v>
       </c>
       <c r="D104" t="n">
-        <v>4988</v>
+        <v>4981</v>
       </c>
       <c r="E104" t="n">
-        <v>4988</v>
+        <v>4980</v>
       </c>
       <c r="F104" t="n">
-        <v>29.0169</v>
+        <v>21.3432</v>
       </c>
       <c r="G104" t="n">
-        <v>4925.85</v>
+        <v>4924.883333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4212,11 +4216,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4226,22 +4226,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4985</v>
+        <v>4988</v>
       </c>
       <c r="C105" t="n">
-        <v>4983</v>
+        <v>4988</v>
       </c>
       <c r="D105" t="n">
-        <v>4985</v>
+        <v>4988</v>
       </c>
       <c r="E105" t="n">
-        <v>4983</v>
+        <v>4988</v>
       </c>
       <c r="F105" t="n">
-        <v>101.8</v>
+        <v>29.0169</v>
       </c>
       <c r="G105" t="n">
-        <v>4927.066666666667</v>
+        <v>4925.85</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4251,11 +4251,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4268,19 +4264,19 @@
         <v>4985</v>
       </c>
       <c r="C106" t="n">
-        <v>4990</v>
+        <v>4983</v>
       </c>
       <c r="D106" t="n">
-        <v>4990</v>
+        <v>4985</v>
       </c>
       <c r="E106" t="n">
-        <v>4985</v>
+        <v>4983</v>
       </c>
       <c r="F106" t="n">
-        <v>103.3</v>
+        <v>101.8</v>
       </c>
       <c r="G106" t="n">
-        <v>4928.15</v>
+        <v>4927.066666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4290,11 +4286,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4304,22 +4296,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4998</v>
+        <v>4985</v>
       </c>
       <c r="C107" t="n">
-        <v>4998</v>
+        <v>4990</v>
       </c>
       <c r="D107" t="n">
-        <v>4998</v>
+        <v>4990</v>
       </c>
       <c r="E107" t="n">
-        <v>4998</v>
+        <v>4985</v>
       </c>
       <c r="F107" t="n">
-        <v>11.3073</v>
+        <v>103.3</v>
       </c>
       <c r="G107" t="n">
-        <v>4929.483333333334</v>
+        <v>4928.15</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4329,11 +4321,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4343,22 +4331,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4987</v>
+        <v>4998</v>
       </c>
       <c r="C108" t="n">
-        <v>4987</v>
+        <v>4998</v>
       </c>
       <c r="D108" t="n">
-        <v>4987</v>
+        <v>4998</v>
       </c>
       <c r="E108" t="n">
-        <v>4987</v>
+        <v>4998</v>
       </c>
       <c r="F108" t="n">
-        <v>16</v>
+        <v>11.3073</v>
       </c>
       <c r="G108" t="n">
-        <v>4930.6</v>
+        <v>4929.483333333334</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4368,11 +4356,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4382,22 +4366,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>5000</v>
+        <v>4987</v>
       </c>
       <c r="C109" t="n">
-        <v>5010</v>
+        <v>4987</v>
       </c>
       <c r="D109" t="n">
-        <v>5010</v>
+        <v>4987</v>
       </c>
       <c r="E109" t="n">
-        <v>5000</v>
+        <v>4987</v>
       </c>
       <c r="F109" t="n">
-        <v>1671.8365</v>
+        <v>16</v>
       </c>
       <c r="G109" t="n">
-        <v>4933.266666666666</v>
+        <v>4930.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4407,11 +4391,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4433,10 +4413,10 @@
         <v>5000</v>
       </c>
       <c r="F110" t="n">
-        <v>359.9801</v>
+        <v>1671.8365</v>
       </c>
       <c r="G110" t="n">
-        <v>4935.6</v>
+        <v>4933.266666666666</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4446,11 +4426,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4460,7 +4436,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5010</v>
+        <v>5000</v>
       </c>
       <c r="C111" t="n">
         <v>5010</v>
@@ -4469,13 +4445,13 @@
         <v>5010</v>
       </c>
       <c r="E111" t="n">
-        <v>5010</v>
+        <v>5000</v>
       </c>
       <c r="F111" t="n">
-        <v>176.4503</v>
+        <v>359.9801</v>
       </c>
       <c r="G111" t="n">
-        <v>4939.266666666666</v>
+        <v>4935.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4485,34 +4461,32 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5000</v>
+        <v>5010</v>
       </c>
       <c r="C112" t="n">
-        <v>5030</v>
+        <v>5010</v>
       </c>
       <c r="D112" t="n">
-        <v>5030</v>
+        <v>5010</v>
       </c>
       <c r="E112" t="n">
-        <v>5000</v>
+        <v>5010</v>
       </c>
       <c r="F112" t="n">
-        <v>225.603</v>
+        <v>176.4503</v>
       </c>
       <c r="G112" t="n">
-        <v>4941.933333333333</v>
+        <v>4939.266666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4532,28 +4506,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5010</v>
+        <v>5000</v>
       </c>
       <c r="C113" t="n">
-        <v>5010</v>
+        <v>5030</v>
       </c>
       <c r="D113" t="n">
-        <v>5010</v>
+        <v>5030</v>
       </c>
       <c r="E113" t="n">
-        <v>5010</v>
+        <v>5000</v>
       </c>
       <c r="F113" t="n">
-        <v>12</v>
+        <v>225.603</v>
       </c>
       <c r="G113" t="n">
-        <v>4944.6</v>
+        <v>4941.933333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4567,22 +4541,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4993</v>
+        <v>5010</v>
       </c>
       <c r="C114" t="n">
-        <v>4992</v>
+        <v>5010</v>
       </c>
       <c r="D114" t="n">
-        <v>4993</v>
+        <v>5010</v>
       </c>
       <c r="E114" t="n">
-        <v>4992</v>
+        <v>5010</v>
       </c>
       <c r="F114" t="n">
-        <v>7.2132</v>
+        <v>12</v>
       </c>
       <c r="G114" t="n">
-        <v>4946.8</v>
+        <v>4944.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4602,22 +4576,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5000</v>
+        <v>4993</v>
       </c>
       <c r="C115" t="n">
-        <v>5005</v>
+        <v>4992</v>
       </c>
       <c r="D115" t="n">
-        <v>5005</v>
+        <v>4993</v>
       </c>
       <c r="E115" t="n">
-        <v>5000</v>
+        <v>4992</v>
       </c>
       <c r="F115" t="n">
-        <v>201.6448</v>
+        <v>7.2132</v>
       </c>
       <c r="G115" t="n">
-        <v>4949.2</v>
+        <v>4946.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4637,22 +4611,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>5010</v>
+        <v>5000</v>
       </c>
       <c r="C116" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="D116" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="E116" t="n">
-        <v>5010</v>
+        <v>5000</v>
       </c>
       <c r="F116" t="n">
-        <v>1.6448</v>
+        <v>201.6448</v>
       </c>
       <c r="G116" t="n">
-        <v>4951.45</v>
+        <v>4949.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4684,10 +4658,10 @@
         <v>5010</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7893</v>
+        <v>1.6448</v>
       </c>
       <c r="G117" t="n">
-        <v>4953.483333333334</v>
+        <v>4951.45</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4719,10 +4693,10 @@
         <v>5010</v>
       </c>
       <c r="F118" t="n">
-        <v>25</v>
+        <v>0.7893</v>
       </c>
       <c r="G118" t="n">
-        <v>4955.516666666666</v>
+        <v>4953.483333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4742,22 +4716,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>5000</v>
+        <v>5010</v>
       </c>
       <c r="C119" t="n">
-        <v>5000</v>
+        <v>5010</v>
       </c>
       <c r="D119" t="n">
-        <v>5000</v>
+        <v>5010</v>
       </c>
       <c r="E119" t="n">
-        <v>5000</v>
+        <v>5010</v>
       </c>
       <c r="F119" t="n">
-        <v>498.2147</v>
+        <v>25</v>
       </c>
       <c r="G119" t="n">
-        <v>4957.533333333334</v>
+        <v>4955.516666666666</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4777,22 +4751,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5015</v>
+        <v>5000</v>
       </c>
       <c r="C120" t="n">
-        <v>5010</v>
+        <v>5000</v>
       </c>
       <c r="D120" t="n">
-        <v>5015</v>
+        <v>5000</v>
       </c>
       <c r="E120" t="n">
-        <v>5010</v>
+        <v>5000</v>
       </c>
       <c r="F120" t="n">
-        <v>48.444</v>
+        <v>498.2147</v>
       </c>
       <c r="G120" t="n">
-        <v>4959.716666666666</v>
+        <v>4957.533333333334</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4815,19 +4789,19 @@
         <v>5015</v>
       </c>
       <c r="C121" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="D121" t="n">
         <v>5015</v>
       </c>
       <c r="E121" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="F121" t="n">
-        <v>65.75360000000001</v>
+        <v>48.444</v>
       </c>
       <c r="G121" t="n">
-        <v>4961.766666666666</v>
+        <v>4959.716666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4847,22 +4821,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>5030</v>
+        <v>5015</v>
       </c>
       <c r="C122" t="n">
-        <v>5030</v>
+        <v>5015</v>
       </c>
       <c r="D122" t="n">
-        <v>5030</v>
+        <v>5015</v>
       </c>
       <c r="E122" t="n">
-        <v>5030</v>
+        <v>5015</v>
       </c>
       <c r="F122" t="n">
-        <v>100</v>
+        <v>65.75360000000001</v>
       </c>
       <c r="G122" t="n">
-        <v>4964.233333333334</v>
+        <v>4961.766666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4894,10 +4868,10 @@
         <v>5030</v>
       </c>
       <c r="F123" t="n">
-        <v>10.9</v>
+        <v>100</v>
       </c>
       <c r="G123" t="n">
-        <v>4966.466666666666</v>
+        <v>4964.233333333334</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4920,19 +4894,19 @@
         <v>5030</v>
       </c>
       <c r="C124" t="n">
-        <v>5035</v>
+        <v>5030</v>
       </c>
       <c r="D124" t="n">
-        <v>5035</v>
+        <v>5030</v>
       </c>
       <c r="E124" t="n">
         <v>5030</v>
       </c>
       <c r="F124" t="n">
-        <v>109.272</v>
+        <v>10.9</v>
       </c>
       <c r="G124" t="n">
-        <v>4968.8</v>
+        <v>4966.466666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4952,22 +4926,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5010</v>
+        <v>5030</v>
       </c>
       <c r="C125" t="n">
-        <v>5010</v>
+        <v>5035</v>
       </c>
       <c r="D125" t="n">
-        <v>5010</v>
+        <v>5035</v>
       </c>
       <c r="E125" t="n">
-        <v>5010</v>
+        <v>5030</v>
       </c>
       <c r="F125" t="n">
-        <v>20.2413</v>
+        <v>109.272</v>
       </c>
       <c r="G125" t="n">
-        <v>4970.783333333334</v>
+        <v>4968.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4987,28 +4961,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="C126" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="D126" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="E126" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="F126" t="n">
-        <v>99.75</v>
+        <v>20.2413</v>
       </c>
       <c r="G126" t="n">
-        <v>4972.716666666666</v>
+        <v>4970.783333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5022,22 +4996,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="C127" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="D127" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="E127" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="F127" t="n">
-        <v>20.4665</v>
+        <v>99.75</v>
       </c>
       <c r="G127" t="n">
-        <v>4974.216666666666</v>
+        <v>4972.716666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5057,22 +5031,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="C128" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="D128" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="E128" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="F128" t="n">
-        <v>7.6832</v>
+        <v>20.4665</v>
       </c>
       <c r="G128" t="n">
-        <v>4975.816666666667</v>
+        <v>4974.216666666666</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5092,22 +5066,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5020</v>
+        <v>5015</v>
       </c>
       <c r="C129" t="n">
-        <v>5020</v>
+        <v>5015</v>
       </c>
       <c r="D129" t="n">
-        <v>5020</v>
+        <v>5015</v>
       </c>
       <c r="E129" t="n">
-        <v>5020</v>
+        <v>5015</v>
       </c>
       <c r="F129" t="n">
-        <v>7.299</v>
+        <v>7.6832</v>
       </c>
       <c r="G129" t="n">
-        <v>4977.5</v>
+        <v>4975.816666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5127,22 +5101,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5025</v>
+        <v>5020</v>
       </c>
       <c r="C130" t="n">
-        <v>5025</v>
+        <v>5020</v>
       </c>
       <c r="D130" t="n">
-        <v>5025</v>
+        <v>5020</v>
       </c>
       <c r="E130" t="n">
-        <v>5025</v>
+        <v>5020</v>
       </c>
       <c r="F130" t="n">
-        <v>300.2991</v>
+        <v>7.299</v>
       </c>
       <c r="G130" t="n">
-        <v>4979.166666666667</v>
+        <v>4977.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5162,22 +5136,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5020</v>
+        <v>5025</v>
       </c>
       <c r="C131" t="n">
-        <v>5030</v>
+        <v>5025</v>
       </c>
       <c r="D131" t="n">
-        <v>5030</v>
+        <v>5025</v>
       </c>
       <c r="E131" t="n">
-        <v>5020</v>
+        <v>5025</v>
       </c>
       <c r="F131" t="n">
-        <v>54.2081</v>
+        <v>300.2991</v>
       </c>
       <c r="G131" t="n">
-        <v>4980.683333333333</v>
+        <v>4979.166666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5200,19 +5174,19 @@
         <v>5020</v>
       </c>
       <c r="C132" t="n">
-        <v>5020</v>
+        <v>5030</v>
       </c>
       <c r="D132" t="n">
-        <v>5020</v>
+        <v>5030</v>
       </c>
       <c r="E132" t="n">
         <v>5020</v>
       </c>
       <c r="F132" t="n">
-        <v>91.08</v>
+        <v>54.2081</v>
       </c>
       <c r="G132" t="n">
-        <v>4981.983333333334</v>
+        <v>4980.683333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5244,10 +5218,10 @@
         <v>5020</v>
       </c>
       <c r="F133" t="n">
-        <v>37.4636</v>
+        <v>91.08</v>
       </c>
       <c r="G133" t="n">
-        <v>4983.283333333334</v>
+        <v>4981.983333333334</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5267,22 +5241,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5000</v>
+        <v>5020</v>
       </c>
       <c r="C134" t="n">
-        <v>4996</v>
+        <v>5020</v>
       </c>
       <c r="D134" t="n">
-        <v>5000</v>
+        <v>5020</v>
       </c>
       <c r="E134" t="n">
-        <v>4996</v>
+        <v>5020</v>
       </c>
       <c r="F134" t="n">
-        <v>4.2028</v>
+        <v>37.4636</v>
       </c>
       <c r="G134" t="n">
-        <v>4984.183333333333</v>
+        <v>4983.283333333334</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5302,22 +5276,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4991</v>
+        <v>5000</v>
       </c>
       <c r="C135" t="n">
-        <v>4989</v>
+        <v>4996</v>
       </c>
       <c r="D135" t="n">
-        <v>4991</v>
+        <v>5000</v>
       </c>
       <c r="E135" t="n">
-        <v>4989</v>
+        <v>4996</v>
       </c>
       <c r="F135" t="n">
-        <v>99.75</v>
+        <v>4.2028</v>
       </c>
       <c r="G135" t="n">
-        <v>4984.6</v>
+        <v>4984.183333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5337,22 +5311,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5005</v>
+        <v>4991</v>
       </c>
       <c r="C136" t="n">
-        <v>4980</v>
+        <v>4989</v>
       </c>
       <c r="D136" t="n">
-        <v>5005</v>
+        <v>4991</v>
       </c>
       <c r="E136" t="n">
-        <v>4980</v>
+        <v>4989</v>
       </c>
       <c r="F136" t="n">
-        <v>143.8147</v>
+        <v>99.75</v>
       </c>
       <c r="G136" t="n">
-        <v>4985.15</v>
+        <v>4984.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5372,22 +5346,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4979</v>
+        <v>5005</v>
       </c>
       <c r="C137" t="n">
-        <v>4979</v>
+        <v>4980</v>
       </c>
       <c r="D137" t="n">
-        <v>4979</v>
+        <v>5005</v>
       </c>
       <c r="E137" t="n">
-        <v>4979</v>
+        <v>4980</v>
       </c>
       <c r="F137" t="n">
-        <v>37.6346</v>
+        <v>143.8147</v>
       </c>
       <c r="G137" t="n">
-        <v>4985.55</v>
+        <v>4985.15</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5407,22 +5381,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4980</v>
+        <v>4979</v>
       </c>
       <c r="C138" t="n">
-        <v>4981</v>
+        <v>4979</v>
       </c>
       <c r="D138" t="n">
-        <v>4981</v>
+        <v>4979</v>
       </c>
       <c r="E138" t="n">
-        <v>4980</v>
+        <v>4979</v>
       </c>
       <c r="F138" t="n">
-        <v>99.2</v>
+        <v>37.6346</v>
       </c>
       <c r="G138" t="n">
-        <v>4986.066666666667</v>
+        <v>4985.55</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5442,22 +5416,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4976</v>
+        <v>4980</v>
       </c>
       <c r="C139" t="n">
-        <v>4976</v>
+        <v>4981</v>
       </c>
       <c r="D139" t="n">
-        <v>4976</v>
+        <v>4981</v>
       </c>
       <c r="E139" t="n">
-        <v>4976</v>
+        <v>4980</v>
       </c>
       <c r="F139" t="n">
-        <v>95.51990000000001</v>
+        <v>99.2</v>
       </c>
       <c r="G139" t="n">
-        <v>4986.583333333333</v>
+        <v>4986.066666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5477,22 +5451,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4979</v>
+        <v>4976</v>
       </c>
       <c r="C140" t="n">
         <v>4976</v>
       </c>
       <c r="D140" t="n">
-        <v>4979</v>
+        <v>4976</v>
       </c>
       <c r="E140" t="n">
         <v>4976</v>
       </c>
       <c r="F140" t="n">
-        <v>3.9951</v>
+        <v>95.51990000000001</v>
       </c>
       <c r="G140" t="n">
-        <v>4986.95</v>
+        <v>4986.583333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5512,22 +5486,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4984</v>
+        <v>4979</v>
       </c>
       <c r="C141" t="n">
-        <v>4985</v>
+        <v>4976</v>
       </c>
       <c r="D141" t="n">
-        <v>4985</v>
+        <v>4979</v>
       </c>
       <c r="E141" t="n">
-        <v>4984</v>
+        <v>4976</v>
       </c>
       <c r="F141" t="n">
-        <v>70.2064</v>
+        <v>3.9951</v>
       </c>
       <c r="G141" t="n">
-        <v>4987.7</v>
+        <v>4986.95</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5547,22 +5521,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4988</v>
+        <v>4984</v>
       </c>
       <c r="C142" t="n">
-        <v>4988</v>
+        <v>4985</v>
       </c>
       <c r="D142" t="n">
-        <v>4988</v>
+        <v>4985</v>
       </c>
       <c r="E142" t="n">
-        <v>4988</v>
+        <v>4984</v>
       </c>
       <c r="F142" t="n">
-        <v>50</v>
+        <v>70.2064</v>
       </c>
       <c r="G142" t="n">
-        <v>4988.316666666667</v>
+        <v>4987.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5582,22 +5556,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4992</v>
+        <v>4988</v>
       </c>
       <c r="C143" t="n">
-        <v>4992</v>
+        <v>4988</v>
       </c>
       <c r="D143" t="n">
-        <v>4992</v>
+        <v>4988</v>
       </c>
       <c r="E143" t="n">
-        <v>4992</v>
+        <v>4988</v>
       </c>
       <c r="F143" t="n">
-        <v>0.3163</v>
+        <v>50</v>
       </c>
       <c r="G143" t="n">
-        <v>4988.883333333333</v>
+        <v>4988.316666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5617,22 +5591,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4996</v>
+        <v>4992</v>
       </c>
       <c r="C144" t="n">
-        <v>4996</v>
+        <v>4992</v>
       </c>
       <c r="D144" t="n">
-        <v>4996</v>
+        <v>4992</v>
       </c>
       <c r="E144" t="n">
-        <v>4996</v>
+        <v>4992</v>
       </c>
       <c r="F144" t="n">
-        <v>17.2945</v>
+        <v>0.3163</v>
       </c>
       <c r="G144" t="n">
-        <v>4989.633333333333</v>
+        <v>4988.883333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5652,22 +5626,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4995</v>
+        <v>4996</v>
       </c>
       <c r="C145" t="n">
-        <v>4999</v>
+        <v>4996</v>
       </c>
       <c r="D145" t="n">
-        <v>4999</v>
+        <v>4996</v>
       </c>
       <c r="E145" t="n">
-        <v>4990</v>
+        <v>4996</v>
       </c>
       <c r="F145" t="n">
-        <v>34.4367</v>
+        <v>17.2945</v>
       </c>
       <c r="G145" t="n">
-        <v>4990.3</v>
+        <v>4989.633333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5690,19 +5664,19 @@
         <v>4995</v>
       </c>
       <c r="C146" t="n">
-        <v>5010</v>
+        <v>4999</v>
       </c>
       <c r="D146" t="n">
-        <v>5010</v>
+        <v>4999</v>
       </c>
       <c r="E146" t="n">
-        <v>4995</v>
+        <v>4990</v>
       </c>
       <c r="F146" t="n">
-        <v>178.2411</v>
+        <v>34.4367</v>
       </c>
       <c r="G146" t="n">
-        <v>4991.2</v>
+        <v>4990.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5722,22 +5696,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5015</v>
+        <v>4995</v>
       </c>
       <c r="C147" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="D147" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="E147" t="n">
-        <v>5005</v>
+        <v>4995</v>
       </c>
       <c r="F147" t="n">
-        <v>50.1264630109671</v>
+        <v>178.2411</v>
       </c>
       <c r="G147" t="n">
-        <v>4991.883333333333</v>
+        <v>4991.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5757,22 +5731,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5000</v>
+        <v>5015</v>
       </c>
       <c r="C148" t="n">
-        <v>5000</v>
+        <v>5005</v>
       </c>
       <c r="D148" t="n">
-        <v>5000</v>
+        <v>5015</v>
       </c>
       <c r="E148" t="n">
-        <v>5000</v>
+        <v>5005</v>
       </c>
       <c r="F148" t="n">
-        <v>20.292</v>
+        <v>50.1264630109671</v>
       </c>
       <c r="G148" t="n">
-        <v>4992.45</v>
+        <v>4991.883333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5792,22 +5766,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5005</v>
+        <v>5000</v>
       </c>
       <c r="C149" t="n">
         <v>5000</v>
       </c>
       <c r="D149" t="n">
-        <v>5005</v>
+        <v>5000</v>
       </c>
       <c r="E149" t="n">
         <v>5000</v>
       </c>
       <c r="F149" t="n">
-        <v>600.2745</v>
+        <v>20.292</v>
       </c>
       <c r="G149" t="n">
-        <v>4993.283333333334</v>
+        <v>4992.45</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5827,22 +5801,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4999</v>
+        <v>5005</v>
       </c>
       <c r="C150" t="n">
-        <v>4998</v>
+        <v>5000</v>
       </c>
       <c r="D150" t="n">
-        <v>4999</v>
+        <v>5005</v>
       </c>
       <c r="E150" t="n">
-        <v>4998</v>
+        <v>5000</v>
       </c>
       <c r="F150" t="n">
-        <v>49.875</v>
+        <v>600.2745</v>
       </c>
       <c r="G150" t="n">
-        <v>4993.9</v>
+        <v>4993.283333333334</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5862,22 +5836,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
+        <v>4999</v>
+      </c>
+      <c r="C151" t="n">
         <v>4998</v>
       </c>
-      <c r="C151" t="n">
-        <v>4996</v>
-      </c>
       <c r="D151" t="n">
+        <v>4999</v>
+      </c>
+      <c r="E151" t="n">
         <v>4998</v>
       </c>
-      <c r="E151" t="n">
-        <v>4996</v>
-      </c>
       <c r="F151" t="n">
-        <v>600.2745</v>
+        <v>49.875</v>
       </c>
       <c r="G151" t="n">
-        <v>4994.416666666667</v>
+        <v>4993.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5897,22 +5871,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5005</v>
+        <v>4998</v>
       </c>
       <c r="C152" t="n">
-        <v>5005</v>
+        <v>4996</v>
       </c>
       <c r="D152" t="n">
-        <v>5005</v>
+        <v>4998</v>
       </c>
       <c r="E152" t="n">
-        <v>5005</v>
+        <v>4996</v>
       </c>
       <c r="F152" t="n">
-        <v>42.4746</v>
+        <v>600.2745</v>
       </c>
       <c r="G152" t="n">
-        <v>4995.216666666666</v>
+        <v>4994.416666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5932,22 +5906,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4996</v>
+        <v>5005</v>
       </c>
       <c r="C153" t="n">
-        <v>5000</v>
+        <v>5005</v>
       </c>
       <c r="D153" t="n">
         <v>5005</v>
       </c>
       <c r="E153" t="n">
-        <v>4996</v>
+        <v>5005</v>
       </c>
       <c r="F153" t="n">
-        <v>835.3696</v>
+        <v>42.4746</v>
       </c>
       <c r="G153" t="n">
-        <v>4996.083333333333</v>
+        <v>4995.216666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5967,22 +5941,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5005</v>
+        <v>4996</v>
       </c>
       <c r="C154" t="n">
-        <v>5005</v>
+        <v>5000</v>
       </c>
       <c r="D154" t="n">
         <v>5005</v>
       </c>
       <c r="E154" t="n">
-        <v>5005</v>
+        <v>4996</v>
       </c>
       <c r="F154" t="n">
-        <v>100</v>
+        <v>835.3696</v>
       </c>
       <c r="G154" t="n">
-        <v>4997.016666666666</v>
+        <v>4996.083333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6002,22 +5976,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4995</v>
+        <v>5005</v>
       </c>
       <c r="C155" t="n">
-        <v>4995</v>
+        <v>5005</v>
       </c>
       <c r="D155" t="n">
-        <v>4995</v>
+        <v>5005</v>
       </c>
       <c r="E155" t="n">
-        <v>4995</v>
+        <v>5005</v>
       </c>
       <c r="F155" t="n">
-        <v>161.6479</v>
+        <v>100</v>
       </c>
       <c r="G155" t="n">
-        <v>4997.933333333333</v>
+        <v>4997.016666666666</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6049,10 +6023,10 @@
         <v>4995</v>
       </c>
       <c r="F156" t="n">
-        <v>4.1609</v>
+        <v>161.6479</v>
       </c>
       <c r="G156" t="n">
-        <v>4998.6</v>
+        <v>4997.933333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6072,22 +6046,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5000</v>
+        <v>4995</v>
       </c>
       <c r="C157" t="n">
-        <v>5000</v>
+        <v>4995</v>
       </c>
       <c r="D157" t="n">
-        <v>5000</v>
+        <v>4995</v>
       </c>
       <c r="E157" t="n">
-        <v>5000</v>
+        <v>4995</v>
       </c>
       <c r="F157" t="n">
-        <v>146</v>
+        <v>4.1609</v>
       </c>
       <c r="G157" t="n">
-        <v>4999.35</v>
+        <v>4998.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6110,19 +6084,19 @@
         <v>5000</v>
       </c>
       <c r="C158" t="n">
-        <v>5005</v>
+        <v>5000</v>
       </c>
       <c r="D158" t="n">
-        <v>5005</v>
+        <v>5000</v>
       </c>
       <c r="E158" t="n">
         <v>5000</v>
       </c>
       <c r="F158" t="n">
-        <v>110.1742</v>
+        <v>146</v>
       </c>
       <c r="G158" t="n">
-        <v>5000.133333333333</v>
+        <v>4999.35</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6142,22 +6116,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5015</v>
+        <v>5000</v>
       </c>
       <c r="C159" t="n">
-        <v>5000</v>
+        <v>5005</v>
       </c>
       <c r="D159" t="n">
-        <v>5020</v>
+        <v>5005</v>
       </c>
       <c r="E159" t="n">
         <v>5000</v>
       </c>
       <c r="F159" t="n">
-        <v>350.6869</v>
+        <v>110.1742</v>
       </c>
       <c r="G159" t="n">
-        <v>5000.716666666666</v>
+        <v>5000.133333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6177,22 +6151,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5010</v>
+        <v>5015</v>
       </c>
       <c r="C160" t="n">
         <v>5000</v>
       </c>
       <c r="D160" t="n">
-        <v>5010</v>
+        <v>5020</v>
       </c>
       <c r="E160" t="n">
         <v>5000</v>
       </c>
       <c r="F160" t="n">
-        <v>40.921</v>
+        <v>350.6869</v>
       </c>
       <c r="G160" t="n">
-        <v>5001.466666666666</v>
+        <v>5000.716666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6212,22 +6186,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4998</v>
+        <v>5010</v>
       </c>
       <c r="C161" t="n">
-        <v>4998</v>
+        <v>5000</v>
       </c>
       <c r="D161" t="n">
-        <v>4998</v>
+        <v>5010</v>
       </c>
       <c r="E161" t="n">
-        <v>4998</v>
+        <v>5000</v>
       </c>
       <c r="F161" t="n">
-        <v>97.0412</v>
+        <v>40.921</v>
       </c>
       <c r="G161" t="n">
-        <v>5001.95</v>
+        <v>5001.466666666666</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6247,22 +6221,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4990</v>
+        <v>4998</v>
       </c>
       <c r="C162" t="n">
-        <v>4990</v>
+        <v>4998</v>
       </c>
       <c r="D162" t="n">
-        <v>4990</v>
+        <v>4998</v>
       </c>
       <c r="E162" t="n">
-        <v>4990</v>
+        <v>4998</v>
       </c>
       <c r="F162" t="n">
-        <v>49.088</v>
+        <v>97.0412</v>
       </c>
       <c r="G162" t="n">
-        <v>5002.3</v>
+        <v>5001.95</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6282,22 +6256,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4986</v>
+        <v>4990</v>
       </c>
       <c r="C163" t="n">
-        <v>4986</v>
+        <v>4990</v>
       </c>
       <c r="D163" t="n">
-        <v>4986</v>
+        <v>4990</v>
       </c>
       <c r="E163" t="n">
-        <v>4986</v>
+        <v>4990</v>
       </c>
       <c r="F163" t="n">
-        <v>1.6203</v>
+        <v>49.088</v>
       </c>
       <c r="G163" t="n">
-        <v>5002.383333333333</v>
+        <v>5002.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6317,19 +6291,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4988</v>
+        <v>4986</v>
       </c>
       <c r="C164" t="n">
-        <v>4988</v>
+        <v>4986</v>
       </c>
       <c r="D164" t="n">
-        <v>4988</v>
+        <v>4986</v>
       </c>
       <c r="E164" t="n">
-        <v>4988</v>
+        <v>4986</v>
       </c>
       <c r="F164" t="n">
-        <v>2.0043</v>
+        <v>1.6203</v>
       </c>
       <c r="G164" t="n">
         <v>5002.383333333333</v>
@@ -6352,22 +6326,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4987</v>
+        <v>4988</v>
       </c>
       <c r="C165" t="n">
-        <v>4987</v>
+        <v>4988</v>
       </c>
       <c r="D165" t="n">
-        <v>4987</v>
+        <v>4988</v>
       </c>
       <c r="E165" t="n">
-        <v>4987</v>
+        <v>4988</v>
       </c>
       <c r="F165" t="n">
-        <v>49.8109</v>
+        <v>2.0043</v>
       </c>
       <c r="G165" t="n">
-        <v>5002.45</v>
+        <v>5002.383333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6387,22 +6361,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4977</v>
+        <v>4987</v>
       </c>
       <c r="C166" t="n">
-        <v>4977</v>
+        <v>4987</v>
       </c>
       <c r="D166" t="n">
-        <v>4977</v>
+        <v>4987</v>
       </c>
       <c r="E166" t="n">
-        <v>4977</v>
+        <v>4987</v>
       </c>
       <c r="F166" t="n">
-        <v>4.3209</v>
+        <v>49.8109</v>
       </c>
       <c r="G166" t="n">
-        <v>5002.233333333334</v>
+        <v>5002.45</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6422,22 +6396,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4986</v>
+        <v>4977</v>
       </c>
       <c r="C167" t="n">
-        <v>4990</v>
+        <v>4977</v>
       </c>
       <c r="D167" t="n">
-        <v>4990</v>
+        <v>4977</v>
       </c>
       <c r="E167" t="n">
-        <v>4986</v>
+        <v>4977</v>
       </c>
       <c r="F167" t="n">
-        <v>160.45</v>
+        <v>4.3209</v>
       </c>
       <c r="G167" t="n">
-        <v>5002.1</v>
+        <v>5002.233333333334</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6457,22 +6431,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4987</v>
+        <v>4986</v>
       </c>
       <c r="C168" t="n">
-        <v>4989</v>
+        <v>4990</v>
       </c>
       <c r="D168" t="n">
-        <v>4989</v>
+        <v>4990</v>
       </c>
       <c r="E168" t="n">
-        <v>4987</v>
+        <v>4986</v>
       </c>
       <c r="F168" t="n">
-        <v>163.277</v>
+        <v>160.45</v>
       </c>
       <c r="G168" t="n">
-        <v>5002.133333333333</v>
+        <v>5002.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6492,22 +6466,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4988</v>
+        <v>4987</v>
       </c>
       <c r="C169" t="n">
-        <v>4977</v>
+        <v>4989</v>
       </c>
       <c r="D169" t="n">
-        <v>4988</v>
+        <v>4989</v>
       </c>
       <c r="E169" t="n">
-        <v>4977</v>
+        <v>4987</v>
       </c>
       <c r="F169" t="n">
-        <v>9.686500000000001</v>
+        <v>163.277</v>
       </c>
       <c r="G169" t="n">
-        <v>5001.583333333333</v>
+        <v>5002.133333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6527,22 +6501,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4995</v>
+        <v>4988</v>
       </c>
       <c r="C170" t="n">
-        <v>4995</v>
+        <v>4977</v>
       </c>
       <c r="D170" t="n">
-        <v>4995</v>
+        <v>4988</v>
       </c>
       <c r="E170" t="n">
-        <v>4995</v>
+        <v>4977</v>
       </c>
       <c r="F170" t="n">
-        <v>20</v>
+        <v>9.686500000000001</v>
       </c>
       <c r="G170" t="n">
-        <v>5001.333333333333</v>
+        <v>5001.583333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6562,22 +6536,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4983</v>
+        <v>4995</v>
       </c>
       <c r="C171" t="n">
-        <v>4983</v>
+        <v>4995</v>
       </c>
       <c r="D171" t="n">
-        <v>4983</v>
+        <v>4995</v>
       </c>
       <c r="E171" t="n">
-        <v>4983</v>
+        <v>4995</v>
       </c>
       <c r="F171" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G171" t="n">
-        <v>5000.883333333333</v>
+        <v>5001.333333333333</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6597,22 +6571,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4996</v>
+        <v>4983</v>
       </c>
       <c r="C172" t="n">
-        <v>4996</v>
+        <v>4983</v>
       </c>
       <c r="D172" t="n">
-        <v>4996</v>
+        <v>4983</v>
       </c>
       <c r="E172" t="n">
-        <v>4996</v>
+        <v>4983</v>
       </c>
       <c r="F172" t="n">
-        <v>2.8193</v>
+        <v>2</v>
       </c>
       <c r="G172" t="n">
-        <v>5000.316666666667</v>
+        <v>5000.883333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6632,19 +6606,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5010</v>
+        <v>4996</v>
       </c>
       <c r="C173" t="n">
-        <v>5010</v>
+        <v>4996</v>
       </c>
       <c r="D173" t="n">
-        <v>5010</v>
+        <v>4996</v>
       </c>
       <c r="E173" t="n">
-        <v>5010</v>
+        <v>4996</v>
       </c>
       <c r="F173" t="n">
-        <v>100.8636</v>
+        <v>2.8193</v>
       </c>
       <c r="G173" t="n">
         <v>5000.316666666667</v>
@@ -6667,22 +6641,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="C174" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="D174" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="E174" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>100.8636</v>
       </c>
       <c r="G174" t="n">
-        <v>5000.533333333334</v>
+        <v>5000.316666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6702,22 +6676,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="C175" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="D175" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="E175" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="F175" t="n">
-        <v>132.9119</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
-        <v>5000.616666666667</v>
+        <v>5000.533333333334</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6737,22 +6711,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5020</v>
+        <v>5010</v>
       </c>
       <c r="C176" t="n">
-        <v>5020</v>
+        <v>5010</v>
       </c>
       <c r="D176" t="n">
-        <v>5020</v>
+        <v>5010</v>
       </c>
       <c r="E176" t="n">
-        <v>5020</v>
+        <v>5010</v>
       </c>
       <c r="F176" t="n">
-        <v>300.2991</v>
+        <v>132.9119</v>
       </c>
       <c r="G176" t="n">
-        <v>5000.783333333334</v>
+        <v>5000.616666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6772,22 +6746,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5025</v>
+        <v>5020</v>
       </c>
       <c r="C177" t="n">
-        <v>5035</v>
+        <v>5020</v>
       </c>
       <c r="D177" t="n">
-        <v>5035</v>
+        <v>5020</v>
       </c>
       <c r="E177" t="n">
-        <v>5025</v>
+        <v>5020</v>
       </c>
       <c r="F177" t="n">
-        <v>305.2671</v>
+        <v>300.2991</v>
       </c>
       <c r="G177" t="n">
-        <v>5001.2</v>
+        <v>5000.783333333334</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6810,19 +6784,19 @@
         <v>5025</v>
       </c>
       <c r="C178" t="n">
-        <v>5025</v>
+        <v>5035</v>
       </c>
       <c r="D178" t="n">
-        <v>5025</v>
+        <v>5035</v>
       </c>
       <c r="E178" t="n">
         <v>5025</v>
       </c>
       <c r="F178" t="n">
-        <v>11.9402</v>
+        <v>305.2671</v>
       </c>
       <c r="G178" t="n">
-        <v>5001.45</v>
+        <v>5001.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6842,22 +6816,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5020</v>
+        <v>5025</v>
       </c>
       <c r="C179" t="n">
-        <v>5030</v>
+        <v>5025</v>
       </c>
       <c r="D179" t="n">
-        <v>5030</v>
+        <v>5025</v>
       </c>
       <c r="E179" t="n">
-        <v>5020</v>
+        <v>5025</v>
       </c>
       <c r="F179" t="n">
-        <v>167.4314</v>
+        <v>11.9402</v>
       </c>
       <c r="G179" t="n">
-        <v>5001.95</v>
+        <v>5001.45</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6880,19 +6854,19 @@
         <v>5020</v>
       </c>
       <c r="C180" t="n">
-        <v>5020</v>
+        <v>5030</v>
       </c>
       <c r="D180" t="n">
-        <v>5020</v>
+        <v>5030</v>
       </c>
       <c r="E180" t="n">
         <v>5020</v>
       </c>
       <c r="F180" t="n">
-        <v>9.42</v>
+        <v>167.4314</v>
       </c>
       <c r="G180" t="n">
-        <v>5002.116666666667</v>
+        <v>5001.95</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6912,19 +6886,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5015</v>
+        <v>5020</v>
       </c>
       <c r="C181" t="n">
-        <v>5015</v>
+        <v>5020</v>
       </c>
       <c r="D181" t="n">
-        <v>5015</v>
+        <v>5020</v>
       </c>
       <c r="E181" t="n">
-        <v>5015</v>
+        <v>5020</v>
       </c>
       <c r="F181" t="n">
-        <v>73.6474</v>
+        <v>9.42</v>
       </c>
       <c r="G181" t="n">
         <v>5002.116666666667</v>
@@ -6947,22 +6921,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5010</v>
+        <v>5015</v>
       </c>
       <c r="C182" t="n">
-        <v>5010</v>
+        <v>5015</v>
       </c>
       <c r="D182" t="n">
-        <v>5010</v>
+        <v>5015</v>
       </c>
       <c r="E182" t="n">
-        <v>5010</v>
+        <v>5015</v>
       </c>
       <c r="F182" t="n">
-        <v>106</v>
+        <v>73.6474</v>
       </c>
       <c r="G182" t="n">
-        <v>5001.783333333334</v>
+        <v>5002.116666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6982,22 +6956,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="C183" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="D183" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="E183" t="n">
-        <v>5015</v>
+        <v>5010</v>
       </c>
       <c r="F183" t="n">
-        <v>3.0034</v>
+        <v>106</v>
       </c>
       <c r="G183" t="n">
-        <v>5001.533333333334</v>
+        <v>5001.783333333334</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7017,22 +6991,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>5040</v>
+        <v>5015</v>
       </c>
       <c r="C184" t="n">
-        <v>5045</v>
+        <v>5015</v>
       </c>
       <c r="D184" t="n">
-        <v>5045</v>
+        <v>5015</v>
       </c>
       <c r="E184" t="n">
-        <v>5040</v>
+        <v>5015</v>
       </c>
       <c r="F184" t="n">
-        <v>109.0782</v>
+        <v>3.0034</v>
       </c>
       <c r="G184" t="n">
-        <v>5001.7</v>
+        <v>5001.533333333334</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7055,19 +7029,19 @@
         <v>5040</v>
       </c>
       <c r="C185" t="n">
-        <v>5040</v>
+        <v>5045</v>
       </c>
       <c r="D185" t="n">
-        <v>5040</v>
+        <v>5045</v>
       </c>
       <c r="E185" t="n">
         <v>5040</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8274</v>
+        <v>109.0782</v>
       </c>
       <c r="G185" t="n">
-        <v>5002.2</v>
+        <v>5001.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7087,7 +7061,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5035</v>
+        <v>5040</v>
       </c>
       <c r="C186" t="n">
         <v>5040</v>
@@ -7096,13 +7070,13 @@
         <v>5040</v>
       </c>
       <c r="E186" t="n">
-        <v>5030</v>
+        <v>5040</v>
       </c>
       <c r="F186" t="n">
-        <v>271.5629</v>
+        <v>0.8274</v>
       </c>
       <c r="G186" t="n">
-        <v>5002.783333333334</v>
+        <v>5002.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7122,22 +7096,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>5050</v>
+        <v>5035</v>
       </c>
       <c r="C187" t="n">
-        <v>5050</v>
+        <v>5040</v>
       </c>
       <c r="D187" t="n">
-        <v>5050</v>
+        <v>5040</v>
       </c>
       <c r="E187" t="n">
-        <v>5050</v>
+        <v>5030</v>
       </c>
       <c r="F187" t="n">
-        <v>201.9801</v>
+        <v>271.5629</v>
       </c>
       <c r="G187" t="n">
-        <v>5003.45</v>
+        <v>5002.783333333334</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7157,22 +7131,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5065</v>
+        <v>5050</v>
       </c>
       <c r="C188" t="n">
-        <v>5065</v>
+        <v>5050</v>
       </c>
       <c r="D188" t="n">
-        <v>5065</v>
+        <v>5050</v>
       </c>
       <c r="E188" t="n">
-        <v>5065</v>
+        <v>5050</v>
       </c>
       <c r="F188" t="n">
-        <v>0.1</v>
+        <v>201.9801</v>
       </c>
       <c r="G188" t="n">
-        <v>5004.283333333334</v>
+        <v>5003.45</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7192,22 +7166,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5055</v>
+        <v>5065</v>
       </c>
       <c r="C189" t="n">
-        <v>5055</v>
+        <v>5065</v>
       </c>
       <c r="D189" t="n">
-        <v>5055</v>
+        <v>5065</v>
       </c>
       <c r="E189" t="n">
-        <v>5055</v>
+        <v>5065</v>
       </c>
       <c r="F189" t="n">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="G189" t="n">
-        <v>5004.866666666667</v>
+        <v>5004.283333333334</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7227,28 +7201,28 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5050</v>
+        <v>5055</v>
       </c>
       <c r="C190" t="n">
-        <v>5050</v>
+        <v>5055</v>
       </c>
       <c r="D190" t="n">
-        <v>5050</v>
+        <v>5055</v>
       </c>
       <c r="E190" t="n">
-        <v>5050</v>
+        <v>5055</v>
       </c>
       <c r="F190" t="n">
-        <v>55.8543</v>
+        <v>100</v>
       </c>
       <c r="G190" t="n">
-        <v>5005.283333333334</v>
+        <v>5004.866666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
@@ -7274,16 +7248,16 @@
         <v>5050</v>
       </c>
       <c r="F191" t="n">
-        <v>199.5</v>
+        <v>55.8543</v>
       </c>
       <c r="G191" t="n">
-        <v>5005.616666666667</v>
+        <v>5005.283333333334</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
@@ -7297,22 +7271,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>5045</v>
+        <v>5050</v>
       </c>
       <c r="C192" t="n">
-        <v>5045</v>
+        <v>5050</v>
       </c>
       <c r="D192" t="n">
-        <v>5045</v>
+        <v>5050</v>
       </c>
       <c r="E192" t="n">
-        <v>5045</v>
+        <v>5050</v>
       </c>
       <c r="F192" t="n">
-        <v>2</v>
+        <v>199.5</v>
       </c>
       <c r="G192" t="n">
-        <v>5006.033333333334</v>
+        <v>5005.616666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7332,22 +7306,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>5035</v>
+        <v>5045</v>
       </c>
       <c r="C193" t="n">
-        <v>5035</v>
+        <v>5045</v>
       </c>
       <c r="D193" t="n">
-        <v>5035</v>
+        <v>5045</v>
       </c>
       <c r="E193" t="n">
-        <v>5035</v>
+        <v>5045</v>
       </c>
       <c r="F193" t="n">
-        <v>28.8184</v>
+        <v>2</v>
       </c>
       <c r="G193" t="n">
-        <v>5006.283333333334</v>
+        <v>5006.033333333334</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7367,22 +7341,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>5030</v>
+        <v>5035</v>
       </c>
       <c r="C194" t="n">
-        <v>5030</v>
+        <v>5035</v>
       </c>
       <c r="D194" t="n">
-        <v>5030</v>
+        <v>5035</v>
       </c>
       <c r="E194" t="n">
-        <v>5030</v>
+        <v>5035</v>
       </c>
       <c r="F194" t="n">
-        <v>40.8011</v>
+        <v>28.8184</v>
       </c>
       <c r="G194" t="n">
-        <v>5006.85</v>
+        <v>5006.283333333334</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7402,22 +7376,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>5040</v>
+        <v>5030</v>
       </c>
       <c r="C195" t="n">
-        <v>5035</v>
+        <v>5030</v>
       </c>
       <c r="D195" t="n">
-        <v>5040</v>
+        <v>5030</v>
       </c>
       <c r="E195" t="n">
-        <v>5035</v>
+        <v>5030</v>
       </c>
       <c r="F195" t="n">
-        <v>100.6588</v>
+        <v>40.8011</v>
       </c>
       <c r="G195" t="n">
-        <v>5007.616666666667</v>
+        <v>5006.85</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7437,22 +7411,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>5025</v>
+        <v>5040</v>
       </c>
       <c r="C196" t="n">
-        <v>5025</v>
+        <v>5035</v>
       </c>
       <c r="D196" t="n">
-        <v>5025</v>
+        <v>5040</v>
       </c>
       <c r="E196" t="n">
-        <v>5025</v>
+        <v>5035</v>
       </c>
       <c r="F196" t="n">
-        <v>102.8454</v>
+        <v>100.6588</v>
       </c>
       <c r="G196" t="n">
-        <v>5008.366666666667</v>
+        <v>5007.616666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7484,10 +7458,10 @@
         <v>5025</v>
       </c>
       <c r="F197" t="n">
-        <v>18.3723</v>
+        <v>102.8454</v>
       </c>
       <c r="G197" t="n">
-        <v>5009.133333333333</v>
+        <v>5008.366666666667</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7510,19 +7484,19 @@
         <v>5025</v>
       </c>
       <c r="C198" t="n">
-        <v>5020</v>
+        <v>5025</v>
       </c>
       <c r="D198" t="n">
         <v>5025</v>
       </c>
       <c r="E198" t="n">
-        <v>5020</v>
+        <v>5025</v>
       </c>
       <c r="F198" t="n">
-        <v>664.6191</v>
+        <v>18.3723</v>
       </c>
       <c r="G198" t="n">
-        <v>5009.783333333334</v>
+        <v>5009.133333333333</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7542,22 +7516,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>5025</v>
+      </c>
+      <c r="C199" t="n">
         <v>5020</v>
       </c>
-      <c r="C199" t="n">
-        <v>5015</v>
-      </c>
       <c r="D199" t="n">
+        <v>5025</v>
+      </c>
+      <c r="E199" t="n">
         <v>5020</v>
       </c>
-      <c r="E199" t="n">
-        <v>5010</v>
-      </c>
       <c r="F199" t="n">
-        <v>502.6186</v>
+        <v>664.6191</v>
       </c>
       <c r="G199" t="n">
-        <v>5010.433333333333</v>
+        <v>5009.783333333334</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7577,22 +7551,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
+        <v>5020</v>
+      </c>
+      <c r="C200" t="n">
         <v>5015</v>
       </c>
-      <c r="C200" t="n">
-        <v>5000</v>
-      </c>
       <c r="D200" t="n">
-        <v>5015</v>
+        <v>5020</v>
       </c>
       <c r="E200" t="n">
-        <v>5000</v>
+        <v>5010</v>
       </c>
       <c r="F200" t="n">
-        <v>346.0794</v>
+        <v>502.6186</v>
       </c>
       <c r="G200" t="n">
-        <v>5010.833333333333</v>
+        <v>5010.433333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7615,19 +7589,19 @@
         <v>5015</v>
       </c>
       <c r="C201" t="n">
-        <v>5020</v>
+        <v>5000</v>
       </c>
       <c r="D201" t="n">
-        <v>5020</v>
+        <v>5015</v>
       </c>
       <c r="E201" t="n">
-        <v>5015</v>
+        <v>5000</v>
       </c>
       <c r="F201" t="n">
-        <v>209.3583161354582</v>
+        <v>346.0794</v>
       </c>
       <c r="G201" t="n">
-        <v>5011.416666666667</v>
+        <v>5010.833333333333</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7647,22 +7621,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>5010</v>
+        <v>5015</v>
       </c>
       <c r="C202" t="n">
-        <v>5010</v>
+        <v>5020</v>
       </c>
       <c r="D202" t="n">
-        <v>5010</v>
+        <v>5020</v>
       </c>
       <c r="E202" t="n">
-        <v>5010</v>
+        <v>5015</v>
       </c>
       <c r="F202" t="n">
-        <v>300.2991</v>
+        <v>209.3583161354582</v>
       </c>
       <c r="G202" t="n">
-        <v>5011.783333333334</v>
+        <v>5011.416666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7694,10 +7668,10 @@
         <v>5010</v>
       </c>
       <c r="F203" t="n">
-        <v>13.304</v>
+        <v>300.2991</v>
       </c>
       <c r="G203" t="n">
-        <v>5012.083333333333</v>
+        <v>5011.783333333334</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7729,10 +7703,10 @@
         <v>5010</v>
       </c>
       <c r="F204" t="n">
-        <v>60.9901</v>
+        <v>13.304</v>
       </c>
       <c r="G204" t="n">
-        <v>5012.316666666667</v>
+        <v>5012.083333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7752,22 +7726,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="C205" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="D205" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="E205" t="n">
-        <v>5005</v>
+        <v>5010</v>
       </c>
       <c r="F205" t="n">
-        <v>537.9668</v>
+        <v>60.9901</v>
       </c>
       <c r="G205" t="n">
-        <v>5012.416666666667</v>
+        <v>5012.316666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7799,10 +7773,10 @@
         <v>5005</v>
       </c>
       <c r="F206" t="n">
-        <v>20.1871</v>
+        <v>537.9668</v>
       </c>
       <c r="G206" t="n">
-        <v>5012.333333333333</v>
+        <v>5012.416666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7822,7 +7796,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5000</v>
+        <v>5005</v>
       </c>
       <c r="C207" t="n">
         <v>5005</v>
@@ -7831,10 +7805,10 @@
         <v>5005</v>
       </c>
       <c r="E207" t="n">
-        <v>5000</v>
+        <v>5005</v>
       </c>
       <c r="F207" t="n">
-        <v>28.5692</v>
+        <v>20.1871</v>
       </c>
       <c r="G207" t="n">
         <v>5012.333333333333</v>
@@ -7857,22 +7831,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C208" t="n">
         <v>5005</v>
       </c>
-      <c r="C208" t="n">
-        <v>5010</v>
-      </c>
       <c r="D208" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="E208" t="n">
-        <v>5005</v>
+        <v>5000</v>
       </c>
       <c r="F208" t="n">
-        <v>231.0888</v>
+        <v>28.5692</v>
       </c>
       <c r="G208" t="n">
-        <v>5012.5</v>
+        <v>5012.333333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7892,19 +7866,19 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>5000</v>
+        <v>5005</v>
       </c>
       <c r="C209" t="n">
-        <v>5000</v>
+        <v>5010</v>
       </c>
       <c r="D209" t="n">
-        <v>5000</v>
+        <v>5010</v>
       </c>
       <c r="E209" t="n">
-        <v>5000</v>
+        <v>5005</v>
       </c>
       <c r="F209" t="n">
-        <v>40.2121</v>
+        <v>231.0888</v>
       </c>
       <c r="G209" t="n">
         <v>5012.5</v>
@@ -7936,13 +7910,13 @@
         <v>5000</v>
       </c>
       <c r="E210" t="n">
-        <v>4995</v>
+        <v>5000</v>
       </c>
       <c r="F210" t="n">
-        <v>33.9061</v>
+        <v>40.2121</v>
       </c>
       <c r="G210" t="n">
-        <v>5012.533333333334</v>
+        <v>5012.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7962,22 +7936,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>4982</v>
+        <v>5000</v>
       </c>
       <c r="C211" t="n">
-        <v>4992</v>
+        <v>5000</v>
       </c>
       <c r="D211" t="n">
-        <v>4992</v>
+        <v>5000</v>
       </c>
       <c r="E211" t="n">
-        <v>4982</v>
+        <v>4995</v>
       </c>
       <c r="F211" t="n">
-        <v>104.75</v>
+        <v>33.9061</v>
       </c>
       <c r="G211" t="n">
-        <v>5012.466666666666</v>
+        <v>5012.533333333334</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7997,22 +7971,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>4983</v>
+        <v>4982</v>
       </c>
       <c r="C212" t="n">
-        <v>4996</v>
+        <v>4992</v>
       </c>
       <c r="D212" t="n">
-        <v>4996</v>
+        <v>4992</v>
       </c>
       <c r="E212" t="n">
-        <v>4983</v>
+        <v>4982</v>
       </c>
       <c r="F212" t="n">
-        <v>2.200360128102482</v>
+        <v>104.75</v>
       </c>
       <c r="G212" t="n">
-        <v>5012.316666666667</v>
+        <v>5012.466666666666</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8032,22 +8006,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>4990</v>
+        <v>4983</v>
       </c>
       <c r="C213" t="n">
-        <v>4990</v>
+        <v>4996</v>
       </c>
       <c r="D213" t="n">
-        <v>4990</v>
+        <v>4996</v>
       </c>
       <c r="E213" t="n">
-        <v>4990</v>
+        <v>4983</v>
       </c>
       <c r="F213" t="n">
-        <v>1.4752</v>
+        <v>2.200360128102482</v>
       </c>
       <c r="G213" t="n">
-        <v>5012.15</v>
+        <v>5012.316666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8079,10 +8053,10 @@
         <v>4990</v>
       </c>
       <c r="F214" t="n">
-        <v>19.5924</v>
+        <v>1.4752</v>
       </c>
       <c r="G214" t="n">
-        <v>5011.9</v>
+        <v>5012.15</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8102,22 +8076,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>5005</v>
+        <v>4990</v>
       </c>
       <c r="C215" t="n">
-        <v>5005</v>
+        <v>4990</v>
       </c>
       <c r="D215" t="n">
-        <v>5005</v>
+        <v>4990</v>
       </c>
       <c r="E215" t="n">
-        <v>5005</v>
+        <v>4990</v>
       </c>
       <c r="F215" t="n">
-        <v>11</v>
+        <v>19.5924</v>
       </c>
       <c r="G215" t="n">
-        <v>5012.066666666667</v>
+        <v>5011.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8137,22 +8111,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>4990</v>
+        <v>5005</v>
       </c>
       <c r="C216" t="n">
-        <v>4990</v>
+        <v>5005</v>
       </c>
       <c r="D216" t="n">
-        <v>4990</v>
+        <v>5005</v>
       </c>
       <c r="E216" t="n">
-        <v>4990</v>
+        <v>5005</v>
       </c>
       <c r="F216" t="n">
-        <v>13.4512</v>
+        <v>11</v>
       </c>
       <c r="G216" t="n">
-        <v>5011.983333333334</v>
+        <v>5012.066666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8184,10 +8158,10 @@
         <v>4990</v>
       </c>
       <c r="F217" t="n">
-        <v>187.2488</v>
+        <v>13.4512</v>
       </c>
       <c r="G217" t="n">
-        <v>5011.816666666667</v>
+        <v>5011.983333333334</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8207,22 +8181,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>4983</v>
+        <v>4990</v>
       </c>
       <c r="C218" t="n">
-        <v>4987</v>
+        <v>4990</v>
       </c>
       <c r="D218" t="n">
-        <v>4993</v>
+        <v>4990</v>
       </c>
       <c r="E218" t="n">
-        <v>4975</v>
+        <v>4990</v>
       </c>
       <c r="F218" t="n">
-        <v>1151.3318</v>
+        <v>187.2488</v>
       </c>
       <c r="G218" t="n">
-        <v>5011.516666666666</v>
+        <v>5011.816666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8242,22 +8216,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>4991</v>
+        <v>4983</v>
       </c>
       <c r="C219" t="n">
-        <v>4990</v>
+        <v>4987</v>
       </c>
       <c r="D219" t="n">
-        <v>5000</v>
+        <v>4993</v>
       </c>
       <c r="E219" t="n">
-        <v>4990</v>
+        <v>4975</v>
       </c>
       <c r="F219" t="n">
-        <v>333.3545</v>
+        <v>1151.3318</v>
       </c>
       <c r="G219" t="n">
-        <v>5011.35</v>
+        <v>5011.516666666666</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8277,22 +8251,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>5005</v>
+        <v>4991</v>
       </c>
       <c r="C220" t="n">
-        <v>4992</v>
+        <v>4990</v>
       </c>
       <c r="D220" t="n">
-        <v>5005</v>
+        <v>5000</v>
       </c>
       <c r="E220" t="n">
-        <v>4992</v>
+        <v>4990</v>
       </c>
       <c r="F220" t="n">
-        <v>18.0299</v>
+        <v>333.3545</v>
       </c>
       <c r="G220" t="n">
-        <v>5011.216666666666</v>
+        <v>5011.35</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8312,22 +8286,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>5000</v>
+        <v>5005</v>
       </c>
       <c r="C221" t="n">
-        <v>4986</v>
+        <v>4992</v>
       </c>
       <c r="D221" t="n">
-        <v>5010</v>
+        <v>5005</v>
       </c>
       <c r="E221" t="n">
-        <v>4986</v>
+        <v>4992</v>
       </c>
       <c r="F221" t="n">
-        <v>895.8305</v>
+        <v>18.0299</v>
       </c>
       <c r="G221" t="n">
-        <v>5011.016666666666</v>
+        <v>5011.216666666666</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8347,22 +8321,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>4994</v>
+        <v>5000</v>
       </c>
       <c r="C222" t="n">
-        <v>4994</v>
+        <v>4986</v>
       </c>
       <c r="D222" t="n">
-        <v>4994</v>
+        <v>5010</v>
       </c>
       <c r="E222" t="n">
-        <v>4994</v>
+        <v>4986</v>
       </c>
       <c r="F222" t="n">
-        <v>34.2192</v>
+        <v>895.8305</v>
       </c>
       <c r="G222" t="n">
-        <v>5011.083333333333</v>
+        <v>5011.016666666666</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8382,22 +8356,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>5000</v>
+        <v>4994</v>
       </c>
       <c r="C223" t="n">
-        <v>5000</v>
+        <v>4994</v>
       </c>
       <c r="D223" t="n">
-        <v>5000</v>
+        <v>4994</v>
       </c>
       <c r="E223" t="n">
-        <v>5000</v>
+        <v>4994</v>
       </c>
       <c r="F223" t="n">
-        <v>5.6923</v>
+        <v>34.2192</v>
       </c>
       <c r="G223" t="n">
-        <v>5011.316666666667</v>
+        <v>5011.083333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8429,10 +8403,10 @@
         <v>5000</v>
       </c>
       <c r="F224" t="n">
-        <v>0.66</v>
+        <v>5.6923</v>
       </c>
       <c r="G224" t="n">
-        <v>5011.516666666666</v>
+        <v>5011.316666666667</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8452,22 +8426,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>4985</v>
+        <v>5000</v>
       </c>
       <c r="C225" t="n">
-        <v>4981</v>
+        <v>5000</v>
       </c>
       <c r="D225" t="n">
-        <v>4985</v>
+        <v>5000</v>
       </c>
       <c r="E225" t="n">
-        <v>4980</v>
+        <v>5000</v>
       </c>
       <c r="F225" t="n">
-        <v>155.6519</v>
+        <v>0.66</v>
       </c>
       <c r="G225" t="n">
-        <v>5011.416666666667</v>
+        <v>5011.516666666666</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8487,22 +8461,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>4984</v>
+        <v>4985</v>
       </c>
       <c r="C226" t="n">
-        <v>4985</v>
+        <v>4981</v>
       </c>
       <c r="D226" t="n">
         <v>4985</v>
       </c>
       <c r="E226" t="n">
-        <v>4984</v>
+        <v>4980</v>
       </c>
       <c r="F226" t="n">
-        <v>70.13</v>
+        <v>155.6519</v>
       </c>
       <c r="G226" t="n">
-        <v>5011.55</v>
+        <v>5011.416666666667</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8522,22 +8496,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>4977</v>
+        <v>4984</v>
       </c>
       <c r="C227" t="n">
-        <v>4982</v>
+        <v>4985</v>
       </c>
       <c r="D227" t="n">
-        <v>4982</v>
+        <v>4985</v>
       </c>
       <c r="E227" t="n">
-        <v>4970</v>
+        <v>4984</v>
       </c>
       <c r="F227" t="n">
-        <v>548.0127</v>
+        <v>70.13</v>
       </c>
       <c r="G227" t="n">
-        <v>5011.416666666667</v>
+        <v>5011.55</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8557,22 +8531,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>4975</v>
+        <v>4977</v>
       </c>
       <c r="C228" t="n">
-        <v>4973</v>
+        <v>4982</v>
       </c>
       <c r="D228" t="n">
-        <v>4975</v>
+        <v>4982</v>
       </c>
       <c r="E228" t="n">
-        <v>4965</v>
+        <v>4970</v>
       </c>
       <c r="F228" t="n">
-        <v>620.5185</v>
+        <v>548.0127</v>
       </c>
       <c r="G228" t="n">
-        <v>5011.15</v>
+        <v>5011.416666666667</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8592,22 +8566,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>4969</v>
+        <v>4975</v>
       </c>
       <c r="C229" t="n">
-        <v>4969</v>
+        <v>4973</v>
       </c>
       <c r="D229" t="n">
-        <v>4969</v>
+        <v>4975</v>
       </c>
       <c r="E229" t="n">
-        <v>4969</v>
+        <v>4965</v>
       </c>
       <c r="F229" t="n">
-        <v>39.8098</v>
+        <v>620.5185</v>
       </c>
       <c r="G229" t="n">
-        <v>5011.016666666666</v>
+        <v>5011.15</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8627,22 +8601,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>4962</v>
+        <v>4969</v>
       </c>
       <c r="C230" t="n">
-        <v>4962</v>
+        <v>4969</v>
       </c>
       <c r="D230" t="n">
-        <v>4962</v>
+        <v>4969</v>
       </c>
       <c r="E230" t="n">
-        <v>4962</v>
+        <v>4969</v>
       </c>
       <c r="F230" t="n">
-        <v>8.325900000000001</v>
+        <v>39.8098</v>
       </c>
       <c r="G230" t="n">
-        <v>5010.466666666666</v>
+        <v>5011.016666666666</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8662,22 +8636,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>4950</v>
+        <v>4962</v>
       </c>
       <c r="C231" t="n">
-        <v>4950</v>
+        <v>4962</v>
       </c>
       <c r="D231" t="n">
-        <v>4950</v>
+        <v>4962</v>
       </c>
       <c r="E231" t="n">
-        <v>4950</v>
+        <v>4962</v>
       </c>
       <c r="F231" t="n">
-        <v>39.7103</v>
+        <v>8.325900000000001</v>
       </c>
       <c r="G231" t="n">
-        <v>5009.916666666667</v>
+        <v>5010.466666666666</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8697,22 +8671,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>4960</v>
+        <v>4950</v>
       </c>
       <c r="C232" t="n">
-        <v>4960</v>
+        <v>4950</v>
       </c>
       <c r="D232" t="n">
-        <v>4960</v>
+        <v>4950</v>
       </c>
       <c r="E232" t="n">
-        <v>4960</v>
+        <v>4950</v>
       </c>
       <c r="F232" t="n">
-        <v>14.0343</v>
+        <v>39.7103</v>
       </c>
       <c r="G232" t="n">
-        <v>5009.316666666667</v>
+        <v>5009.916666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8732,22 +8706,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>4962</v>
+        <v>4960</v>
       </c>
       <c r="C233" t="n">
-        <v>4962</v>
+        <v>4960</v>
       </c>
       <c r="D233" t="n">
-        <v>4962</v>
+        <v>4960</v>
       </c>
       <c r="E233" t="n">
-        <v>4962</v>
+        <v>4960</v>
       </c>
       <c r="F233" t="n">
-        <v>91.66370000000001</v>
+        <v>14.0343</v>
       </c>
       <c r="G233" t="n">
-        <v>5008.516666666666</v>
+        <v>5009.316666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8767,22 +8741,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>4975</v>
+        <v>4962</v>
       </c>
       <c r="C234" t="n">
-        <v>4975</v>
+        <v>4962</v>
       </c>
       <c r="D234" t="n">
-        <v>4975</v>
+        <v>4962</v>
       </c>
       <c r="E234" t="n">
-        <v>4975</v>
+        <v>4962</v>
       </c>
       <c r="F234" t="n">
-        <v>113.4444</v>
+        <v>91.66370000000001</v>
       </c>
       <c r="G234" t="n">
-        <v>5008.016666666666</v>
+        <v>5008.516666666666</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8814,10 +8788,10 @@
         <v>4975</v>
       </c>
       <c r="F235" t="n">
-        <v>2</v>
+        <v>113.4444</v>
       </c>
       <c r="G235" t="n">
-        <v>5007.433333333333</v>
+        <v>5008.016666666666</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8840,19 +8814,19 @@
         <v>4975</v>
       </c>
       <c r="C236" t="n">
-        <v>4969</v>
+        <v>4975</v>
       </c>
       <c r="D236" t="n">
-        <v>4985</v>
+        <v>4975</v>
       </c>
       <c r="E236" t="n">
-        <v>4969</v>
+        <v>4975</v>
       </c>
       <c r="F236" t="n">
-        <v>2107.100611033099</v>
+        <v>2</v>
       </c>
       <c r="G236" t="n">
-        <v>5006.583333333333</v>
+        <v>5007.433333333333</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8872,22 +8846,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>4969</v>
+        <v>4975</v>
       </c>
       <c r="C237" t="n">
         <v>4969</v>
       </c>
       <c r="D237" t="n">
-        <v>4969</v>
+        <v>4985</v>
       </c>
       <c r="E237" t="n">
         <v>4969</v>
       </c>
       <c r="F237" t="n">
-        <v>34.67</v>
+        <v>2107.100611033099</v>
       </c>
       <c r="G237" t="n">
-        <v>5005.483333333334</v>
+        <v>5006.583333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8919,10 +8893,10 @@
         <v>4969</v>
       </c>
       <c r="F238" t="n">
-        <v>113.2102</v>
+        <v>34.67</v>
       </c>
       <c r="G238" t="n">
-        <v>5004.55</v>
+        <v>5005.483333333334</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8942,22 +8916,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>4966</v>
+        <v>4969</v>
       </c>
       <c r="C239" t="n">
-        <v>4966</v>
+        <v>4969</v>
       </c>
       <c r="D239" t="n">
-        <v>4966</v>
+        <v>4969</v>
       </c>
       <c r="E239" t="n">
-        <v>4966</v>
+        <v>4969</v>
       </c>
       <c r="F239" t="n">
-        <v>45.4864</v>
+        <v>113.2102</v>
       </c>
       <c r="G239" t="n">
-        <v>5003.483333333334</v>
+        <v>5004.55</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8989,10 +8963,10 @@
         <v>4966</v>
       </c>
       <c r="F240" t="n">
-        <v>50.678</v>
+        <v>45.4864</v>
       </c>
       <c r="G240" t="n">
-        <v>5002.583333333333</v>
+        <v>5003.483333333334</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9012,22 +8986,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>4976</v>
+        <v>4966</v>
       </c>
       <c r="C241" t="n">
-        <v>4970</v>
+        <v>4966</v>
       </c>
       <c r="D241" t="n">
-        <v>4976</v>
+        <v>4966</v>
       </c>
       <c r="E241" t="n">
-        <v>4970</v>
+        <v>4966</v>
       </c>
       <c r="F241" t="n">
-        <v>115.9079</v>
+        <v>50.678</v>
       </c>
       <c r="G241" t="n">
-        <v>5001.833333333333</v>
+        <v>5002.583333333333</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9047,22 +9021,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>4970</v>
+        <v>4976</v>
       </c>
       <c r="C242" t="n">
         <v>4970</v>
       </c>
       <c r="D242" t="n">
-        <v>4970</v>
+        <v>4976</v>
       </c>
       <c r="E242" t="n">
         <v>4970</v>
       </c>
       <c r="F242" t="n">
-        <v>64.6176</v>
+        <v>115.9079</v>
       </c>
       <c r="G242" t="n">
-        <v>5001.166666666667</v>
+        <v>5001.833333333333</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9082,22 +9056,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>4971</v>
+        <v>4970</v>
       </c>
       <c r="C243" t="n">
-        <v>4971</v>
+        <v>4970</v>
       </c>
       <c r="D243" t="n">
-        <v>4971</v>
+        <v>4970</v>
       </c>
       <c r="E243" t="n">
-        <v>4971</v>
+        <v>4970</v>
       </c>
       <c r="F243" t="n">
-        <v>16.8508</v>
+        <v>64.6176</v>
       </c>
       <c r="G243" t="n">
-        <v>5000.433333333333</v>
+        <v>5001.166666666667</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9117,22 +9091,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>4970</v>
+        <v>4971</v>
       </c>
       <c r="C244" t="n">
-        <v>4970</v>
+        <v>4971</v>
       </c>
       <c r="D244" t="n">
-        <v>4970</v>
+        <v>4971</v>
       </c>
       <c r="E244" t="n">
-        <v>4970</v>
+        <v>4971</v>
       </c>
       <c r="F244" t="n">
-        <v>5.1007</v>
+        <v>16.8508</v>
       </c>
       <c r="G244" t="n">
-        <v>4999.183333333333</v>
+        <v>5000.433333333333</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9152,22 +9126,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>4981</v>
+        <v>4970</v>
       </c>
       <c r="C245" t="n">
-        <v>4988</v>
+        <v>4970</v>
       </c>
       <c r="D245" t="n">
-        <v>4988</v>
+        <v>4970</v>
       </c>
       <c r="E245" t="n">
-        <v>4981</v>
+        <v>4970</v>
       </c>
       <c r="F245" t="n">
-        <v>182.0707</v>
+        <v>5.1007</v>
       </c>
       <c r="G245" t="n">
-        <v>4998.316666666667</v>
+        <v>4999.183333333333</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9187,22 +9161,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>4989</v>
+        <v>4981</v>
       </c>
       <c r="C246" t="n">
-        <v>4979</v>
+        <v>4988</v>
       </c>
       <c r="D246" t="n">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="E246" t="n">
-        <v>4979</v>
+        <v>4981</v>
       </c>
       <c r="F246" t="n">
-        <v>201.0704</v>
+        <v>182.0707</v>
       </c>
       <c r="G246" t="n">
-        <v>4997.3</v>
+        <v>4998.316666666667</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9222,22 +9196,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>4981</v>
+        <v>4989</v>
       </c>
       <c r="C247" t="n">
-        <v>4981</v>
+        <v>4979</v>
       </c>
       <c r="D247" t="n">
-        <v>4981</v>
+        <v>4989</v>
       </c>
       <c r="E247" t="n">
-        <v>4981</v>
+        <v>4979</v>
       </c>
       <c r="F247" t="n">
-        <v>46.4023</v>
+        <v>201.0704</v>
       </c>
       <c r="G247" t="n">
-        <v>4996.15</v>
+        <v>4997.3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9257,22 +9231,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>4991</v>
+        <v>4981</v>
       </c>
       <c r="C248" t="n">
-        <v>5000</v>
+        <v>4981</v>
       </c>
       <c r="D248" t="n">
-        <v>5000</v>
+        <v>4981</v>
       </c>
       <c r="E248" t="n">
-        <v>4991</v>
+        <v>4981</v>
       </c>
       <c r="F248" t="n">
-        <v>109.2012</v>
+        <v>46.4023</v>
       </c>
       <c r="G248" t="n">
-        <v>4995.066666666667</v>
+        <v>4996.15</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9292,7 +9266,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>5000</v>
+        <v>4991</v>
       </c>
       <c r="C249" t="n">
         <v>5000</v>
@@ -9301,13 +9275,13 @@
         <v>5000</v>
       </c>
       <c r="E249" t="n">
-        <v>5000</v>
+        <v>4991</v>
       </c>
       <c r="F249" t="n">
-        <v>2.0002</v>
+        <v>109.2012</v>
       </c>
       <c r="G249" t="n">
-        <v>4994.15</v>
+        <v>4995.066666666667</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9327,22 +9301,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>4996</v>
+        <v>5000</v>
       </c>
       <c r="C250" t="n">
-        <v>4996</v>
+        <v>5000</v>
       </c>
       <c r="D250" t="n">
-        <v>4996</v>
+        <v>5000</v>
       </c>
       <c r="E250" t="n">
-        <v>4996</v>
+        <v>5000</v>
       </c>
       <c r="F250" t="n">
-        <v>12.6738</v>
+        <v>2.0002</v>
       </c>
       <c r="G250" t="n">
-        <v>4993.25</v>
+        <v>4994.15</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9362,22 +9336,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>4999</v>
+        <v>4996</v>
       </c>
       <c r="C251" t="n">
-        <v>4999</v>
+        <v>4996</v>
       </c>
       <c r="D251" t="n">
-        <v>4999</v>
+        <v>4996</v>
       </c>
       <c r="E251" t="n">
-        <v>4999</v>
+        <v>4996</v>
       </c>
       <c r="F251" t="n">
-        <v>4.7715</v>
+        <v>12.6738</v>
       </c>
       <c r="G251" t="n">
-        <v>4992.4</v>
+        <v>4993.25</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9397,22 +9371,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>4988</v>
+        <v>4999</v>
       </c>
       <c r="C252" t="n">
-        <v>4980</v>
+        <v>4999</v>
       </c>
       <c r="D252" t="n">
-        <v>4988</v>
+        <v>4999</v>
       </c>
       <c r="E252" t="n">
-        <v>4980</v>
+        <v>4999</v>
       </c>
       <c r="F252" t="n">
-        <v>55.7872</v>
+        <v>4.7715</v>
       </c>
       <c r="G252" t="n">
-        <v>4991.316666666667</v>
+        <v>4992.4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9432,22 +9406,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>4978</v>
+        <v>4988</v>
       </c>
       <c r="C253" t="n">
-        <v>4978</v>
+        <v>4980</v>
       </c>
       <c r="D253" t="n">
-        <v>4978</v>
+        <v>4988</v>
       </c>
       <c r="E253" t="n">
-        <v>4978</v>
+        <v>4980</v>
       </c>
       <c r="F253" t="n">
-        <v>22.7222</v>
+        <v>55.7872</v>
       </c>
       <c r="G253" t="n">
-        <v>4990.366666666667</v>
+        <v>4991.316666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9467,22 +9441,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>4987</v>
+        <v>4978</v>
       </c>
       <c r="C254" t="n">
-        <v>4987</v>
+        <v>4978</v>
       </c>
       <c r="D254" t="n">
-        <v>4987</v>
+        <v>4978</v>
       </c>
       <c r="E254" t="n">
-        <v>4987</v>
+        <v>4978</v>
       </c>
       <c r="F254" t="n">
-        <v>100.2337</v>
+        <v>22.7222</v>
       </c>
       <c r="G254" t="n">
-        <v>4989.65</v>
+        <v>4990.366666666667</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9502,22 +9476,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>4993</v>
+        <v>4987</v>
       </c>
       <c r="C255" t="n">
-        <v>4985</v>
+        <v>4987</v>
       </c>
       <c r="D255" t="n">
-        <v>4993</v>
+        <v>4987</v>
       </c>
       <c r="E255" t="n">
-        <v>4985</v>
+        <v>4987</v>
       </c>
       <c r="F255" t="n">
-        <v>38.4306</v>
+        <v>100.2337</v>
       </c>
       <c r="G255" t="n">
-        <v>4988.816666666667</v>
+        <v>4989.65</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9537,22 +9511,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>4987</v>
+        <v>4993</v>
       </c>
       <c r="C256" t="n">
-        <v>4980</v>
+        <v>4985</v>
       </c>
       <c r="D256" t="n">
-        <v>4987</v>
+        <v>4993</v>
       </c>
       <c r="E256" t="n">
-        <v>4980</v>
+        <v>4985</v>
       </c>
       <c r="F256" t="n">
-        <v>500.745</v>
+        <v>38.4306</v>
       </c>
       <c r="G256" t="n">
-        <v>4988.066666666667</v>
+        <v>4988.816666666667</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9575,19 +9549,19 @@
         <v>4987</v>
       </c>
       <c r="C257" t="n">
-        <v>4987</v>
+        <v>4980</v>
       </c>
       <c r="D257" t="n">
         <v>4987</v>
       </c>
       <c r="E257" t="n">
-        <v>4987</v>
+        <v>4980</v>
       </c>
       <c r="F257" t="n">
-        <v>30.2349</v>
+        <v>500.745</v>
       </c>
       <c r="G257" t="n">
-        <v>4987.433333333333</v>
+        <v>4988.066666666667</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9610,19 +9584,19 @@
         <v>4987</v>
       </c>
       <c r="C258" t="n">
-        <v>4980</v>
+        <v>4987</v>
       </c>
       <c r="D258" t="n">
         <v>4987</v>
       </c>
       <c r="E258" t="n">
-        <v>4980</v>
+        <v>4987</v>
       </c>
       <c r="F258" t="n">
-        <v>149.5062</v>
+        <v>30.2349</v>
       </c>
       <c r="G258" t="n">
-        <v>4986.766666666666</v>
+        <v>4987.433333333333</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9642,22 +9616,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>4986</v>
+        <v>4987</v>
       </c>
       <c r="C259" t="n">
-        <v>4986</v>
+        <v>4980</v>
       </c>
       <c r="D259" t="n">
-        <v>4986</v>
+        <v>4987</v>
       </c>
       <c r="E259" t="n">
-        <v>4986</v>
+        <v>4980</v>
       </c>
       <c r="F259" t="n">
-        <v>57.83</v>
+        <v>149.5062</v>
       </c>
       <c r="G259" t="n">
-        <v>4986.283333333334</v>
+        <v>4986.766666666666</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9677,22 +9651,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>4988</v>
+        <v>4986</v>
       </c>
       <c r="C260" t="n">
-        <v>4989</v>
+        <v>4986</v>
       </c>
       <c r="D260" t="n">
-        <v>4989</v>
+        <v>4986</v>
       </c>
       <c r="E260" t="n">
-        <v>4988</v>
+        <v>4986</v>
       </c>
       <c r="F260" t="n">
-        <v>106.3577</v>
+        <v>57.83</v>
       </c>
       <c r="G260" t="n">
-        <v>4986.1</v>
+        <v>4986.283333333334</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9712,22 +9686,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>5005</v>
+        <v>4988</v>
       </c>
       <c r="C261" t="n">
-        <v>5005</v>
+        <v>4989</v>
       </c>
       <c r="D261" t="n">
-        <v>5005</v>
+        <v>4989</v>
       </c>
       <c r="E261" t="n">
-        <v>5005</v>
+        <v>4988</v>
       </c>
       <c r="F261" t="n">
-        <v>73.0133</v>
+        <v>106.3577</v>
       </c>
       <c r="G261" t="n">
-        <v>4985.85</v>
+        <v>4986.1</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9747,22 +9721,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>4995</v>
+        <v>5005</v>
       </c>
       <c r="C262" t="n">
-        <v>4995</v>
+        <v>5005</v>
       </c>
       <c r="D262" t="n">
-        <v>4995</v>
+        <v>5005</v>
       </c>
       <c r="E262" t="n">
-        <v>4995</v>
+        <v>5005</v>
       </c>
       <c r="F262" t="n">
-        <v>10</v>
+        <v>73.0133</v>
       </c>
       <c r="G262" t="n">
-        <v>4985.6</v>
+        <v>4985.85</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9782,22 +9756,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>5005</v>
+        <v>4995</v>
       </c>
       <c r="C263" t="n">
-        <v>5005</v>
+        <v>4995</v>
       </c>
       <c r="D263" t="n">
-        <v>5005</v>
+        <v>4995</v>
       </c>
       <c r="E263" t="n">
-        <v>5005</v>
+        <v>4995</v>
       </c>
       <c r="F263" t="n">
-        <v>99.9000999000999</v>
+        <v>10</v>
       </c>
       <c r="G263" t="n">
-        <v>4985.516666666666</v>
+        <v>4985.6</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9817,22 +9791,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>4992</v>
+        <v>5005</v>
       </c>
       <c r="C264" t="n">
-        <v>4992</v>
+        <v>5005</v>
       </c>
       <c r="D264" t="n">
-        <v>4992</v>
+        <v>5005</v>
       </c>
       <c r="E264" t="n">
-        <v>4992</v>
+        <v>5005</v>
       </c>
       <c r="F264" t="n">
-        <v>8.497299999999999</v>
+        <v>99.9000999000999</v>
       </c>
       <c r="G264" t="n">
-        <v>4985.216666666666</v>
+        <v>4985.516666666666</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9864,10 +9838,10 @@
         <v>4992</v>
       </c>
       <c r="F265" t="n">
-        <v>392.4287</v>
+        <v>8.497299999999999</v>
       </c>
       <c r="G265" t="n">
-        <v>4985</v>
+        <v>4985.216666666666</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9890,19 +9864,19 @@
         <v>4992</v>
       </c>
       <c r="C266" t="n">
-        <v>4991</v>
+        <v>4992</v>
       </c>
       <c r="D266" t="n">
         <v>4992</v>
       </c>
       <c r="E266" t="n">
-        <v>4991</v>
+        <v>4992</v>
       </c>
       <c r="F266" t="n">
-        <v>66.7471</v>
+        <v>392.4287</v>
       </c>
       <c r="G266" t="n">
-        <v>4984.766666666666</v>
+        <v>4985</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9925,7 +9899,7 @@
         <v>4992</v>
       </c>
       <c r="C267" t="n">
-        <v>4992</v>
+        <v>4991</v>
       </c>
       <c r="D267" t="n">
         <v>4992</v>
@@ -9934,10 +9908,10 @@
         <v>4991</v>
       </c>
       <c r="F267" t="n">
-        <v>64.0543</v>
+        <v>66.7471</v>
       </c>
       <c r="G267" t="n">
-        <v>4984.55</v>
+        <v>4984.766666666666</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9957,22 +9931,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>4991</v>
+        <v>4992</v>
       </c>
       <c r="C268" t="n">
-        <v>4991</v>
+        <v>4992</v>
       </c>
       <c r="D268" t="n">
-        <v>4991</v>
+        <v>4992</v>
       </c>
       <c r="E268" t="n">
         <v>4991</v>
       </c>
       <c r="F268" t="n">
-        <v>6.1466</v>
+        <v>64.0543</v>
       </c>
       <c r="G268" t="n">
-        <v>4984.233333333334</v>
+        <v>4984.55</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9992,22 +9966,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>4992</v>
+        <v>4991</v>
       </c>
       <c r="C269" t="n">
-        <v>4992</v>
+        <v>4991</v>
       </c>
       <c r="D269" t="n">
-        <v>4992</v>
+        <v>4991</v>
       </c>
       <c r="E269" t="n">
-        <v>4992</v>
+        <v>4991</v>
       </c>
       <c r="F269" t="n">
-        <v>25.491</v>
+        <v>6.1466</v>
       </c>
       <c r="G269" t="n">
-        <v>4984.1</v>
+        <v>4984.233333333334</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10027,22 +10001,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="C270" t="n">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="D270" t="n">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="E270" t="n">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="F270" t="n">
-        <v>7.81</v>
+        <v>25.491</v>
       </c>
       <c r="G270" t="n">
-        <v>4984</v>
+        <v>4984.1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10062,22 +10036,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>4990</v>
+        <v>4994</v>
       </c>
       <c r="C271" t="n">
-        <v>4987</v>
+        <v>4994</v>
       </c>
       <c r="D271" t="n">
-        <v>4990</v>
+        <v>4994</v>
       </c>
       <c r="E271" t="n">
-        <v>4971</v>
+        <v>4994</v>
       </c>
       <c r="F271" t="n">
-        <v>682.9924999999999</v>
+        <v>7.81</v>
       </c>
       <c r="G271" t="n">
-        <v>4983.916666666667</v>
+        <v>4984</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10097,22 +10071,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>4986</v>
+        <v>4990</v>
       </c>
       <c r="C272" t="n">
-        <v>4981</v>
+        <v>4987</v>
       </c>
       <c r="D272" t="n">
-        <v>4986</v>
+        <v>4990</v>
       </c>
       <c r="E272" t="n">
-        <v>4981</v>
+        <v>4971</v>
       </c>
       <c r="F272" t="n">
-        <v>62.2194</v>
+        <v>682.9924999999999</v>
       </c>
       <c r="G272" t="n">
-        <v>4983.666666666667</v>
+        <v>4983.916666666667</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10132,22 +10106,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>4972</v>
+        <v>4986</v>
       </c>
       <c r="C273" t="n">
-        <v>4972</v>
+        <v>4981</v>
       </c>
       <c r="D273" t="n">
-        <v>4972</v>
+        <v>4986</v>
       </c>
       <c r="E273" t="n">
-        <v>4972</v>
+        <v>4981</v>
       </c>
       <c r="F273" t="n">
-        <v>152.6628</v>
+        <v>62.2194</v>
       </c>
       <c r="G273" t="n">
-        <v>4983.366666666667</v>
+        <v>4983.666666666667</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10167,22 +10141,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>4982</v>
+        <v>4972</v>
       </c>
       <c r="C274" t="n">
-        <v>4982</v>
+        <v>4972</v>
       </c>
       <c r="D274" t="n">
-        <v>4982</v>
+        <v>4972</v>
       </c>
       <c r="E274" t="n">
-        <v>4982</v>
+        <v>4972</v>
       </c>
       <c r="F274" t="n">
-        <v>97.59999999999999</v>
+        <v>152.6628</v>
       </c>
       <c r="G274" t="n">
-        <v>4983.233333333334</v>
+        <v>4983.366666666667</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10202,22 +10176,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>4981</v>
+        <v>4982</v>
       </c>
       <c r="C275" t="n">
-        <v>4981</v>
+        <v>4982</v>
       </c>
       <c r="D275" t="n">
-        <v>4981</v>
+        <v>4982</v>
       </c>
       <c r="E275" t="n">
-        <v>4981</v>
+        <v>4982</v>
       </c>
       <c r="F275" t="n">
-        <v>97.59990000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G275" t="n">
-        <v>4982.833333333333</v>
+        <v>4983.233333333334</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10237,22 +10211,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>4970</v>
+        <v>4981</v>
       </c>
       <c r="C276" t="n">
-        <v>4970</v>
+        <v>4981</v>
       </c>
       <c r="D276" t="n">
-        <v>4970</v>
+        <v>4981</v>
       </c>
       <c r="E276" t="n">
-        <v>4970</v>
+        <v>4981</v>
       </c>
       <c r="F276" t="n">
-        <v>8.491300000000001</v>
+        <v>97.59990000000001</v>
       </c>
       <c r="G276" t="n">
-        <v>4982.5</v>
+        <v>4982.833333333333</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10275,19 +10249,19 @@
         <v>4970</v>
       </c>
       <c r="C277" t="n">
-        <v>4952</v>
+        <v>4970</v>
       </c>
       <c r="D277" t="n">
         <v>4970</v>
       </c>
       <c r="E277" t="n">
-        <v>4952</v>
+        <v>4970</v>
       </c>
       <c r="F277" t="n">
-        <v>206.6088</v>
+        <v>8.491300000000001</v>
       </c>
       <c r="G277" t="n">
-        <v>4981.866666666667</v>
+        <v>4982.5</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10307,22 +10281,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>4951</v>
+        <v>4970</v>
       </c>
       <c r="C278" t="n">
-        <v>4947</v>
+        <v>4952</v>
       </c>
       <c r="D278" t="n">
-        <v>4955</v>
+        <v>4970</v>
       </c>
       <c r="E278" t="n">
-        <v>4947</v>
+        <v>4952</v>
       </c>
       <c r="F278" t="n">
-        <v>217.0868</v>
+        <v>206.6088</v>
       </c>
       <c r="G278" t="n">
-        <v>4981.2</v>
+        <v>4981.866666666667</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10342,38 +10316,32 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>4932</v>
+        <v>4951</v>
       </c>
       <c r="C279" t="n">
-        <v>4936</v>
+        <v>4947</v>
       </c>
       <c r="D279" t="n">
-        <v>4936</v>
+        <v>4955</v>
       </c>
       <c r="E279" t="n">
-        <v>4932</v>
+        <v>4947</v>
       </c>
       <c r="F279" t="n">
-        <v>29.9379</v>
+        <v>217.0868</v>
       </c>
       <c r="G279" t="n">
-        <v>4980.3</v>
+        <v>4981.2</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>4947</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10383,22 +10351,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>4930</v>
+        <v>4932</v>
       </c>
       <c r="C280" t="n">
-        <v>4930</v>
+        <v>4936</v>
       </c>
       <c r="D280" t="n">
-        <v>4930</v>
+        <v>4936</v>
       </c>
       <c r="E280" t="n">
-        <v>4930</v>
+        <v>4932</v>
       </c>
       <c r="F280" t="n">
-        <v>4.3</v>
+        <v>29.9379</v>
       </c>
       <c r="G280" t="n">
-        <v>4979.266666666666</v>
+        <v>4980.3</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10408,11 +10376,7 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10422,39 +10386,68 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
+        <v>4930</v>
+      </c>
+      <c r="C281" t="n">
+        <v>4930</v>
+      </c>
+      <c r="D281" t="n">
+        <v>4930</v>
+      </c>
+      <c r="E281" t="n">
+        <v>4930</v>
+      </c>
+      <c r="F281" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G281" t="n">
+        <v>4979.266666666666</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
         <v>4936</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C282" t="n">
         <v>4936</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D282" t="n">
         <v>4936</v>
       </c>
-      <c r="E281" t="n">
+      <c r="E282" t="n">
         <v>4936</v>
       </c>
-      <c r="F281" t="n">
+      <c r="F282" t="n">
         <v>4.5037</v>
       </c>
-      <c r="G281" t="n">
+      <c r="G282" t="n">
         <v>4978.433333333333</v>
       </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="n">
-        <v>4930</v>
-      </c>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M281" t="n">
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-24 BackTest ETC.xlsx
+++ b/BackTest/2019-10-24 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-20201.0793</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-20797.9419</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-20637.6585</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-20200.3313</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-20840.287</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-21054.7249</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-21572.4513</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-21572.4513</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-21444.45139435313</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-21264.92009435313</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-21248.41839435313</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-21109.25269435313</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-20804.71209435313</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-20828.74179435313</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-20953.00499435312</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-21897.95219435312</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-22088.33689435312</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-21830.69749435312</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-21430.04969435312</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-21530.32679435312</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-21530.32679435312</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-21650.76819435312</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-22318.41979435312</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-21972.57769435312</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-21910.31599435312</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-22197.33159435312</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2992,17 +2992,11 @@
         <v>-18816.94819752541</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3031,17 +3025,11 @@
         <v>-18747.45189752541</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>4966</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3070,17 +3058,11 @@
         <v>-18746.95179714396</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4972</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3109,17 +3091,11 @@
         <v>-19007.25939714396</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>4981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3148,17 +3124,11 @@
         <v>-19040.25939714396</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>4969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3187,17 +3157,11 @@
         <v>-19038.32479714396</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4966</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3226,17 +3190,11 @@
         <v>-19038.32479714396</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>4971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3265,17 +3223,11 @@
         <v>-19039.40349714395</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>4971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3304,17 +3256,11 @@
         <v>-19150.19329714395</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>4970</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3343,17 +3289,11 @@
         <v>-19230.91029714395</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>4962</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3382,17 +3322,11 @@
         <v>-19249.64099714395</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>4950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3421,17 +3355,11 @@
         <v>-19250.45989714395</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>4939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3460,17 +3388,11 @@
         <v>-19167.81509714395</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>4933</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3499,17 +3421,11 @@
         <v>-19578.63359714395</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>4939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3538,17 +3454,11 @@
         <v>-19959.39089714396</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>4930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3577,17 +3487,11 @@
         <v>-19937.32289714396</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>4925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3616,17 +3520,11 @@
         <v>-19937.32289714396</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>4942</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3659,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3696,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3733,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3770,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3803,17 +3685,11 @@
         <v>-20146.23999714396</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>4925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3842,17 +3718,11 @@
         <v>-20146.02004985022</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>4925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3881,17 +3751,11 @@
         <v>-20146.52704985022</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>4933</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3924,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3957,17 +3817,11 @@
         <v>-20475.13521608399</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>4930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3996,17 +3850,11 @@
         <v>-20253.29611608399</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>4910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4035,17 +3883,11 @@
         <v>-20498.73671608399</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>4925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4074,17 +3916,11 @@
         <v>-20406.97371608399</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>4918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4113,17 +3949,11 @@
         <v>-21611.89891608399</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>4920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4152,17 +3982,11 @@
         <v>-20537.07301608399</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>4850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4191,7 +4015,7 @@
         <v>-24103.50301608399</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>4870</v>
@@ -4199,7 +4023,7 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -4230,7 +4054,7 @@
         <v>-22274.79131608399</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>4790</v>
@@ -4269,7 +4093,7 @@
         <v>-23690.05621608399</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>4870</v>
@@ -4308,7 +4132,7 @@
         <v>-23029.87521608399</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>4850</v>
@@ -4347,7 +4171,7 @@
         <v>-21698.50491608399</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>4860</v>
@@ -4386,7 +4210,7 @@
         <v>-20942.69631608399</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>4861</v>
@@ -4425,7 +4249,7 @@
         <v>-20941.69631608399</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>4875</v>
@@ -4464,7 +4288,7 @@
         <v>-20941.69631608399</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>4888</v>
@@ -4503,7 +4327,7 @@
         <v>-20949.56571608399</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>4888</v>
@@ -4542,7 +4366,7 @@
         <v>-20949.56571608399</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>4879</v>
@@ -4581,7 +4405,7 @@
         <v>-20364.17281608399</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>4879</v>
@@ -4620,7 +4444,7 @@
         <v>-20903.07781608399</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>4892</v>
@@ -4659,7 +4483,7 @@
         <v>-20698.96621608399</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>4882</v>
@@ -4698,11 +4522,9 @@
         <v>-20792.62761608399</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>4896</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4737,11 +4559,9 @@
         <v>-20921.90991608399</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>4895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -4776,11 +4596,9 @@
         <v>-21144.31771608399</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>4891</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -4815,11 +4633,9 @@
         <v>-20613.95271608399</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>4889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -4854,11 +4670,9 @@
         <v>-20615.50681608399</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>4920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -4893,11 +4707,9 @@
         <v>-20615.50681608399</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>4919</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5080,11 +4892,9 @@
         <v>-20254.80371608399</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>4942</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5267,11 +5077,9 @@
         <v>-18987.03551608399</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>4950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5306,11 +5114,9 @@
         <v>-18802.74371608399</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>4945</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5345,11 +5151,9 @@
         <v>-19227.710716084</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>4954</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5384,11 +5188,9 @@
         <v>-19155.06371608399</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>4940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5423,11 +5225,9 @@
         <v>-19056.26371608399</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>4951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5462,11 +5262,9 @@
         <v>-19152.11871608399</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>4958</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5501,11 +5299,9 @@
         <v>-19052.41871608399</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>4951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5540,11 +5336,9 @@
         <v>-19053.27441608399</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>4959</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5690,11 +5484,9 @@
         <v>-18895.03509397364</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>4950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -5766,11 +5558,9 @@
         <v>-19004.02089397364</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>4965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -5805,11 +5595,9 @@
         <v>-19609.20499397364</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>4957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -5844,11 +5632,9 @@
         <v>-19604.96159397364</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>4948</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -5920,11 +5706,9 @@
         <v>-19752.01989397364</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>4940</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -5959,11 +5743,9 @@
         <v>-19752.01989397364</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>4955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -5998,11 +5780,9 @@
         <v>-19742.47799397364</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>4955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -6037,11 +5817,9 @@
         <v>-19643.07799397364</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>4958</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -6076,11 +5854,9 @@
         <v>-19742.82799397364</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>4965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -6115,11 +5891,9 @@
         <v>-19740.58749397364</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>4955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -6265,11 +6039,9 @@
         <v>-19792.02739397364</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>4988</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6378,16 +6150,18 @@
         <v>-19693.42009397364</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
       <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
@@ -6413,15 +6187,15 @@
         <v>-18021.58359397364</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>4987</v>
-      </c>
-      <c r="J168" t="n">
-        <v>4987</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6450,17 +6224,13 @@
         <v>-18021.58359397364</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>5010</v>
-      </c>
-      <c r="J169" t="n">
-        <v>4987</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L169" t="n">
@@ -6491,15 +6261,13 @@
         <v>-18021.58359397364</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>4987</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L170" t="n">
@@ -6530,11 +6298,15 @@
         <v>-17795.98059397364</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6563,11 +6335,15 @@
         <v>-17807.98059397364</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6596,11 +6372,15 @@
         <v>-17815.19379397364</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6629,11 +6409,15 @@
         <v>-17613.54899397364</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6662,11 +6446,15 @@
         <v>-17611.90419397364</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6695,11 +6483,15 @@
         <v>-17611.90419397364</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6728,11 +6520,15 @@
         <v>-17611.90419397364</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6765,7 +6561,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6794,11 +6594,15 @@
         <v>-18061.67489397364</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6827,11 +6631,15 @@
         <v>-17995.92129397364</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6860,11 +6668,15 @@
         <v>-17895.92129397364</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6893,11 +6705,15 @@
         <v>-17895.92129397364</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6926,11 +6742,15 @@
         <v>-17786.64929397364</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6959,11 +6779,15 @@
         <v>-17806.89059397364</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6992,11 +6816,15 @@
         <v>-17906.64059397364</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7025,11 +6853,15 @@
         <v>-17886.17409397364</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7058,11 +6890,15 @@
         <v>-17878.49089397365</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7091,11 +6927,15 @@
         <v>-17871.19189397365</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7128,7 +6968,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7161,7 +7005,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7194,7 +7042,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7223,11 +7075,15 @@
         <v>-17607.76469397365</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7256,11 +7112,15 @@
         <v>-17611.96749397365</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7293,7 +7153,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7326,7 +7190,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7359,7 +7227,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7392,7 +7264,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7425,7 +7301,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7454,11 +7334,15 @@
         <v>-17889.48669397365</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7491,7 +7375,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7524,7 +7412,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7557,7 +7449,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7590,7 +7486,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7623,7 +7523,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7656,7 +7560,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7689,7 +7597,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7722,7 +7634,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7755,7 +7671,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7788,7 +7708,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7821,7 +7745,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7854,7 +7782,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7887,7 +7819,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7920,7 +7856,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7953,7 +7893,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7986,7 +7930,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8019,7 +7967,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8052,7 +8004,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8085,7 +8041,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8118,7 +8078,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8151,7 +8115,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8184,7 +8152,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8217,7 +8189,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8250,7 +8226,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8283,7 +8263,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8316,7 +8300,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8349,7 +8337,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8382,7 +8374,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8415,7 +8411,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8448,7 +8448,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8481,7 +8485,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8514,7 +8522,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8547,7 +8559,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8580,7 +8596,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8613,7 +8633,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8646,7 +8670,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8679,7 +8707,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8712,7 +8744,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8745,7 +8781,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8778,7 +8818,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8811,7 +8855,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8844,7 +8892,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8877,7 +8929,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8910,7 +8966,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8943,7 +9003,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8976,7 +9040,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9009,7 +9077,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9042,7 +9114,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9075,7 +9151,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9104,11 +9184,15 @@
         <v>-18437.9409569846</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9137,11 +9221,15 @@
         <v>-18437.9409569846</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9170,11 +9258,15 @@
         <v>-18439.9409569846</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9203,11 +9295,15 @@
         <v>-18468.7593569846</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9236,11 +9332,15 @@
         <v>-18509.5604569846</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9269,11 +9369,15 @@
         <v>-18408.9016569846</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9306,7 +9410,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9339,7 +9447,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9372,7 +9484,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9405,7 +9521,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9438,7 +9558,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9471,7 +9595,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9504,7 +9632,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9537,7 +9669,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9570,7 +9706,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9603,7 +9743,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9636,7 +9780,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9669,7 +9817,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9702,7 +9854,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9735,7 +9891,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9768,7 +9928,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9801,7 +9965,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9834,7 +10002,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9867,7 +10039,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9900,7 +10076,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9933,7 +10113,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9966,7 +10150,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9999,7 +10187,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10032,7 +10224,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10065,7 +10261,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10098,7 +10298,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10131,7 +10335,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10164,7 +10372,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10197,7 +10409,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10230,7 +10446,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10263,7 +10483,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10296,7 +10520,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10329,7 +10557,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10362,7 +10594,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10395,7 +10631,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10428,7 +10668,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10461,7 +10705,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10494,7 +10742,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10527,7 +10779,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10560,7 +10816,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10593,7 +10853,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10626,7 +10890,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10659,7 +10927,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10692,7 +10964,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10725,7 +11001,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10758,7 +11038,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10791,7 +11075,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10824,7 +11112,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10857,7 +11149,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10890,7 +11186,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10923,7 +11223,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10956,7 +11260,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10989,7 +11297,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11022,7 +11334,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11055,7 +11371,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11088,7 +11408,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11121,7 +11445,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11154,7 +11482,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11187,7 +11519,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11220,7 +11556,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11253,7 +11593,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11286,7 +11630,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11319,7 +11667,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11352,7 +11704,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11385,7 +11741,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11418,7 +11778,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11451,7 +11815,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11484,7 +11852,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11517,7 +11889,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11550,7 +11926,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11583,7 +11963,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11616,7 +12000,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11649,7 +12037,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11682,7 +12074,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11715,7 +12111,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11748,7 +12148,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11781,7 +12185,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11814,7 +12222,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11847,7 +12259,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11880,7 +12296,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11913,7 +12333,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11946,7 +12370,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11979,7 +12407,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12012,7 +12444,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12041,11 +12477,17 @@
         <v>-26898.07829185404</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>4947</v>
+      </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12074,11 +12516,17 @@
         <v>-26902.37829185403</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>4936</v>
+      </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12107,15 +12555,17 @@
         <v>-26897.87459185403</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>4930</v>
       </c>
-      <c r="J340" t="n">
-        <v>4930</v>
-      </c>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12144,17 +12594,15 @@
         <v>-26833.96459185403</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>4936</v>
       </c>
-      <c r="J341" t="n">
-        <v>4930</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L341" t="n">
@@ -12185,17 +12633,15 @@
         <v>-26853.96459185403</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>4939</v>
       </c>
-      <c r="J342" t="n">
-        <v>4930</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L342" t="n">
@@ -12226,15 +12672,17 @@
         <v>-26961.33779185404</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>4935</v>
       </c>
-      <c r="J343" t="n">
-        <v>4935</v>
-      </c>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12263,17 +12711,15 @@
         <v>-26954.91559185403</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>4925</v>
       </c>
-      <c r="J344" t="n">
-        <v>4935</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L344" t="n">
@@ -12304,15 +12750,15 @@
         <v>-26856.71559185403</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
+        <v>1</v>
+      </c>
+      <c r="I345" t="n">
         <v>4935</v>
       </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L345" t="n">
@@ -12343,11 +12789,17 @@
         <v>-26126.38929185403</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I346" t="n">
+        <v>4940</v>
+      </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12376,11 +12828,17 @@
         <v>-26177.59349185403</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>4954</v>
+      </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12409,11 +12867,17 @@
         <v>-26175.92359185403</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I348" t="n">
+        <v>4952</v>
+      </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12442,11 +12906,17 @@
         <v>-26153.80869185403</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>4964</v>
+      </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12479,13 +12949,17 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
       <c r="M350" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest ETC.xlsx
+++ b/BackTest/2019-10-24 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-20201.0793</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-20797.9419</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-20637.6585</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-20200.3313</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-20840.287</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-21054.7249</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-21572.4513</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-21572.4513</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-21444.45139435313</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -4015,173 +4015,171 @@
         <v>-24103.50301608399</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4796</v>
+      </c>
+      <c r="C111" t="n">
         <v>4870</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
+      <c r="D111" t="n">
+        <v>4870</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4796</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1828.7117</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-22274.79131608399</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>4790</v>
+      </c>
+      <c r="J111" t="n">
+        <v>4790</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4870</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4850</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4870</v>
+      </c>
+      <c r="E112" t="n">
+        <v>4831</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1415.2649</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-23690.05621608399</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>4870</v>
+      </c>
+      <c r="J112" t="n">
+        <v>4790</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4849</v>
+      </c>
+      <c r="C113" t="n">
+        <v>4860</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4863</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4840</v>
+      </c>
+      <c r="F113" t="n">
+        <v>660.181</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-23029.87521608399</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>4850</v>
+      </c>
+      <c r="J113" t="n">
+        <v>4790</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4851</v>
+      </c>
+      <c r="C114" t="n">
+        <v>4861</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4868</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4842</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1331.3703</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-21698.50491608399</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>4860</v>
+      </c>
+      <c r="J114" t="n">
+        <v>4790</v>
+      </c>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>4796</v>
-      </c>
-      <c r="C111" t="n">
-        <v>4870</v>
-      </c>
-      <c r="D111" t="n">
-        <v>4870</v>
-      </c>
-      <c r="E111" t="n">
-        <v>4796</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1828.7117</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-22274.79131608399</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>4790</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>4870</v>
-      </c>
-      <c r="C112" t="n">
-        <v>4850</v>
-      </c>
-      <c r="D112" t="n">
-        <v>4870</v>
-      </c>
-      <c r="E112" t="n">
-        <v>4831</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1415.2649</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-23690.05621608399</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>4870</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>4849</v>
-      </c>
-      <c r="C113" t="n">
-        <v>4860</v>
-      </c>
-      <c r="D113" t="n">
-        <v>4863</v>
-      </c>
-      <c r="E113" t="n">
-        <v>4840</v>
-      </c>
-      <c r="F113" t="n">
-        <v>660.181</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-23029.87521608399</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>4850</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>4851</v>
-      </c>
-      <c r="C114" t="n">
-        <v>4861</v>
-      </c>
-      <c r="D114" t="n">
-        <v>4868</v>
-      </c>
-      <c r="E114" t="n">
-        <v>4842</v>
-      </c>
-      <c r="F114" t="n">
-        <v>1331.3703</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-21698.50491608399</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>4860</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4215,7 +4213,9 @@
       <c r="I115" t="n">
         <v>4861</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>4790</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4254,7 +4254,9 @@
       <c r="I116" t="n">
         <v>4875</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>4790</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4293,7 +4295,9 @@
       <c r="I117" t="n">
         <v>4888</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>4790</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4327,12 +4331,12 @@
         <v>-20949.56571608399</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>4888</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>4790</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4371,7 +4375,9 @@
       <c r="I119" t="n">
         <v>4879</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>4790</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4405,12 +4411,12 @@
         <v>-20364.17281608399</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>4879</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>4790</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4444,12 +4450,12 @@
         <v>-20903.07781608399</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>4892</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>4790</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4483,12 +4489,12 @@
         <v>-20698.96621608399</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>4882</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>4790</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4525,7 +4531,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>4790</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4562,7 +4570,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>4790</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4599,7 +4609,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>4790</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4636,7 +4648,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>4790</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4673,7 +4687,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>4790</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4710,7 +4726,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>4790</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4747,7 +4765,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>4790</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4784,7 +4804,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>4790</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4821,7 +4843,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>4790</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4858,7 +4882,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>4790</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4895,7 +4921,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>4790</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4932,7 +4960,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>4790</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4969,7 +4999,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>4790</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5006,7 +5038,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>4790</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5043,7 +5077,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>4790</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5080,7 +5116,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>4790</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5117,7 +5155,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>4790</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5154,7 +5194,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>4790</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5191,7 +5233,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>4790</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5228,7 +5272,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>4790</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5265,7 +5311,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>4790</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5302,7 +5350,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>4790</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5339,7 +5389,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>4790</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5376,7 +5428,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>4790</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5413,7 +5467,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>4790</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5450,7 +5506,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>4790</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5487,7 +5545,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>4790</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5524,7 +5584,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>4790</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5561,7 +5623,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>4790</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5598,7 +5662,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>4790</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5635,7 +5701,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>4790</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5672,7 +5740,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>4790</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5709,7 +5779,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>4790</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5746,7 +5818,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>4790</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5783,7 +5857,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>4790</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5820,7 +5896,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>4790</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5857,7 +5935,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>4790</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5891,17 +5971,19 @@
         <v>-19740.58749397364</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>4790</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>1</v>
+        <v>1.032369519832985</v>
       </c>
       <c r="M160" t="inlineStr"/>
     </row>
@@ -5928,15 +6010,11 @@
         <v>-19740.58749397364</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5965,15 +6043,11 @@
         <v>-19719.24429397364</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6002,15 +6076,11 @@
         <v>-19690.22739397364</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6039,15 +6109,11 @@
         <v>-19792.02739397364</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6076,15 +6142,11 @@
         <v>-19688.72739397364</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6113,15 +6175,11 @@
         <v>-19677.42009397364</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6150,15 +6208,11 @@
         <v>-19693.42009397364</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6187,15 +6241,11 @@
         <v>-18021.58359397364</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6224,15 +6274,11 @@
         <v>-18021.58359397364</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6261,15 +6307,11 @@
         <v>-18021.58359397364</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6298,15 +6340,11 @@
         <v>-17795.98059397364</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6335,15 +6373,11 @@
         <v>-17807.98059397364</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6372,15 +6406,11 @@
         <v>-17815.19379397364</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6409,15 +6439,11 @@
         <v>-17613.54899397364</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6446,15 +6472,11 @@
         <v>-17611.90419397364</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6483,15 +6505,11 @@
         <v>-17611.90419397364</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6520,15 +6538,11 @@
         <v>-17611.90419397364</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6557,15 +6571,11 @@
         <v>-18110.11889397364</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6594,15 +6604,11 @@
         <v>-18061.67489397364</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6631,15 +6637,11 @@
         <v>-17995.92129397364</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6668,15 +6670,11 @@
         <v>-17895.92129397364</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6705,15 +6703,11 @@
         <v>-17895.92129397364</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6742,15 +6736,11 @@
         <v>-17786.64929397364</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6779,15 +6769,11 @@
         <v>-17806.89059397364</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6816,15 +6802,11 @@
         <v>-17906.64059397364</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6853,15 +6835,11 @@
         <v>-17886.17409397364</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6890,15 +6868,11 @@
         <v>-17878.49089397365</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6927,15 +6901,11 @@
         <v>-17871.19189397365</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6964,15 +6934,11 @@
         <v>-17570.89279397365</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7001,15 +6967,11 @@
         <v>-17516.68469397365</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7038,15 +7000,11 @@
         <v>-17607.76469397365</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7075,15 +7033,11 @@
         <v>-17607.76469397365</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7112,15 +7066,11 @@
         <v>-17611.96749397365</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7149,15 +7099,11 @@
         <v>-17711.71749397365</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7186,15 +7132,11 @@
         <v>-17855.53219397365</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7223,15 +7165,11 @@
         <v>-17893.16679397365</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7260,15 +7198,11 @@
         <v>-17793.96679397365</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7297,15 +7231,11 @@
         <v>-17889.48669397365</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7334,15 +7264,11 @@
         <v>-17889.48669397365</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7375,11 +7301,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7412,11 +7334,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7449,11 +7367,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7482,15 +7396,11 @@
         <v>-17751.66949397365</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7519,15 +7429,11 @@
         <v>-17717.23279397365</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7556,15 +7462,11 @@
         <v>-17538.99169397365</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7593,15 +7495,11 @@
         <v>-17589.11815698462</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7630,15 +7528,11 @@
         <v>-17609.41015698462</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7667,15 +7561,11 @@
         <v>-17609.41015698462</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7708,11 +7598,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7745,11 +7631,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7782,11 +7664,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7819,11 +7697,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7852,15 +7726,11 @@
         <v>-18952.45465698461</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7889,15 +7759,11 @@
         <v>-19114.10255698461</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7926,15 +7792,11 @@
         <v>-19114.10255698461</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7967,11 +7829,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8004,11 +7862,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +7895,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8078,11 +7928,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8115,11 +7961,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8152,11 +7994,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8189,11 +8027,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8226,11 +8060,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8263,11 +8093,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8300,11 +8126,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8337,11 +8159,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8374,11 +8192,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8411,11 +8225,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8448,11 +8258,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8485,11 +8291,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8522,11 +8324,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8559,11 +8357,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8596,11 +8390,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8633,11 +8423,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8670,11 +8456,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8707,11 +8489,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8744,11 +8522,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8781,11 +8555,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8818,11 +8588,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8855,11 +8621,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8892,11 +8654,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8929,11 +8687,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8966,11 +8720,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9003,11 +8753,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9040,11 +8786,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9077,11 +8819,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9114,11 +8852,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9151,11 +8885,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9188,11 +8918,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9225,11 +8951,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +8984,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9299,11 +9017,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9336,11 +9050,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9373,11 +9083,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9410,11 +9116,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9447,11 +9149,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9484,11 +9182,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9521,11 +9215,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9558,11 +9248,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9595,11 +9281,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9632,11 +9314,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9669,11 +9347,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9706,11 +9380,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9743,11 +9413,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9780,11 +9446,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9817,11 +9479,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9854,11 +9512,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9891,11 +9545,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9928,11 +9578,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9965,11 +9611,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10002,11 +9644,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10039,11 +9677,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10076,11 +9710,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10113,11 +9743,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10150,11 +9776,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10187,11 +9809,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10224,11 +9842,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10261,11 +9875,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10298,11 +9908,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10335,11 +9941,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10372,11 +9974,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10409,11 +10007,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10446,11 +10040,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10483,11 +10073,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10520,11 +10106,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10557,11 +10139,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10594,11 +10172,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10631,11 +10205,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10668,11 +10238,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10705,11 +10271,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10742,11 +10304,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10779,11 +10337,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10816,11 +10370,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10853,11 +10403,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10890,11 +10436,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10927,11 +10469,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10960,15 +10498,15 @@
         <v>-25455.29479175413</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>4969</v>
+      </c>
+      <c r="J297" t="n">
+        <v>4969</v>
+      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10997,13 +10535,17 @@
         <v>-25500.78119175413</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>4969</v>
+      </c>
+      <c r="J298" t="n">
+        <v>4969</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L298" t="n">
@@ -11034,13 +10576,17 @@
         <v>-25500.78119175413</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>4966</v>
+      </c>
+      <c r="J299" t="n">
+        <v>4969</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L299" t="n">
@@ -11071,15 +10617,15 @@
         <v>-25384.87329175413</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>4966</v>
+      </c>
+      <c r="J300" t="n">
+        <v>4966</v>
+      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11108,13 +10654,17 @@
         <v>-25384.87329175413</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>4970</v>
+      </c>
+      <c r="J301" t="n">
+        <v>4966</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L301" t="n">
@@ -11145,13 +10695,17 @@
         <v>-25368.02249175413</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>4970</v>
+      </c>
+      <c r="J302" t="n">
+        <v>4966</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L302" t="n">
@@ -11182,15 +10736,15 @@
         <v>-25373.12319175413</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>4971</v>
+      </c>
+      <c r="J303" t="n">
+        <v>4971</v>
+      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11219,13 +10773,17 @@
         <v>-25191.05249175413</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>4970</v>
+      </c>
+      <c r="J304" t="n">
+        <v>4971</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L304" t="n">
@@ -11256,13 +10814,17 @@
         <v>-25392.12289175413</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>4988</v>
+      </c>
+      <c r="J305" t="n">
+        <v>4971</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L305" t="n">
@@ -11297,11 +10859,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11334,11 +10892,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11371,11 +10925,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11408,11 +10958,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11445,11 +10991,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11482,11 +11024,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11519,11 +11057,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11556,11 +11090,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11593,11 +11123,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11630,11 +11156,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11667,11 +11189,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11704,11 +11222,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11741,11 +11255,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11778,11 +11288,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11815,11 +11321,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11852,11 +11354,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11889,11 +11387,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11926,11 +11420,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11963,11 +11453,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12000,11 +11486,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12037,11 +11519,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12074,11 +11552,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12111,11 +11585,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12148,11 +11618,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12185,11 +11651,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12222,11 +11684,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12259,11 +11717,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12292,15 +11746,15 @@
         <v>-26338.35359185403</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>4972</v>
+      </c>
+      <c r="J333" t="n">
+        <v>4972</v>
+      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12332,10 +11786,12 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>4972</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L334" t="n">
@@ -12366,13 +11822,15 @@
         <v>-26444.44479185403</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>4972</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L335" t="n">
@@ -12407,11 +11865,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12444,11 +11898,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12477,17 +11927,11 @@
         <v>-26898.07829185404</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>4947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12516,17 +11960,11 @@
         <v>-26902.37829185403</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>4936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12555,17 +11993,11 @@
         <v>-26897.87459185403</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>4930</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12594,17 +12026,11 @@
         <v>-26833.96459185403</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>4936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12633,17 +12059,11 @@
         <v>-26853.96459185403</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>4939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12672,17 +12092,11 @@
         <v>-26961.33779185404</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>4935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12716,12 +12130,10 @@
       <c r="I344" t="n">
         <v>4925</v>
       </c>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="n">
+        <v>4925</v>
+      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12755,10 +12167,12 @@
       <c r="I345" t="n">
         <v>4935</v>
       </c>
-      <c r="J345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>4925</v>
+      </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L345" t="n">
@@ -12794,10 +12208,12 @@
       <c r="I346" t="n">
         <v>4940</v>
       </c>
-      <c r="J346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>4925</v>
+      </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L346" t="n">
@@ -12833,10 +12249,12 @@
       <c r="I347" t="n">
         <v>4954</v>
       </c>
-      <c r="J347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>4925</v>
+      </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L347" t="n">
@@ -12872,7 +12290,9 @@
       <c r="I348" t="n">
         <v>4952</v>
       </c>
-      <c r="J348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>4925</v>
+      </c>
       <c r="K348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12911,7 +12331,9 @@
       <c r="I349" t="n">
         <v>4964</v>
       </c>
-      <c r="J349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>4925</v>
+      </c>
       <c r="K349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12945,10 +12367,14 @@
         <v>-26605.16919185403</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I350" t="n">
+        <v>4974</v>
+      </c>
+      <c r="J350" t="n">
+        <v>4925</v>
+      </c>
       <c r="K350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12960,6 +12386,6 @@
       <c r="M350" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest ETC.xlsx
+++ b/BackTest/2019-10-24 BackTest ETC.xlsx
@@ -2629,7 +2629,7 @@
         <v>-19073.77139823034</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-19078.79139823034</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-19098.29909823034</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-19097.29909823034</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-19099.05499823034</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-19098.55489752541</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-19098.55489752541</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-19098.55489752541</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-19096.55489752541</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-19099.87659752541</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-19099.87659752541</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-18816.94819752541</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-18747.45189752541</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-18746.95179714396</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-19007.25939714396</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-19040.25939714396</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-19038.32479714396</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-19038.32479714396</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-19039.40349714395</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-19150.19329714395</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-19230.91029714395</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-19249.64099714395</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-19250.45989714395</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-19167.81509714395</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-19578.63359714395</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-19930.54329714395</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-20039.95599714396</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-20475.13521608399</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4048,14 +4048,10 @@
         <v>-22274.79131608399</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>4790</v>
-      </c>
-      <c r="J111" t="n">
-        <v>4790</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4085,19 +4081,11 @@
         <v>-23690.05621608399</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>4870</v>
-      </c>
-      <c r="J112" t="n">
-        <v>4790</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4126,19 +4114,11 @@
         <v>-23029.87521608399</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>4850</v>
-      </c>
-      <c r="J113" t="n">
-        <v>4790</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4172,9 +4152,7 @@
       <c r="I114" t="n">
         <v>4860</v>
       </c>
-      <c r="J114" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -4213,9 +4191,7 @@
       <c r="I115" t="n">
         <v>4861</v>
       </c>
-      <c r="J115" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4254,9 +4230,7 @@
       <c r="I116" t="n">
         <v>4875</v>
       </c>
-      <c r="J116" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4290,14 +4264,10 @@
         <v>-20941.69631608399</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>4888</v>
-      </c>
-      <c r="J117" t="n">
-        <v>4790</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4334,9 +4304,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4375,9 +4343,7 @@
       <c r="I119" t="n">
         <v>4879</v>
       </c>
-      <c r="J119" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4411,12 +4377,12 @@
         <v>-20364.17281608399</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>4790</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>4879</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4453,9 +4419,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4492,9 +4456,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4531,9 +4493,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4570,9 +4530,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4609,9 +4567,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4648,9 +4604,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4687,9 +4641,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4726,9 +4678,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4765,9 +4715,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4804,9 +4752,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4843,9 +4789,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4882,9 +4826,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4921,9 +4863,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4960,9 +4900,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4999,9 +4937,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5038,9 +4974,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5077,9 +5011,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5116,9 +5048,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5155,9 +5085,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5194,9 +5122,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5233,9 +5159,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5272,9 +5196,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5311,9 +5233,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5350,9 +5270,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5389,9 +5307,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5425,20 +5341,16 @@
         <v>-19049.25441608399</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>4790</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
@@ -5464,17 +5376,11 @@
         <v>-18784.77219397364</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>4790</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5503,17 +5409,11 @@
         <v>-18896.67299397364</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>4790</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5545,14 +5445,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>4790</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5581,17 +5475,11 @@
         <v>-18893.43429397364</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>4790</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5620,17 +5508,11 @@
         <v>-19004.02089397364</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>4790</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5659,17 +5541,11 @@
         <v>-19609.20499397364</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>4790</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5701,14 +5577,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>4790</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5740,14 +5610,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>4790</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5779,14 +5643,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>4790</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5818,14 +5676,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>4790</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5857,14 +5709,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>4790</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5896,14 +5742,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>4790</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5935,14 +5775,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>4790</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5971,19 +5805,13 @@
         <v>-19740.58749397364</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>4790</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>1.032369519832985</v>
+        <v>1</v>
       </c>
       <c r="M160" t="inlineStr"/>
     </row>
@@ -6010,7 +5838,7 @@
         <v>-19740.58749397364</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6043,7 +5871,7 @@
         <v>-19719.24429397364</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -7297,7 +7125,7 @@
         <v>-17819.28029397365</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7330,7 +7158,7 @@
         <v>-17769.28029397365</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7363,7 +7191,7 @@
         <v>-17768.96399397365</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7594,7 +7422,7 @@
         <v>-17659.28515698462</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7627,7 +7455,7 @@
         <v>-18259.55965698462</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7660,7 +7488,7 @@
         <v>-18217.08505698462</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7693,7 +7521,7 @@
         <v>-19052.45465698461</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7825,7 +7653,7 @@
         <v>-18968.10255698461</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7858,7 +7686,7 @@
         <v>-18857.92835698461</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7891,7 +7719,7 @@
         <v>-19208.61525698461</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7924,7 +7752,7 @@
         <v>-19208.61525698461</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7957,7 +7785,7 @@
         <v>-19305.65645698461</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7990,7 +7818,7 @@
         <v>-19354.74445698461</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8023,7 +7851,7 @@
         <v>-19356.36475698461</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8056,7 +7884,7 @@
         <v>-19354.36045698461</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8089,7 +7917,7 @@
         <v>-19404.17135698461</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8122,7 +7950,7 @@
         <v>-19408.49225698461</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8155,7 +7983,7 @@
         <v>-19248.04225698461</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8188,7 +8016,7 @@
         <v>-19411.31925698461</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8221,7 +8049,7 @@
         <v>-19421.00575698461</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8254,7 +8082,7 @@
         <v>-19401.00575698461</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8287,7 +8115,7 @@
         <v>-19403.00575698461</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8320,7 +8148,7 @@
         <v>-19400.18645698461</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8353,7 +8181,7 @@
         <v>-19299.32285698461</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8386,7 +8214,7 @@
         <v>-19300.32285698461</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8419,7 +8247,7 @@
         <v>-19167.41095698461</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8452,7 +8280,7 @@
         <v>-18867.11185698461</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8485,7 +8313,7 @@
         <v>-18561.84475698461</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8518,7 +8346,7 @@
         <v>-18573.78495698461</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8551,7 +8379,7 @@
         <v>-18406.35355698461</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8584,7 +8412,7 @@
         <v>-18415.7735569846</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8617,7 +8445,7 @@
         <v>-18489.42095698461</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8650,7 +8478,7 @@
         <v>-18595.42095698461</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8683,7 +8511,7 @@
         <v>-18592.4175569846</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8716,7 +8544,7 @@
         <v>-18483.3393569846</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8749,7 +8577,7 @@
         <v>-18484.1667569846</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8782,7 +8610,7 @@
         <v>-18484.1667569846</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8815,7 +8643,7 @@
         <v>-18282.1866569846</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8848,7 +8676,7 @@
         <v>-18282.0866569846</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8881,7 +8709,7 @@
         <v>-18382.0866569846</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8914,7 +8742,7 @@
         <v>-18437.9409569846</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8947,7 +8775,7 @@
         <v>-18437.9409569846</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8980,7 +8808,7 @@
         <v>-18439.9409569846</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9013,7 +8841,7 @@
         <v>-18468.7593569846</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9046,7 +8874,7 @@
         <v>-18509.5604569846</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9079,7 +8907,7 @@
         <v>-18408.9016569846</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9112,7 +8940,7 @@
         <v>-18511.7470569846</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9145,7 +8973,7 @@
         <v>-18511.7470569846</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9178,7 +9006,7 @@
         <v>-19176.3661569846</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9211,7 +9039,7 @@
         <v>-19678.9847569846</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9244,7 +9072,7 @@
         <v>-20025.0641569846</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9277,7 +9105,7 @@
         <v>-19815.70584084914</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9310,7 +9138,7 @@
         <v>-20116.00494084914</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9343,7 +9171,7 @@
         <v>-20116.00494084914</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9376,7 +9204,7 @@
         <v>-20116.00494084914</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9409,7 +9237,7 @@
         <v>-20653.97174084914</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9442,7 +9270,7 @@
         <v>-20653.97174084914</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9475,7 +9303,7 @@
         <v>-20653.97174084914</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9508,7 +9336,7 @@
         <v>-20422.88294084914</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9541,7 +9369,7 @@
         <v>-20463.09504084914</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9574,7 +9402,7 @@
         <v>-20463.09504084914</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9607,7 +9435,7 @@
         <v>-20567.84504084914</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9640,7 +9468,7 @@
         <v>-20565.64468072104</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9673,7 +9501,7 @@
         <v>-20567.11988072104</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9706,7 +9534,7 @@
         <v>-20567.11988072104</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9739,7 +9567,7 @@
         <v>-20556.11988072104</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9772,7 +9600,7 @@
         <v>-20569.57108072104</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9805,7 +9633,7 @@
         <v>-20569.57108072104</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9838,7 +9666,7 @@
         <v>-21720.90288072104</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9871,7 +9699,7 @@
         <v>-21387.54838072104</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9904,7 +9732,7 @@
         <v>-21369.51848072104</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9937,7 +9765,7 @@
         <v>-22265.34898072104</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9970,7 +9798,7 @@
         <v>-22231.12978072104</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10003,7 +9831,7 @@
         <v>-22225.43748072104</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10036,7 +9864,7 @@
         <v>-22225.43748072104</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10069,7 +9897,7 @@
         <v>-22381.08938072104</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10102,7 +9930,7 @@
         <v>-22310.95938072104</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10135,7 +9963,7 @@
         <v>-22858.97208072104</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10498,14 +10326,10 @@
         <v>-25455.29479175413</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>4969</v>
-      </c>
-      <c r="J297" t="n">
-        <v>4969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
@@ -10535,19 +10359,11 @@
         <v>-25500.78119175413</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>4969</v>
-      </c>
-      <c r="J298" t="n">
-        <v>4969</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10576,19 +10392,11 @@
         <v>-25500.78119175413</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>4966</v>
-      </c>
-      <c r="J299" t="n">
-        <v>4969</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10617,14 +10425,10 @@
         <v>-25384.87329175413</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>4966</v>
-      </c>
-      <c r="J300" t="n">
-        <v>4966</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
@@ -10654,19 +10458,11 @@
         <v>-25384.87329175413</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>4970</v>
-      </c>
-      <c r="J301" t="n">
-        <v>4966</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10695,19 +10491,11 @@
         <v>-25368.02249175413</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>4970</v>
-      </c>
-      <c r="J302" t="n">
-        <v>4966</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10736,14 +10524,10 @@
         <v>-25373.12319175413</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>4971</v>
-      </c>
-      <c r="J303" t="n">
-        <v>4971</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
@@ -10773,19 +10557,11 @@
         <v>-25191.05249175413</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>4970</v>
-      </c>
-      <c r="J304" t="n">
-        <v>4971</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10814,19 +10590,11 @@
         <v>-25392.12289175413</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>4988</v>
-      </c>
-      <c r="J305" t="n">
-        <v>4971</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10954,7 +10722,7 @@
         <v>-25249.19319175413</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11383,7 +11151,7 @@
         <v>-25554.04319185403</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11416,7 +11184,7 @@
         <v>-25562.54049185403</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11449,10 +11217,14 @@
         <v>-25562.54049185403</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>4992</v>
+      </c>
+      <c r="J324" t="n">
+        <v>4992</v>
+      </c>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
@@ -11485,8 +11257,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>4992</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11515,11 +11293,19 @@
         <v>-25565.23329185403</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>4991</v>
+      </c>
+      <c r="J326" t="n">
+        <v>4992</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11548,11 +11334,19 @@
         <v>-25571.37989185403</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I327" t="n">
+        <v>4992</v>
+      </c>
+      <c r="J327" t="n">
+        <v>4992</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11581,11 +11375,19 @@
         <v>-25545.88889185403</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>4991</v>
+      </c>
+      <c r="J328" t="n">
+        <v>4992</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11614,11 +11416,19 @@
         <v>-25538.07889185403</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>4992</v>
+      </c>
+      <c r="J329" t="n">
+        <v>4992</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11647,11 +11457,19 @@
         <v>-26221.07139185403</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I330" t="n">
+        <v>4994</v>
+      </c>
+      <c r="J330" t="n">
+        <v>4992</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11680,11 +11498,19 @@
         <v>-26283.29079185403</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I331" t="n">
+        <v>4987</v>
+      </c>
+      <c r="J331" t="n">
+        <v>4992</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11713,11 +11539,19 @@
         <v>-26435.95359185403</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I332" t="n">
+        <v>4981</v>
+      </c>
+      <c r="J332" t="n">
+        <v>4992</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11752,9 +11586,13 @@
         <v>4972</v>
       </c>
       <c r="J333" t="n">
-        <v>4972</v>
-      </c>
-      <c r="K333" t="inlineStr"/>
+        <v>4992</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11783,15 +11621,17 @@
         <v>-26435.95349185403</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>4982</v>
+      </c>
       <c r="J334" t="n">
-        <v>4972</v>
+        <v>4992</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L334" t="n">
@@ -11822,15 +11662,17 @@
         <v>-26444.44479185403</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I335" t="n">
+        <v>4981</v>
+      </c>
       <c r="J335" t="n">
-        <v>4972</v>
+        <v>4992</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L335" t="n">
@@ -11861,11 +11703,19 @@
         <v>-26651.05359185403</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I336" t="n">
+        <v>4970</v>
+      </c>
+      <c r="J336" t="n">
+        <v>4992</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11894,11 +11744,19 @@
         <v>-26868.14039185403</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I337" t="n">
+        <v>4952</v>
+      </c>
+      <c r="J337" t="n">
+        <v>4992</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11927,11 +11785,19 @@
         <v>-26898.07829185404</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>4947</v>
+      </c>
+      <c r="J338" t="n">
+        <v>4992</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11960,11 +11826,19 @@
         <v>-26902.37829185403</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>4936</v>
+      </c>
+      <c r="J339" t="n">
+        <v>4992</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11993,11 +11867,19 @@
         <v>-26897.87459185403</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I340" t="n">
+        <v>4930</v>
+      </c>
+      <c r="J340" t="n">
+        <v>4992</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12026,11 +11908,19 @@
         <v>-26833.96459185403</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I341" t="n">
+        <v>4936</v>
+      </c>
+      <c r="J341" t="n">
+        <v>4992</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12059,11 +11949,19 @@
         <v>-26853.96459185403</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I342" t="n">
+        <v>4939</v>
+      </c>
+      <c r="J342" t="n">
+        <v>4992</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12092,11 +11990,19 @@
         <v>-26961.33779185404</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I343" t="n">
+        <v>4935</v>
+      </c>
+      <c r="J343" t="n">
+        <v>4992</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12131,9 +12037,13 @@
         <v>4925</v>
       </c>
       <c r="J344" t="n">
-        <v>4925</v>
-      </c>
-      <c r="K344" t="inlineStr"/>
+        <v>4992</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12168,11 +12078,11 @@
         <v>4935</v>
       </c>
       <c r="J345" t="n">
-        <v>4925</v>
+        <v>4992</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L345" t="n">
@@ -12209,11 +12119,11 @@
         <v>4940</v>
       </c>
       <c r="J346" t="n">
-        <v>4925</v>
+        <v>4992</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L346" t="n">
@@ -12250,11 +12160,11 @@
         <v>4954</v>
       </c>
       <c r="J347" t="n">
-        <v>4925</v>
+        <v>4992</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L347" t="n">
@@ -12291,7 +12201,7 @@
         <v>4952</v>
       </c>
       <c r="J348" t="n">
-        <v>4925</v>
+        <v>4992</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12332,7 +12242,7 @@
         <v>4964</v>
       </c>
       <c r="J349" t="n">
-        <v>4925</v>
+        <v>4992</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12373,7 +12283,7 @@
         <v>4974</v>
       </c>
       <c r="J350" t="n">
-        <v>4925</v>
+        <v>4992</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
